--- a/2021年_テトリス/01_要件定義/テトリス_要件定義書.xlsx
+++ b/2021年_テトリス/01_要件定義/テトリス_要件定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beaming-boy/growth/テトリス/ドキュメント共有フォルダ/2021年_テトリス/01_要件定義/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFDBAB4-6F3A-1041-88AF-DDDEA9A6AAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E578BA-FB25-F147-8B5F-9760A09B72D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33560" yWindow="1380" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="1340" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -1182,102 +1182,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1389,6 +1293,102 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1436,7 +1436,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3139"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3141"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1495,7 +1495,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2115"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2117"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3431,7 +3431,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s6154"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s6156"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3730,189 +3730,189 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="41" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="41" t="s">
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="41" t="s">
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="41" t="s">
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="41" t="s">
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="41" t="s">
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="43"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="80"/>
       <c r="BB1" s="2"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="53" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="59">
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="96">
         <v>44443</v>
       </c>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="53" t="s">
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="59">
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="96">
         <v>44551</v>
       </c>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="53" t="s">
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="55"/>
+      <c r="AV2" s="91"/>
+      <c r="AW2" s="91"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="92"/>
       <c r="BB2" s="2"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="58"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="100"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="94"/>
+      <c r="AO3" s="95"/>
+      <c r="AP3" s="99"/>
+      <c r="AQ3" s="100"/>
+      <c r="AR3" s="100"/>
+      <c r="AS3" s="100"/>
+      <c r="AT3" s="101"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="94"/>
+      <c r="AW3" s="94"/>
+      <c r="AX3" s="94"/>
+      <c r="AY3" s="95"/>
       <c r="BB3" s="2"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -5201,62 +5201,62 @@
         <v>1</v>
       </c>
       <c r="B8" s="31"/>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="68">
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105">
         <v>43932</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="71" t="s">
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="66"/>
-      <c r="AO8" s="66"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
-      <c r="AX8" s="66"/>
-      <c r="AY8" s="66"/>
-      <c r="AZ8" s="67"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="103"/>
+      <c r="AA8" s="103"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="103"/>
+      <c r="AE8" s="103"/>
+      <c r="AF8" s="103"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="103"/>
+      <c r="AI8" s="103"/>
+      <c r="AJ8" s="103"/>
+      <c r="AK8" s="103"/>
+      <c r="AL8" s="104"/>
+      <c r="AM8" s="102"/>
+      <c r="AN8" s="103"/>
+      <c r="AO8" s="103"/>
+      <c r="AP8" s="103"/>
+      <c r="AQ8" s="103"/>
+      <c r="AR8" s="103"/>
+      <c r="AS8" s="103"/>
+      <c r="AT8" s="103"/>
+      <c r="AU8" s="103"/>
+      <c r="AV8" s="103"/>
+      <c r="AW8" s="103"/>
+      <c r="AX8" s="103"/>
+      <c r="AY8" s="103"/>
+      <c r="AZ8" s="104"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="30">
@@ -5264,64 +5264,64 @@
         <v>2</v>
       </c>
       <c r="B9" s="31"/>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68">
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105">
         <v>44548</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="71" t="s">
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="71" t="s">
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="71"/>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="66"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="66"/>
-      <c r="AT9" s="66"/>
-      <c r="AU9" s="66"/>
-      <c r="AV9" s="66"/>
-      <c r="AW9" s="66"/>
-      <c r="AX9" s="66"/>
-      <c r="AY9" s="66"/>
-      <c r="AZ9" s="67"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="103"/>
+      <c r="U9" s="103"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="103"/>
+      <c r="Y9" s="103"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="103"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="103"/>
+      <c r="AJ9" s="103"/>
+      <c r="AK9" s="103"/>
+      <c r="AL9" s="104"/>
+      <c r="AM9" s="102"/>
+      <c r="AN9" s="103"/>
+      <c r="AO9" s="103"/>
+      <c r="AP9" s="103"/>
+      <c r="AQ9" s="103"/>
+      <c r="AR9" s="103"/>
+      <c r="AS9" s="103"/>
+      <c r="AT9" s="103"/>
+      <c r="AU9" s="103"/>
+      <c r="AV9" s="103"/>
+      <c r="AW9" s="103"/>
+      <c r="AX9" s="103"/>
+      <c r="AY9" s="103"/>
+      <c r="AZ9" s="104"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="30" t="str">
@@ -5329,56 +5329,56 @@
         <v/>
       </c>
       <c r="B10" s="31"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="67"/>
-      <c r="AM10" s="71"/>
-      <c r="AN10" s="66"/>
-      <c r="AO10" s="66"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="66"/>
-      <c r="AW10" s="66"/>
-      <c r="AX10" s="66"/>
-      <c r="AY10" s="66"/>
-      <c r="AZ10" s="67"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="103"/>
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="103"/>
+      <c r="AL10" s="104"/>
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="103"/>
+      <c r="AO10" s="103"/>
+      <c r="AP10" s="103"/>
+      <c r="AQ10" s="103"/>
+      <c r="AR10" s="103"/>
+      <c r="AS10" s="103"/>
+      <c r="AT10" s="103"/>
+      <c r="AU10" s="103"/>
+      <c r="AV10" s="103"/>
+      <c r="AW10" s="103"/>
+      <c r="AX10" s="103"/>
+      <c r="AY10" s="103"/>
+      <c r="AZ10" s="104"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="30" t="str">
@@ -5386,56 +5386,56 @@
         <v/>
       </c>
       <c r="B11" s="31"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="67"/>
-      <c r="AM11" s="71"/>
-      <c r="AN11" s="66"/>
-      <c r="AO11" s="66"/>
-      <c r="AP11" s="66"/>
-      <c r="AQ11" s="66"/>
-      <c r="AR11" s="66"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="66"/>
-      <c r="AV11" s="66"/>
-      <c r="AW11" s="66"/>
-      <c r="AX11" s="66"/>
-      <c r="AY11" s="66"/>
-      <c r="AZ11" s="67"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="103"/>
+      <c r="Y11" s="103"/>
+      <c r="Z11" s="103"/>
+      <c r="AA11" s="103"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="103"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="103"/>
+      <c r="AG11" s="103"/>
+      <c r="AH11" s="103"/>
+      <c r="AI11" s="103"/>
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="103"/>
+      <c r="AL11" s="104"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="103"/>
+      <c r="AO11" s="103"/>
+      <c r="AP11" s="103"/>
+      <c r="AQ11" s="103"/>
+      <c r="AR11" s="103"/>
+      <c r="AS11" s="103"/>
+      <c r="AT11" s="103"/>
+      <c r="AU11" s="103"/>
+      <c r="AV11" s="103"/>
+      <c r="AW11" s="103"/>
+      <c r="AX11" s="103"/>
+      <c r="AY11" s="103"/>
+      <c r="AZ11" s="104"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="30" t="str">
@@ -5443,56 +5443,56 @@
         <v/>
       </c>
       <c r="B12" s="31"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="67"/>
-      <c r="AM12" s="71"/>
-      <c r="AN12" s="66"/>
-      <c r="AO12" s="66"/>
-      <c r="AP12" s="66"/>
-      <c r="AQ12" s="66"/>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
-      <c r="AV12" s="66"/>
-      <c r="AW12" s="66"/>
-      <c r="AX12" s="66"/>
-      <c r="AY12" s="66"/>
-      <c r="AZ12" s="67"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="103"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="103"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="103"/>
+      <c r="Z12" s="103"/>
+      <c r="AA12" s="103"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="103"/>
+      <c r="AD12" s="103"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="103"/>
+      <c r="AG12" s="103"/>
+      <c r="AH12" s="103"/>
+      <c r="AI12" s="103"/>
+      <c r="AJ12" s="103"/>
+      <c r="AK12" s="103"/>
+      <c r="AL12" s="104"/>
+      <c r="AM12" s="102"/>
+      <c r="AN12" s="103"/>
+      <c r="AO12" s="103"/>
+      <c r="AP12" s="103"/>
+      <c r="AQ12" s="103"/>
+      <c r="AR12" s="103"/>
+      <c r="AS12" s="103"/>
+      <c r="AT12" s="103"/>
+      <c r="AU12" s="103"/>
+      <c r="AV12" s="103"/>
+      <c r="AW12" s="103"/>
+      <c r="AX12" s="103"/>
+      <c r="AY12" s="103"/>
+      <c r="AZ12" s="104"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="30" t="str">
@@ -5500,56 +5500,56 @@
         <v/>
       </c>
       <c r="B13" s="31"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="71"/>
-      <c r="AN13" s="66"/>
-      <c r="AO13" s="66"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="66"/>
-      <c r="AV13" s="66"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="66"/>
-      <c r="AY13" s="66"/>
-      <c r="AZ13" s="67"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="103"/>
+      <c r="Z13" s="103"/>
+      <c r="AA13" s="103"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="103"/>
+      <c r="AD13" s="103"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="103"/>
+      <c r="AG13" s="103"/>
+      <c r="AH13" s="103"/>
+      <c r="AI13" s="103"/>
+      <c r="AJ13" s="103"/>
+      <c r="AK13" s="103"/>
+      <c r="AL13" s="104"/>
+      <c r="AM13" s="102"/>
+      <c r="AN13" s="103"/>
+      <c r="AO13" s="103"/>
+      <c r="AP13" s="103"/>
+      <c r="AQ13" s="103"/>
+      <c r="AR13" s="103"/>
+      <c r="AS13" s="103"/>
+      <c r="AT13" s="103"/>
+      <c r="AU13" s="103"/>
+      <c r="AV13" s="103"/>
+      <c r="AW13" s="103"/>
+      <c r="AX13" s="103"/>
+      <c r="AY13" s="103"/>
+      <c r="AZ13" s="104"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="30" t="str">
@@ -5557,56 +5557,56 @@
         <v/>
       </c>
       <c r="B14" s="31"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="67"/>
-      <c r="AM14" s="71"/>
-      <c r="AN14" s="66"/>
-      <c r="AO14" s="66"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="66"/>
-      <c r="AW14" s="66"/>
-      <c r="AX14" s="66"/>
-      <c r="AY14" s="66"/>
-      <c r="AZ14" s="67"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="103"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="103"/>
+      <c r="Z14" s="103"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="103"/>
+      <c r="AC14" s="103"/>
+      <c r="AD14" s="103"/>
+      <c r="AE14" s="103"/>
+      <c r="AF14" s="103"/>
+      <c r="AG14" s="103"/>
+      <c r="AH14" s="103"/>
+      <c r="AI14" s="103"/>
+      <c r="AJ14" s="103"/>
+      <c r="AK14" s="103"/>
+      <c r="AL14" s="104"/>
+      <c r="AM14" s="102"/>
+      <c r="AN14" s="103"/>
+      <c r="AO14" s="103"/>
+      <c r="AP14" s="103"/>
+      <c r="AQ14" s="103"/>
+      <c r="AR14" s="103"/>
+      <c r="AS14" s="103"/>
+      <c r="AT14" s="103"/>
+      <c r="AU14" s="103"/>
+      <c r="AV14" s="103"/>
+      <c r="AW14" s="103"/>
+      <c r="AX14" s="103"/>
+      <c r="AY14" s="103"/>
+      <c r="AZ14" s="104"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="30" t="str">
@@ -5614,56 +5614,56 @@
         <v/>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="67"/>
-      <c r="AM15" s="71"/>
-      <c r="AN15" s="66"/>
-      <c r="AO15" s="66"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="66"/>
-      <c r="AW15" s="66"/>
-      <c r="AX15" s="66"/>
-      <c r="AY15" s="66"/>
-      <c r="AZ15" s="67"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
+      <c r="W15" s="103"/>
+      <c r="X15" s="103"/>
+      <c r="Y15" s="103"/>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="103"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="103"/>
+      <c r="AI15" s="103"/>
+      <c r="AJ15" s="103"/>
+      <c r="AK15" s="103"/>
+      <c r="AL15" s="104"/>
+      <c r="AM15" s="102"/>
+      <c r="AN15" s="103"/>
+      <c r="AO15" s="103"/>
+      <c r="AP15" s="103"/>
+      <c r="AQ15" s="103"/>
+      <c r="AR15" s="103"/>
+      <c r="AS15" s="103"/>
+      <c r="AT15" s="103"/>
+      <c r="AU15" s="103"/>
+      <c r="AV15" s="103"/>
+      <c r="AW15" s="103"/>
+      <c r="AX15" s="103"/>
+      <c r="AY15" s="103"/>
+      <c r="AZ15" s="104"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="30" t="str">
@@ -5671,56 +5671,56 @@
         <v/>
       </c>
       <c r="B16" s="31"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="67"/>
-      <c r="AM16" s="71"/>
-      <c r="AN16" s="66"/>
-      <c r="AO16" s="66"/>
-      <c r="AP16" s="66"/>
-      <c r="AQ16" s="66"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="66"/>
-      <c r="AW16" s="66"/>
-      <c r="AX16" s="66"/>
-      <c r="AY16" s="66"/>
-      <c r="AZ16" s="67"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="103"/>
+      <c r="Z16" s="103"/>
+      <c r="AA16" s="103"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="103"/>
+      <c r="AD16" s="103"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="103"/>
+      <c r="AG16" s="103"/>
+      <c r="AH16" s="103"/>
+      <c r="AI16" s="103"/>
+      <c r="AJ16" s="103"/>
+      <c r="AK16" s="103"/>
+      <c r="AL16" s="104"/>
+      <c r="AM16" s="102"/>
+      <c r="AN16" s="103"/>
+      <c r="AO16" s="103"/>
+      <c r="AP16" s="103"/>
+      <c r="AQ16" s="103"/>
+      <c r="AR16" s="103"/>
+      <c r="AS16" s="103"/>
+      <c r="AT16" s="103"/>
+      <c r="AU16" s="103"/>
+      <c r="AV16" s="103"/>
+      <c r="AW16" s="103"/>
+      <c r="AX16" s="103"/>
+      <c r="AY16" s="103"/>
+      <c r="AZ16" s="104"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="30" t="str">
@@ -5728,56 +5728,56 @@
         <v/>
       </c>
       <c r="B17" s="31"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="67"/>
-      <c r="AM17" s="71"/>
-      <c r="AN17" s="66"/>
-      <c r="AO17" s="66"/>
-      <c r="AP17" s="66"/>
-      <c r="AQ17" s="66"/>
-      <c r="AR17" s="66"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="66"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="66"/>
-      <c r="AZ17" s="67"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="103"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="103"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="103"/>
+      <c r="AG17" s="103"/>
+      <c r="AH17" s="103"/>
+      <c r="AI17" s="103"/>
+      <c r="AJ17" s="103"/>
+      <c r="AK17" s="103"/>
+      <c r="AL17" s="104"/>
+      <c r="AM17" s="102"/>
+      <c r="AN17" s="103"/>
+      <c r="AO17" s="103"/>
+      <c r="AP17" s="103"/>
+      <c r="AQ17" s="103"/>
+      <c r="AR17" s="103"/>
+      <c r="AS17" s="103"/>
+      <c r="AT17" s="103"/>
+      <c r="AU17" s="103"/>
+      <c r="AV17" s="103"/>
+      <c r="AW17" s="103"/>
+      <c r="AX17" s="103"/>
+      <c r="AY17" s="103"/>
+      <c r="AZ17" s="104"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="30" t="str">
@@ -5785,56 +5785,56 @@
         <v/>
       </c>
       <c r="B18" s="31"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="67"/>
-      <c r="AM18" s="71"/>
-      <c r="AN18" s="66"/>
-      <c r="AO18" s="66"/>
-      <c r="AP18" s="66"/>
-      <c r="AQ18" s="66"/>
-      <c r="AR18" s="66"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="66"/>
-      <c r="AU18" s="66"/>
-      <c r="AV18" s="66"/>
-      <c r="AW18" s="66"/>
-      <c r="AX18" s="66"/>
-      <c r="AY18" s="66"/>
-      <c r="AZ18" s="67"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="103"/>
+      <c r="X18" s="103"/>
+      <c r="Y18" s="103"/>
+      <c r="Z18" s="103"/>
+      <c r="AA18" s="103"/>
+      <c r="AB18" s="103"/>
+      <c r="AC18" s="103"/>
+      <c r="AD18" s="103"/>
+      <c r="AE18" s="103"/>
+      <c r="AF18" s="103"/>
+      <c r="AG18" s="103"/>
+      <c r="AH18" s="103"/>
+      <c r="AI18" s="103"/>
+      <c r="AJ18" s="103"/>
+      <c r="AK18" s="103"/>
+      <c r="AL18" s="104"/>
+      <c r="AM18" s="102"/>
+      <c r="AN18" s="103"/>
+      <c r="AO18" s="103"/>
+      <c r="AP18" s="103"/>
+      <c r="AQ18" s="103"/>
+      <c r="AR18" s="103"/>
+      <c r="AS18" s="103"/>
+      <c r="AT18" s="103"/>
+      <c r="AU18" s="103"/>
+      <c r="AV18" s="103"/>
+      <c r="AW18" s="103"/>
+      <c r="AX18" s="103"/>
+      <c r="AY18" s="103"/>
+      <c r="AZ18" s="104"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="30" t="str">
@@ -5842,56 +5842,56 @@
         <v/>
       </c>
       <c r="B19" s="31"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="67"/>
-      <c r="AM19" s="71"/>
-      <c r="AN19" s="66"/>
-      <c r="AO19" s="66"/>
-      <c r="AP19" s="66"/>
-      <c r="AQ19" s="66"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
-      <c r="AZ19" s="67"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="103"/>
+      <c r="T19" s="103"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="103"/>
+      <c r="W19" s="103"/>
+      <c r="X19" s="103"/>
+      <c r="Y19" s="103"/>
+      <c r="Z19" s="103"/>
+      <c r="AA19" s="103"/>
+      <c r="AB19" s="103"/>
+      <c r="AC19" s="103"/>
+      <c r="AD19" s="103"/>
+      <c r="AE19" s="103"/>
+      <c r="AF19" s="103"/>
+      <c r="AG19" s="103"/>
+      <c r="AH19" s="103"/>
+      <c r="AI19" s="103"/>
+      <c r="AJ19" s="103"/>
+      <c r="AK19" s="103"/>
+      <c r="AL19" s="104"/>
+      <c r="AM19" s="102"/>
+      <c r="AN19" s="103"/>
+      <c r="AO19" s="103"/>
+      <c r="AP19" s="103"/>
+      <c r="AQ19" s="103"/>
+      <c r="AR19" s="103"/>
+      <c r="AS19" s="103"/>
+      <c r="AT19" s="103"/>
+      <c r="AU19" s="103"/>
+      <c r="AV19" s="103"/>
+      <c r="AW19" s="103"/>
+      <c r="AX19" s="103"/>
+      <c r="AY19" s="103"/>
+      <c r="AZ19" s="104"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="30" t="str">
@@ -5899,56 +5899,56 @@
         <v/>
       </c>
       <c r="B20" s="31"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="67"/>
-      <c r="AM20" s="71"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="67"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="103"/>
+      <c r="X20" s="103"/>
+      <c r="Y20" s="103"/>
+      <c r="Z20" s="103"/>
+      <c r="AA20" s="103"/>
+      <c r="AB20" s="103"/>
+      <c r="AC20" s="103"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="103"/>
+      <c r="AF20" s="103"/>
+      <c r="AG20" s="103"/>
+      <c r="AH20" s="103"/>
+      <c r="AI20" s="103"/>
+      <c r="AJ20" s="103"/>
+      <c r="AK20" s="103"/>
+      <c r="AL20" s="104"/>
+      <c r="AM20" s="102"/>
+      <c r="AN20" s="103"/>
+      <c r="AO20" s="103"/>
+      <c r="AP20" s="103"/>
+      <c r="AQ20" s="103"/>
+      <c r="AR20" s="103"/>
+      <c r="AS20" s="103"/>
+      <c r="AT20" s="103"/>
+      <c r="AU20" s="103"/>
+      <c r="AV20" s="103"/>
+      <c r="AW20" s="103"/>
+      <c r="AX20" s="103"/>
+      <c r="AY20" s="103"/>
+      <c r="AZ20" s="104"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="30" t="str">
@@ -5956,56 +5956,56 @@
         <v/>
       </c>
       <c r="B21" s="31"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="67"/>
-      <c r="AM21" s="71"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="67"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="103"/>
+      <c r="V21" s="103"/>
+      <c r="W21" s="103"/>
+      <c r="X21" s="103"/>
+      <c r="Y21" s="103"/>
+      <c r="Z21" s="103"/>
+      <c r="AA21" s="103"/>
+      <c r="AB21" s="103"/>
+      <c r="AC21" s="103"/>
+      <c r="AD21" s="103"/>
+      <c r="AE21" s="103"/>
+      <c r="AF21" s="103"/>
+      <c r="AG21" s="103"/>
+      <c r="AH21" s="103"/>
+      <c r="AI21" s="103"/>
+      <c r="AJ21" s="103"/>
+      <c r="AK21" s="103"/>
+      <c r="AL21" s="104"/>
+      <c r="AM21" s="102"/>
+      <c r="AN21" s="103"/>
+      <c r="AO21" s="103"/>
+      <c r="AP21" s="103"/>
+      <c r="AQ21" s="103"/>
+      <c r="AR21" s="103"/>
+      <c r="AS21" s="103"/>
+      <c r="AT21" s="103"/>
+      <c r="AU21" s="103"/>
+      <c r="AV21" s="103"/>
+      <c r="AW21" s="103"/>
+      <c r="AX21" s="103"/>
+      <c r="AY21" s="103"/>
+      <c r="AZ21" s="104"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="30" t="str">
@@ -6013,56 +6013,56 @@
         <v/>
       </c>
       <c r="B22" s="31"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="67"/>
-      <c r="AM22" s="71"/>
-      <c r="AN22" s="66"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="66"/>
-      <c r="AQ22" s="66"/>
-      <c r="AR22" s="66"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="66"/>
-      <c r="AU22" s="66"/>
-      <c r="AV22" s="66"/>
-      <c r="AW22" s="66"/>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="66"/>
-      <c r="AZ22" s="67"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="103"/>
+      <c r="U22" s="103"/>
+      <c r="V22" s="103"/>
+      <c r="W22" s="103"/>
+      <c r="X22" s="103"/>
+      <c r="Y22" s="103"/>
+      <c r="Z22" s="103"/>
+      <c r="AA22" s="103"/>
+      <c r="AB22" s="103"/>
+      <c r="AC22" s="103"/>
+      <c r="AD22" s="103"/>
+      <c r="AE22" s="103"/>
+      <c r="AF22" s="103"/>
+      <c r="AG22" s="103"/>
+      <c r="AH22" s="103"/>
+      <c r="AI22" s="103"/>
+      <c r="AJ22" s="103"/>
+      <c r="AK22" s="103"/>
+      <c r="AL22" s="104"/>
+      <c r="AM22" s="102"/>
+      <c r="AN22" s="103"/>
+      <c r="AO22" s="103"/>
+      <c r="AP22" s="103"/>
+      <c r="AQ22" s="103"/>
+      <c r="AR22" s="103"/>
+      <c r="AS22" s="103"/>
+      <c r="AT22" s="103"/>
+      <c r="AU22" s="103"/>
+      <c r="AV22" s="103"/>
+      <c r="AW22" s="103"/>
+      <c r="AX22" s="103"/>
+      <c r="AY22" s="103"/>
+      <c r="AZ22" s="104"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="30" t="str">
@@ -6070,56 +6070,56 @@
         <v/>
       </c>
       <c r="B23" s="31"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="67"/>
-      <c r="AM23" s="71"/>
-      <c r="AN23" s="66"/>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="66"/>
-      <c r="AQ23" s="66"/>
-      <c r="AR23" s="66"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="66"/>
-      <c r="AU23" s="66"/>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66"/>
-      <c r="AX23" s="66"/>
-      <c r="AY23" s="66"/>
-      <c r="AZ23" s="67"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="103"/>
+      <c r="U23" s="103"/>
+      <c r="V23" s="103"/>
+      <c r="W23" s="103"/>
+      <c r="X23" s="103"/>
+      <c r="Y23" s="103"/>
+      <c r="Z23" s="103"/>
+      <c r="AA23" s="103"/>
+      <c r="AB23" s="103"/>
+      <c r="AC23" s="103"/>
+      <c r="AD23" s="103"/>
+      <c r="AE23" s="103"/>
+      <c r="AF23" s="103"/>
+      <c r="AG23" s="103"/>
+      <c r="AH23" s="103"/>
+      <c r="AI23" s="103"/>
+      <c r="AJ23" s="103"/>
+      <c r="AK23" s="103"/>
+      <c r="AL23" s="104"/>
+      <c r="AM23" s="102"/>
+      <c r="AN23" s="103"/>
+      <c r="AO23" s="103"/>
+      <c r="AP23" s="103"/>
+      <c r="AQ23" s="103"/>
+      <c r="AR23" s="103"/>
+      <c r="AS23" s="103"/>
+      <c r="AT23" s="103"/>
+      <c r="AU23" s="103"/>
+      <c r="AV23" s="103"/>
+      <c r="AW23" s="103"/>
+      <c r="AX23" s="103"/>
+      <c r="AY23" s="103"/>
+      <c r="AZ23" s="104"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="30" t="str">
@@ -6127,56 +6127,56 @@
         <v/>
       </c>
       <c r="B24" s="31"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="67"/>
-      <c r="AM24" s="71"/>
-      <c r="AN24" s="66"/>
-      <c r="AO24" s="66"/>
-      <c r="AP24" s="66"/>
-      <c r="AQ24" s="66"/>
-      <c r="AR24" s="66"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="66"/>
-      <c r="AU24" s="66"/>
-      <c r="AV24" s="66"/>
-      <c r="AW24" s="66"/>
-      <c r="AX24" s="66"/>
-      <c r="AY24" s="66"/>
-      <c r="AZ24" s="67"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="103"/>
+      <c r="Z24" s="103"/>
+      <c r="AA24" s="103"/>
+      <c r="AB24" s="103"/>
+      <c r="AC24" s="103"/>
+      <c r="AD24" s="103"/>
+      <c r="AE24" s="103"/>
+      <c r="AF24" s="103"/>
+      <c r="AG24" s="103"/>
+      <c r="AH24" s="103"/>
+      <c r="AI24" s="103"/>
+      <c r="AJ24" s="103"/>
+      <c r="AK24" s="103"/>
+      <c r="AL24" s="104"/>
+      <c r="AM24" s="102"/>
+      <c r="AN24" s="103"/>
+      <c r="AO24" s="103"/>
+      <c r="AP24" s="103"/>
+      <c r="AQ24" s="103"/>
+      <c r="AR24" s="103"/>
+      <c r="AS24" s="103"/>
+      <c r="AT24" s="103"/>
+      <c r="AU24" s="103"/>
+      <c r="AV24" s="103"/>
+      <c r="AW24" s="103"/>
+      <c r="AX24" s="103"/>
+      <c r="AY24" s="103"/>
+      <c r="AZ24" s="104"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="30" t="str">
@@ -6184,56 +6184,56 @@
         <v/>
       </c>
       <c r="B25" s="31"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="66"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="66"/>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="67"/>
-      <c r="AM25" s="71"/>
-      <c r="AN25" s="66"/>
-      <c r="AO25" s="66"/>
-      <c r="AP25" s="66"/>
-      <c r="AQ25" s="66"/>
-      <c r="AR25" s="66"/>
-      <c r="AS25" s="66"/>
-      <c r="AT25" s="66"/>
-      <c r="AU25" s="66"/>
-      <c r="AV25" s="66"/>
-      <c r="AW25" s="66"/>
-      <c r="AX25" s="66"/>
-      <c r="AY25" s="66"/>
-      <c r="AZ25" s="67"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="103"/>
+      <c r="V25" s="103"/>
+      <c r="W25" s="103"/>
+      <c r="X25" s="103"/>
+      <c r="Y25" s="103"/>
+      <c r="Z25" s="103"/>
+      <c r="AA25" s="103"/>
+      <c r="AB25" s="103"/>
+      <c r="AC25" s="103"/>
+      <c r="AD25" s="103"/>
+      <c r="AE25" s="103"/>
+      <c r="AF25" s="103"/>
+      <c r="AG25" s="103"/>
+      <c r="AH25" s="103"/>
+      <c r="AI25" s="103"/>
+      <c r="AJ25" s="103"/>
+      <c r="AK25" s="103"/>
+      <c r="AL25" s="104"/>
+      <c r="AM25" s="102"/>
+      <c r="AN25" s="103"/>
+      <c r="AO25" s="103"/>
+      <c r="AP25" s="103"/>
+      <c r="AQ25" s="103"/>
+      <c r="AR25" s="103"/>
+      <c r="AS25" s="103"/>
+      <c r="AT25" s="103"/>
+      <c r="AU25" s="103"/>
+      <c r="AV25" s="103"/>
+      <c r="AW25" s="103"/>
+      <c r="AX25" s="103"/>
+      <c r="AY25" s="103"/>
+      <c r="AZ25" s="104"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="30" t="str">
@@ -6241,56 +6241,56 @@
         <v/>
       </c>
       <c r="B26" s="31"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="66"/>
-      <c r="AL26" s="67"/>
-      <c r="AM26" s="71"/>
-      <c r="AN26" s="66"/>
-      <c r="AO26" s="66"/>
-      <c r="AP26" s="66"/>
-      <c r="AQ26" s="66"/>
-      <c r="AR26" s="66"/>
-      <c r="AS26" s="66"/>
-      <c r="AT26" s="66"/>
-      <c r="AU26" s="66"/>
-      <c r="AV26" s="66"/>
-      <c r="AW26" s="66"/>
-      <c r="AX26" s="66"/>
-      <c r="AY26" s="66"/>
-      <c r="AZ26" s="67"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="103"/>
+      <c r="W26" s="103"/>
+      <c r="X26" s="103"/>
+      <c r="Y26" s="103"/>
+      <c r="Z26" s="103"/>
+      <c r="AA26" s="103"/>
+      <c r="AB26" s="103"/>
+      <c r="AC26" s="103"/>
+      <c r="AD26" s="103"/>
+      <c r="AE26" s="103"/>
+      <c r="AF26" s="103"/>
+      <c r="AG26" s="103"/>
+      <c r="AH26" s="103"/>
+      <c r="AI26" s="103"/>
+      <c r="AJ26" s="103"/>
+      <c r="AK26" s="103"/>
+      <c r="AL26" s="104"/>
+      <c r="AM26" s="102"/>
+      <c r="AN26" s="103"/>
+      <c r="AO26" s="103"/>
+      <c r="AP26" s="103"/>
+      <c r="AQ26" s="103"/>
+      <c r="AR26" s="103"/>
+      <c r="AS26" s="103"/>
+      <c r="AT26" s="103"/>
+      <c r="AU26" s="103"/>
+      <c r="AV26" s="103"/>
+      <c r="AW26" s="103"/>
+      <c r="AX26" s="103"/>
+      <c r="AY26" s="103"/>
+      <c r="AZ26" s="104"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="30" t="str">
@@ -6298,56 +6298,56 @@
         <v/>
       </c>
       <c r="B27" s="31"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="66"/>
-      <c r="AF27" s="66"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="66"/>
-      <c r="AK27" s="66"/>
-      <c r="AL27" s="67"/>
-      <c r="AM27" s="71"/>
-      <c r="AN27" s="66"/>
-      <c r="AO27" s="66"/>
-      <c r="AP27" s="66"/>
-      <c r="AQ27" s="66"/>
-      <c r="AR27" s="66"/>
-      <c r="AS27" s="66"/>
-      <c r="AT27" s="66"/>
-      <c r="AU27" s="66"/>
-      <c r="AV27" s="66"/>
-      <c r="AW27" s="66"/>
-      <c r="AX27" s="66"/>
-      <c r="AY27" s="66"/>
-      <c r="AZ27" s="67"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
+      <c r="X27" s="103"/>
+      <c r="Y27" s="103"/>
+      <c r="Z27" s="103"/>
+      <c r="AA27" s="103"/>
+      <c r="AB27" s="103"/>
+      <c r="AC27" s="103"/>
+      <c r="AD27" s="103"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="103"/>
+      <c r="AG27" s="103"/>
+      <c r="AH27" s="103"/>
+      <c r="AI27" s="103"/>
+      <c r="AJ27" s="103"/>
+      <c r="AK27" s="103"/>
+      <c r="AL27" s="104"/>
+      <c r="AM27" s="102"/>
+      <c r="AN27" s="103"/>
+      <c r="AO27" s="103"/>
+      <c r="AP27" s="103"/>
+      <c r="AQ27" s="103"/>
+      <c r="AR27" s="103"/>
+      <c r="AS27" s="103"/>
+      <c r="AT27" s="103"/>
+      <c r="AU27" s="103"/>
+      <c r="AV27" s="103"/>
+      <c r="AW27" s="103"/>
+      <c r="AX27" s="103"/>
+      <c r="AY27" s="103"/>
+      <c r="AZ27" s="104"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="30" t="str">
@@ -6355,56 +6355,56 @@
         <v/>
       </c>
       <c r="B28" s="31"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="66"/>
-      <c r="AC28" s="66"/>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="66"/>
-      <c r="AL28" s="67"/>
-      <c r="AM28" s="71"/>
-      <c r="AN28" s="66"/>
-      <c r="AO28" s="66"/>
-      <c r="AP28" s="66"/>
-      <c r="AQ28" s="66"/>
-      <c r="AR28" s="66"/>
-      <c r="AS28" s="66"/>
-      <c r="AT28" s="66"/>
-      <c r="AU28" s="66"/>
-      <c r="AV28" s="66"/>
-      <c r="AW28" s="66"/>
-      <c r="AX28" s="66"/>
-      <c r="AY28" s="66"/>
-      <c r="AZ28" s="67"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="103"/>
+      <c r="Z28" s="103"/>
+      <c r="AA28" s="103"/>
+      <c r="AB28" s="103"/>
+      <c r="AC28" s="103"/>
+      <c r="AD28" s="103"/>
+      <c r="AE28" s="103"/>
+      <c r="AF28" s="103"/>
+      <c r="AG28" s="103"/>
+      <c r="AH28" s="103"/>
+      <c r="AI28" s="103"/>
+      <c r="AJ28" s="103"/>
+      <c r="AK28" s="103"/>
+      <c r="AL28" s="104"/>
+      <c r="AM28" s="102"/>
+      <c r="AN28" s="103"/>
+      <c r="AO28" s="103"/>
+      <c r="AP28" s="103"/>
+      <c r="AQ28" s="103"/>
+      <c r="AR28" s="103"/>
+      <c r="AS28" s="103"/>
+      <c r="AT28" s="103"/>
+      <c r="AU28" s="103"/>
+      <c r="AV28" s="103"/>
+      <c r="AW28" s="103"/>
+      <c r="AX28" s="103"/>
+      <c r="AY28" s="103"/>
+      <c r="AZ28" s="104"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="30" t="str">
@@ -6412,56 +6412,56 @@
         <v/>
       </c>
       <c r="B29" s="31"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-      <c r="AB29" s="66"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="66"/>
-      <c r="AE29" s="66"/>
-      <c r="AF29" s="66"/>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="66"/>
-      <c r="AI29" s="66"/>
-      <c r="AJ29" s="66"/>
-      <c r="AK29" s="66"/>
-      <c r="AL29" s="67"/>
-      <c r="AM29" s="71"/>
-      <c r="AN29" s="66"/>
-      <c r="AO29" s="66"/>
-      <c r="AP29" s="66"/>
-      <c r="AQ29" s="66"/>
-      <c r="AR29" s="66"/>
-      <c r="AS29" s="66"/>
-      <c r="AT29" s="66"/>
-      <c r="AU29" s="66"/>
-      <c r="AV29" s="66"/>
-      <c r="AW29" s="66"/>
-      <c r="AX29" s="66"/>
-      <c r="AY29" s="66"/>
-      <c r="AZ29" s="67"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="103"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="103"/>
+      <c r="Z29" s="103"/>
+      <c r="AA29" s="103"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="103"/>
+      <c r="AD29" s="103"/>
+      <c r="AE29" s="103"/>
+      <c r="AF29" s="103"/>
+      <c r="AG29" s="103"/>
+      <c r="AH29" s="103"/>
+      <c r="AI29" s="103"/>
+      <c r="AJ29" s="103"/>
+      <c r="AK29" s="103"/>
+      <c r="AL29" s="104"/>
+      <c r="AM29" s="102"/>
+      <c r="AN29" s="103"/>
+      <c r="AO29" s="103"/>
+      <c r="AP29" s="103"/>
+      <c r="AQ29" s="103"/>
+      <c r="AR29" s="103"/>
+      <c r="AS29" s="103"/>
+      <c r="AT29" s="103"/>
+      <c r="AU29" s="103"/>
+      <c r="AV29" s="103"/>
+      <c r="AW29" s="103"/>
+      <c r="AX29" s="103"/>
+      <c r="AY29" s="103"/>
+      <c r="AZ29" s="104"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="30" t="str">
@@ -6469,56 +6469,56 @@
         <v/>
       </c>
       <c r="B30" s="31"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="66"/>
-      <c r="AC30" s="66"/>
-      <c r="AD30" s="66"/>
-      <c r="AE30" s="66"/>
-      <c r="AF30" s="66"/>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="66"/>
-      <c r="AI30" s="66"/>
-      <c r="AJ30" s="66"/>
-      <c r="AK30" s="66"/>
-      <c r="AL30" s="67"/>
-      <c r="AM30" s="71"/>
-      <c r="AN30" s="66"/>
-      <c r="AO30" s="66"/>
-      <c r="AP30" s="66"/>
-      <c r="AQ30" s="66"/>
-      <c r="AR30" s="66"/>
-      <c r="AS30" s="66"/>
-      <c r="AT30" s="66"/>
-      <c r="AU30" s="66"/>
-      <c r="AV30" s="66"/>
-      <c r="AW30" s="66"/>
-      <c r="AX30" s="66"/>
-      <c r="AY30" s="66"/>
-      <c r="AZ30" s="67"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="103"/>
+      <c r="Z30" s="103"/>
+      <c r="AA30" s="103"/>
+      <c r="AB30" s="103"/>
+      <c r="AC30" s="103"/>
+      <c r="AD30" s="103"/>
+      <c r="AE30" s="103"/>
+      <c r="AF30" s="103"/>
+      <c r="AG30" s="103"/>
+      <c r="AH30" s="103"/>
+      <c r="AI30" s="103"/>
+      <c r="AJ30" s="103"/>
+      <c r="AK30" s="103"/>
+      <c r="AL30" s="104"/>
+      <c r="AM30" s="102"/>
+      <c r="AN30" s="103"/>
+      <c r="AO30" s="103"/>
+      <c r="AP30" s="103"/>
+      <c r="AQ30" s="103"/>
+      <c r="AR30" s="103"/>
+      <c r="AS30" s="103"/>
+      <c r="AT30" s="103"/>
+      <c r="AU30" s="103"/>
+      <c r="AV30" s="103"/>
+      <c r="AW30" s="103"/>
+      <c r="AX30" s="103"/>
+      <c r="AY30" s="103"/>
+      <c r="AZ30" s="104"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="30" t="str">
@@ -6526,56 +6526,56 @@
         <v/>
       </c>
       <c r="B31" s="31"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="66"/>
-      <c r="AD31" s="66"/>
-      <c r="AE31" s="66"/>
-      <c r="AF31" s="66"/>
-      <c r="AG31" s="66"/>
-      <c r="AH31" s="66"/>
-      <c r="AI31" s="66"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="66"/>
-      <c r="AL31" s="67"/>
-      <c r="AM31" s="71"/>
-      <c r="AN31" s="66"/>
-      <c r="AO31" s="66"/>
-      <c r="AP31" s="66"/>
-      <c r="AQ31" s="66"/>
-      <c r="AR31" s="66"/>
-      <c r="AS31" s="66"/>
-      <c r="AT31" s="66"/>
-      <c r="AU31" s="66"/>
-      <c r="AV31" s="66"/>
-      <c r="AW31" s="66"/>
-      <c r="AX31" s="66"/>
-      <c r="AY31" s="66"/>
-      <c r="AZ31" s="67"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="103"/>
+      <c r="W31" s="103"/>
+      <c r="X31" s="103"/>
+      <c r="Y31" s="103"/>
+      <c r="Z31" s="103"/>
+      <c r="AA31" s="103"/>
+      <c r="AB31" s="103"/>
+      <c r="AC31" s="103"/>
+      <c r="AD31" s="103"/>
+      <c r="AE31" s="103"/>
+      <c r="AF31" s="103"/>
+      <c r="AG31" s="103"/>
+      <c r="AH31" s="103"/>
+      <c r="AI31" s="103"/>
+      <c r="AJ31" s="103"/>
+      <c r="AK31" s="103"/>
+      <c r="AL31" s="104"/>
+      <c r="AM31" s="102"/>
+      <c r="AN31" s="103"/>
+      <c r="AO31" s="103"/>
+      <c r="AP31" s="103"/>
+      <c r="AQ31" s="103"/>
+      <c r="AR31" s="103"/>
+      <c r="AS31" s="103"/>
+      <c r="AT31" s="103"/>
+      <c r="AU31" s="103"/>
+      <c r="AV31" s="103"/>
+      <c r="AW31" s="103"/>
+      <c r="AX31" s="103"/>
+      <c r="AY31" s="103"/>
+      <c r="AZ31" s="104"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="30" t="str">
@@ -6583,56 +6583,56 @@
         <v/>
       </c>
       <c r="B32" s="31"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="66"/>
-      <c r="AI32" s="66"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="66"/>
-      <c r="AL32" s="67"/>
-      <c r="AM32" s="71"/>
-      <c r="AN32" s="66"/>
-      <c r="AO32" s="66"/>
-      <c r="AP32" s="66"/>
-      <c r="AQ32" s="66"/>
-      <c r="AR32" s="66"/>
-      <c r="AS32" s="66"/>
-      <c r="AT32" s="66"/>
-      <c r="AU32" s="66"/>
-      <c r="AV32" s="66"/>
-      <c r="AW32" s="66"/>
-      <c r="AX32" s="66"/>
-      <c r="AY32" s="66"/>
-      <c r="AZ32" s="67"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="103"/>
+      <c r="W32" s="103"/>
+      <c r="X32" s="103"/>
+      <c r="Y32" s="103"/>
+      <c r="Z32" s="103"/>
+      <c r="AA32" s="103"/>
+      <c r="AB32" s="103"/>
+      <c r="AC32" s="103"/>
+      <c r="AD32" s="103"/>
+      <c r="AE32" s="103"/>
+      <c r="AF32" s="103"/>
+      <c r="AG32" s="103"/>
+      <c r="AH32" s="103"/>
+      <c r="AI32" s="103"/>
+      <c r="AJ32" s="103"/>
+      <c r="AK32" s="103"/>
+      <c r="AL32" s="104"/>
+      <c r="AM32" s="102"/>
+      <c r="AN32" s="103"/>
+      <c r="AO32" s="103"/>
+      <c r="AP32" s="103"/>
+      <c r="AQ32" s="103"/>
+      <c r="AR32" s="103"/>
+      <c r="AS32" s="103"/>
+      <c r="AT32" s="103"/>
+      <c r="AU32" s="103"/>
+      <c r="AV32" s="103"/>
+      <c r="AW32" s="103"/>
+      <c r="AX32" s="103"/>
+      <c r="AY32" s="103"/>
+      <c r="AZ32" s="104"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="30" t="str">
@@ -6640,56 +6640,56 @@
         <v/>
       </c>
       <c r="B33" s="31"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
-      <c r="AJ33" s="66"/>
-      <c r="AK33" s="66"/>
-      <c r="AL33" s="67"/>
-      <c r="AM33" s="71"/>
-      <c r="AN33" s="66"/>
-      <c r="AO33" s="66"/>
-      <c r="AP33" s="66"/>
-      <c r="AQ33" s="66"/>
-      <c r="AR33" s="66"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="66"/>
-      <c r="AU33" s="66"/>
-      <c r="AV33" s="66"/>
-      <c r="AW33" s="66"/>
-      <c r="AX33" s="66"/>
-      <c r="AY33" s="66"/>
-      <c r="AZ33" s="67"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="104"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="103"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="103"/>
+      <c r="Y33" s="103"/>
+      <c r="Z33" s="103"/>
+      <c r="AA33" s="103"/>
+      <c r="AB33" s="103"/>
+      <c r="AC33" s="103"/>
+      <c r="AD33" s="103"/>
+      <c r="AE33" s="103"/>
+      <c r="AF33" s="103"/>
+      <c r="AG33" s="103"/>
+      <c r="AH33" s="103"/>
+      <c r="AI33" s="103"/>
+      <c r="AJ33" s="103"/>
+      <c r="AK33" s="103"/>
+      <c r="AL33" s="104"/>
+      <c r="AM33" s="102"/>
+      <c r="AN33" s="103"/>
+      <c r="AO33" s="103"/>
+      <c r="AP33" s="103"/>
+      <c r="AQ33" s="103"/>
+      <c r="AR33" s="103"/>
+      <c r="AS33" s="103"/>
+      <c r="AT33" s="103"/>
+      <c r="AU33" s="103"/>
+      <c r="AV33" s="103"/>
+      <c r="AW33" s="103"/>
+      <c r="AX33" s="103"/>
+      <c r="AY33" s="103"/>
+      <c r="AZ33" s="104"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="30" t="str">
@@ -6697,56 +6697,56 @@
         <v/>
       </c>
       <c r="B34" s="31"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="66"/>
-      <c r="AB34" s="66"/>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="66"/>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
-      <c r="AL34" s="67"/>
-      <c r="AM34" s="71"/>
-      <c r="AN34" s="66"/>
-      <c r="AO34" s="66"/>
-      <c r="AP34" s="66"/>
-      <c r="AQ34" s="66"/>
-      <c r="AR34" s="66"/>
-      <c r="AS34" s="66"/>
-      <c r="AT34" s="66"/>
-      <c r="AU34" s="66"/>
-      <c r="AV34" s="66"/>
-      <c r="AW34" s="66"/>
-      <c r="AX34" s="66"/>
-      <c r="AY34" s="66"/>
-      <c r="AZ34" s="67"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="103"/>
+      <c r="V34" s="103"/>
+      <c r="W34" s="103"/>
+      <c r="X34" s="103"/>
+      <c r="Y34" s="103"/>
+      <c r="Z34" s="103"/>
+      <c r="AA34" s="103"/>
+      <c r="AB34" s="103"/>
+      <c r="AC34" s="103"/>
+      <c r="AD34" s="103"/>
+      <c r="AE34" s="103"/>
+      <c r="AF34" s="103"/>
+      <c r="AG34" s="103"/>
+      <c r="AH34" s="103"/>
+      <c r="AI34" s="103"/>
+      <c r="AJ34" s="103"/>
+      <c r="AK34" s="103"/>
+      <c r="AL34" s="104"/>
+      <c r="AM34" s="102"/>
+      <c r="AN34" s="103"/>
+      <c r="AO34" s="103"/>
+      <c r="AP34" s="103"/>
+      <c r="AQ34" s="103"/>
+      <c r="AR34" s="103"/>
+      <c r="AS34" s="103"/>
+      <c r="AT34" s="103"/>
+      <c r="AU34" s="103"/>
+      <c r="AV34" s="103"/>
+      <c r="AW34" s="103"/>
+      <c r="AX34" s="103"/>
+      <c r="AY34" s="103"/>
+      <c r="AZ34" s="104"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="30" t="str">
@@ -6754,59 +6754,189 @@
         <v/>
       </c>
       <c r="B35" s="31"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="66"/>
-      <c r="AC35" s="66"/>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="66"/>
-      <c r="AF35" s="66"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="66"/>
-      <c r="AI35" s="66"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="66"/>
-      <c r="AL35" s="67"/>
-      <c r="AM35" s="71"/>
-      <c r="AN35" s="66"/>
-      <c r="AO35" s="66"/>
-      <c r="AP35" s="66"/>
-      <c r="AQ35" s="66"/>
-      <c r="AR35" s="66"/>
-      <c r="AS35" s="66"/>
-      <c r="AT35" s="66"/>
-      <c r="AU35" s="66"/>
-      <c r="AV35" s="66"/>
-      <c r="AW35" s="66"/>
-      <c r="AX35" s="66"/>
-      <c r="AY35" s="66"/>
-      <c r="AZ35" s="67"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="102"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="103"/>
+      <c r="T35" s="103"/>
+      <c r="U35" s="103"/>
+      <c r="V35" s="103"/>
+      <c r="W35" s="103"/>
+      <c r="X35" s="103"/>
+      <c r="Y35" s="103"/>
+      <c r="Z35" s="103"/>
+      <c r="AA35" s="103"/>
+      <c r="AB35" s="103"/>
+      <c r="AC35" s="103"/>
+      <c r="AD35" s="103"/>
+      <c r="AE35" s="103"/>
+      <c r="AF35" s="103"/>
+      <c r="AG35" s="103"/>
+      <c r="AH35" s="103"/>
+      <c r="AI35" s="103"/>
+      <c r="AJ35" s="103"/>
+      <c r="AK35" s="103"/>
+      <c r="AL35" s="104"/>
+      <c r="AM35" s="102"/>
+      <c r="AN35" s="103"/>
+      <c r="AO35" s="103"/>
+      <c r="AP35" s="103"/>
+      <c r="AQ35" s="103"/>
+      <c r="AR35" s="103"/>
+      <c r="AS35" s="103"/>
+      <c r="AT35" s="103"/>
+      <c r="AU35" s="103"/>
+      <c r="AV35" s="103"/>
+      <c r="AW35" s="103"/>
+      <c r="AX35" s="103"/>
+      <c r="AY35" s="103"/>
+      <c r="AZ35" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:AL8"/>
+    <mergeCell ref="AM8:AZ8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:AL9"/>
+    <mergeCell ref="AM9:AZ9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="L34:P34"/>
@@ -6817,136 +6947,6 @@
     <mergeCell ref="L35:P35"/>
     <mergeCell ref="Q35:AL35"/>
     <mergeCell ref="AM35:AZ35"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="Q8:AL8"/>
-    <mergeCell ref="AM8:AZ8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q9:AL9"/>
-    <mergeCell ref="AM9:AZ9"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6961,7 +6961,7 @@
   <dimension ref="A1:AQ100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="102" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
@@ -8975,47 +8975,47 @@
     <row r="44" spans="1:43">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="72" t="s">
+      <c r="C44" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="109"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="72" t="s">
+      <c r="P44" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
+      <c r="Q44" s="109"/>
+      <c r="R44" s="109"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="109"/>
+      <c r="U44" s="109"/>
+      <c r="V44" s="109"/>
+      <c r="W44" s="109"/>
+      <c r="X44" s="109"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
-      <c r="AC44" s="72" t="s">
+      <c r="AC44" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="AD44" s="72"/>
-      <c r="AE44" s="72"/>
-      <c r="AF44" s="72"/>
-      <c r="AG44" s="72"/>
-      <c r="AH44" s="72"/>
-      <c r="AI44" s="72"/>
-      <c r="AJ44" s="72"/>
-      <c r="AK44" s="72"/>
+      <c r="AD44" s="109"/>
+      <c r="AE44" s="109"/>
+      <c r="AF44" s="109"/>
+      <c r="AG44" s="109"/>
+      <c r="AH44" s="109"/>
+      <c r="AI44" s="109"/>
+      <c r="AJ44" s="109"/>
+      <c r="AK44" s="109"/>
       <c r="AL44" s="8"/>
       <c r="AM44" s="8"/>
       <c r="AN44" s="8"/>
@@ -9026,41 +9026,41 @@
     <row r="45" spans="1:43">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="72"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="109"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="72"/>
-      <c r="X45" s="72"/>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="109"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="109"/>
+      <c r="U45" s="109"/>
+      <c r="V45" s="109"/>
+      <c r="W45" s="109"/>
+      <c r="X45" s="109"/>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
-      <c r="AC45" s="72"/>
-      <c r="AD45" s="72"/>
-      <c r="AE45" s="72"/>
-      <c r="AF45" s="72"/>
-      <c r="AG45" s="72"/>
-      <c r="AH45" s="72"/>
-      <c r="AI45" s="72"/>
-      <c r="AJ45" s="72"/>
-      <c r="AK45" s="72"/>
+      <c r="AC45" s="109"/>
+      <c r="AD45" s="109"/>
+      <c r="AE45" s="109"/>
+      <c r="AF45" s="109"/>
+      <c r="AG45" s="109"/>
+      <c r="AH45" s="109"/>
+      <c r="AI45" s="109"/>
+      <c r="AJ45" s="109"/>
+      <c r="AK45" s="109"/>
       <c r="AL45" s="8"/>
       <c r="AM45" s="8"/>
       <c r="AN45" s="8"/>
@@ -11221,329 +11221,329 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6" ht="22" customHeight="1">
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="62" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="22" customHeight="1">
-      <c r="C6" s="90">
+      <c r="C6" s="58">
         <f>ROW()-2</f>
         <v>4</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="47">
         <v>1</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="63" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="22" customHeight="1">
-      <c r="C7" s="90">
+      <c r="C7" s="58">
         <f t="shared" ref="C7:C9" si="0">ROW()-2</f>
         <v>5</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="79">
+      <c r="E7" s="47">
         <v>1</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="63" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="22" customHeight="1">
-      <c r="C8" s="90">
+      <c r="C8" s="58">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="47">
         <v>1</v>
       </c>
-      <c r="F8" s="95" t="s">
+      <c r="F8" s="63" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="22" customHeight="1">
-      <c r="C9" s="92">
+      <c r="C9" s="60">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="47">
         <v>1</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="64" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="16" hidden="1">
-      <c r="C10" s="85"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="73">
+      <c r="C10" s="53"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="41">
         <v>2</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="52" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="3:6" ht="22" customHeight="1">
-      <c r="C11" s="97">
+      <c r="C11" s="65">
         <f t="shared" ref="C11:C13" si="1">ROW()-2</f>
         <v>9</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D11" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="47">
         <v>1</v>
       </c>
-      <c r="F11" s="100" t="s">
+      <c r="F11" s="68" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="22" customHeight="1">
-      <c r="C12" s="90">
+      <c r="C12" s="58">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E12" s="47">
         <v>1</v>
       </c>
-      <c r="F12" s="95" t="s">
+      <c r="F12" s="63" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="22" customHeight="1">
-      <c r="C13" s="92">
+      <c r="C13" s="60">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="47">
         <v>1</v>
       </c>
-      <c r="F13" s="96" t="s">
+      <c r="F13" s="64" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="3:6" hidden="1">
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="73">
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="41">
         <v>2</v>
       </c>
-      <c r="F14" s="84" t="s">
+      <c r="F14" s="52" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="22" customHeight="1">
-      <c r="C15" s="97">
+      <c r="C15" s="65">
         <f t="shared" ref="C15:C16" si="2">ROW()-2</f>
         <v>13</v>
       </c>
-      <c r="D15" s="98" t="s">
+      <c r="D15" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="79">
+      <c r="E15" s="47">
         <v>1</v>
       </c>
-      <c r="F15" s="100" t="s">
+      <c r="F15" s="68" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="22" customHeight="1">
-      <c r="C16" s="92">
+      <c r="C16" s="60">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="D16" s="101" t="s">
+      <c r="D16" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E16" s="47">
         <v>1</v>
       </c>
-      <c r="F16" s="96" t="s">
+      <c r="F16" s="64" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="16" hidden="1">
-      <c r="C17" s="84"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="73">
+      <c r="C17" s="52"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="41">
         <v>2</v>
       </c>
-      <c r="F17" s="84"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="3:6" ht="22" customHeight="1">
-      <c r="C18" s="97">
+      <c r="C18" s="65">
         <f t="shared" ref="C18:C22" si="3">ROW()-2</f>
         <v>16</v>
       </c>
-      <c r="D18" s="98" t="s">
+      <c r="D18" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="79">
+      <c r="E18" s="47">
         <v>1</v>
       </c>
-      <c r="F18" s="103" t="s">
+      <c r="F18" s="71" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="22" customHeight="1">
-      <c r="C19" s="90">
+      <c r="C19" s="58">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="79">
+      <c r="E19" s="47">
         <v>1</v>
       </c>
-      <c r="F19" s="95" t="s">
+      <c r="F19" s="63" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="22" customHeight="1">
-      <c r="C20" s="90">
+      <c r="C20" s="58">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="D20" s="102" t="s">
+      <c r="D20" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="47">
         <v>1</v>
       </c>
-      <c r="F20" s="95" t="s">
+      <c r="F20" s="63" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="22" customHeight="1">
-      <c r="C21" s="90">
+      <c r="C21" s="58">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="D21" s="102" t="s">
+      <c r="D21" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="79">
+      <c r="E21" s="47">
         <v>1</v>
       </c>
-      <c r="F21" s="95" t="s">
+      <c r="F21" s="63" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="22" customHeight="1">
-      <c r="C22" s="92">
+      <c r="C22" s="60">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="47">
         <v>1</v>
       </c>
-      <c r="F22" s="96" t="s">
+      <c r="F22" s="64" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="3:6" hidden="1">
-      <c r="C23" s="85"/>
-      <c r="D23" s="75" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="73">
+      <c r="E23" s="41">
         <v>2</v>
       </c>
-      <c r="F23" s="87"/>
+      <c r="F23" s="55"/>
     </row>
     <row r="24" spans="3:6" hidden="1">
-      <c r="C24" s="74"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="73">
+      <c r="C24" s="42"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="41">
         <v>2</v>
       </c>
-      <c r="F24" s="77"/>
+      <c r="F24" s="45"/>
     </row>
     <row r="25" spans="3:6" hidden="1">
-      <c r="C25" s="74"/>
-      <c r="D25" s="83" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="73">
+      <c r="E25" s="41">
         <v>2</v>
       </c>
-      <c r="F25" s="84" t="s">
+      <c r="F25" s="52" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="22" customHeight="1">
-      <c r="C26" s="97">
+      <c r="C26" s="65">
         <f t="shared" ref="C26:C28" si="4">ROW()-2</f>
         <v>24</v>
       </c>
-      <c r="D26" s="104" t="s">
+      <c r="D26" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="79">
+      <c r="E26" s="47">
         <v>1</v>
       </c>
-      <c r="F26" s="100" t="s">
+      <c r="F26" s="68" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="22" customHeight="1">
-      <c r="C27" s="90">
+      <c r="C27" s="58">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="D27" s="105" t="s">
+      <c r="D27" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="80">
+      <c r="E27" s="48">
         <v>1</v>
       </c>
-      <c r="F27" s="108" t="s">
+      <c r="F27" s="76" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="19" customHeight="1">
-      <c r="C28" s="106">
+      <c r="C28" s="74">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="D28" s="107" t="s">
+      <c r="D28" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="81">
+      <c r="E28" s="49">
         <v>1</v>
       </c>
-      <c r="F28" s="109"/>
+      <c r="F28" s="77"/>
     </row>
   </sheetData>
   <autoFilter ref="C5:F28" xr:uid="{E5A8337A-A120-41E7-82E8-C10BD8998FAC}">

--- a/2021年_テトリス/01_要件定義/テトリス_要件定義書.xlsx
+++ b/2021年_テトリス/01_要件定義/テトリス_要件定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beaming-boy/growth/テトリス/ドキュメント共有フォルダ/2021年_テトリス/01_要件定義/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E578BA-FB25-F147-8B5F-9760A09B72D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB91DBB-5343-674C-A4A0-488BCC50A6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="1340" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -586,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -784,21 +784,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -901,21 +886,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -972,19 +942,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1058,7 +1015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,97 +1154,88 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
@@ -1365,7 +1313,7 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1383,7 +1331,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1436,7 +1384,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3141"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3152"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1495,7 +1443,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2117"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2128"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3431,7 +3379,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s6156"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s6167"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3730,189 +3678,189 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="78" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="78" t="s">
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="78" t="s">
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="78" t="s">
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="78" t="s">
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="78" t="s">
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="80"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="77"/>
       <c r="BB1" s="2"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="90" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="96">
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="93">
         <v>44443</v>
       </c>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="90" t="s">
+      <c r="AG2" s="94"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="95"/>
+      <c r="AK2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="91"/>
-      <c r="AN2" s="91"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="96">
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="93">
         <v>44551</v>
       </c>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="90" t="s">
+      <c r="AQ2" s="94"/>
+      <c r="AR2" s="94"/>
+      <c r="AS2" s="94"/>
+      <c r="AT2" s="95"/>
+      <c r="AU2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AV2" s="91"/>
-      <c r="AW2" s="91"/>
-      <c r="AX2" s="91"/>
-      <c r="AY2" s="92"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="89"/>
       <c r="BB2" s="2"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="101"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="94"/>
-      <c r="AO3" s="95"/>
-      <c r="AP3" s="99"/>
-      <c r="AQ3" s="100"/>
-      <c r="AR3" s="100"/>
-      <c r="AS3" s="100"/>
-      <c r="AT3" s="101"/>
-      <c r="AU3" s="93"/>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="94"/>
-      <c r="AY3" s="95"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="92"/>
+      <c r="AP3" s="96"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="97"/>
+      <c r="AS3" s="97"/>
+      <c r="AT3" s="98"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="92"/>
       <c r="BB3" s="2"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -5113,7 +5061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
   <cols>
@@ -5201,62 +5151,62 @@
         <v>1</v>
       </c>
       <c r="B8" s="31"/>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105">
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102">
         <v>43932</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="102" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="103"/>
-      <c r="AF8" s="103"/>
-      <c r="AG8" s="103"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="103"/>
-      <c r="AK8" s="103"/>
-      <c r="AL8" s="104"/>
-      <c r="AM8" s="102"/>
-      <c r="AN8" s="103"/>
-      <c r="AO8" s="103"/>
-      <c r="AP8" s="103"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="103"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="103"/>
-      <c r="AU8" s="103"/>
-      <c r="AV8" s="103"/>
-      <c r="AW8" s="103"/>
-      <c r="AX8" s="103"/>
-      <c r="AY8" s="103"/>
-      <c r="AZ8" s="104"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="100"/>
+      <c r="Y8" s="100"/>
+      <c r="Z8" s="100"/>
+      <c r="AA8" s="100"/>
+      <c r="AB8" s="100"/>
+      <c r="AC8" s="100"/>
+      <c r="AD8" s="100"/>
+      <c r="AE8" s="100"/>
+      <c r="AF8" s="100"/>
+      <c r="AG8" s="100"/>
+      <c r="AH8" s="100"/>
+      <c r="AI8" s="100"/>
+      <c r="AJ8" s="100"/>
+      <c r="AK8" s="100"/>
+      <c r="AL8" s="101"/>
+      <c r="AM8" s="105"/>
+      <c r="AN8" s="100"/>
+      <c r="AO8" s="100"/>
+      <c r="AP8" s="100"/>
+      <c r="AQ8" s="100"/>
+      <c r="AR8" s="100"/>
+      <c r="AS8" s="100"/>
+      <c r="AT8" s="100"/>
+      <c r="AU8" s="100"/>
+      <c r="AV8" s="100"/>
+      <c r="AW8" s="100"/>
+      <c r="AX8" s="100"/>
+      <c r="AY8" s="100"/>
+      <c r="AZ8" s="101"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="30">
@@ -5264,64 +5214,64 @@
         <v>2</v>
       </c>
       <c r="B9" s="31"/>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105">
-        <v>44548</v>
-      </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="102" t="s">
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="102">
+        <v>44551</v>
+      </c>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="102" t="s">
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="103"/>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="103"/>
-      <c r="AE9" s="103"/>
-      <c r="AF9" s="103"/>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="103"/>
-      <c r="AJ9" s="103"/>
-      <c r="AK9" s="103"/>
-      <c r="AL9" s="104"/>
-      <c r="AM9" s="102"/>
-      <c r="AN9" s="103"/>
-      <c r="AO9" s="103"/>
-      <c r="AP9" s="103"/>
-      <c r="AQ9" s="103"/>
-      <c r="AR9" s="103"/>
-      <c r="AS9" s="103"/>
-      <c r="AT9" s="103"/>
-      <c r="AU9" s="103"/>
-      <c r="AV9" s="103"/>
-      <c r="AW9" s="103"/>
-      <c r="AX9" s="103"/>
-      <c r="AY9" s="103"/>
-      <c r="AZ9" s="104"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="100"/>
+      <c r="W9" s="100"/>
+      <c r="X9" s="100"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="100"/>
+      <c r="AA9" s="100"/>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="100"/>
+      <c r="AD9" s="100"/>
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="100"/>
+      <c r="AI9" s="100"/>
+      <c r="AJ9" s="100"/>
+      <c r="AK9" s="100"/>
+      <c r="AL9" s="101"/>
+      <c r="AM9" s="105"/>
+      <c r="AN9" s="100"/>
+      <c r="AO9" s="100"/>
+      <c r="AP9" s="100"/>
+      <c r="AQ9" s="100"/>
+      <c r="AR9" s="100"/>
+      <c r="AS9" s="100"/>
+      <c r="AT9" s="100"/>
+      <c r="AU9" s="100"/>
+      <c r="AV9" s="100"/>
+      <c r="AW9" s="100"/>
+      <c r="AX9" s="100"/>
+      <c r="AY9" s="100"/>
+      <c r="AZ9" s="101"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="30" t="str">
@@ -5329,56 +5279,56 @@
         <v/>
       </c>
       <c r="B10" s="31"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="103"/>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="103"/>
-      <c r="Z10" s="103"/>
-      <c r="AA10" s="103"/>
-      <c r="AB10" s="103"/>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="103"/>
-      <c r="AF10" s="103"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="103"/>
-      <c r="AI10" s="103"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="103"/>
-      <c r="AL10" s="104"/>
-      <c r="AM10" s="102"/>
-      <c r="AN10" s="103"/>
-      <c r="AO10" s="103"/>
-      <c r="AP10" s="103"/>
-      <c r="AQ10" s="103"/>
-      <c r="AR10" s="103"/>
-      <c r="AS10" s="103"/>
-      <c r="AT10" s="103"/>
-      <c r="AU10" s="103"/>
-      <c r="AV10" s="103"/>
-      <c r="AW10" s="103"/>
-      <c r="AX10" s="103"/>
-      <c r="AY10" s="103"/>
-      <c r="AZ10" s="104"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="100"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="100"/>
+      <c r="Z10" s="100"/>
+      <c r="AA10" s="100"/>
+      <c r="AB10" s="100"/>
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="100"/>
+      <c r="AE10" s="100"/>
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="100"/>
+      <c r="AH10" s="100"/>
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="100"/>
+      <c r="AK10" s="100"/>
+      <c r="AL10" s="101"/>
+      <c r="AM10" s="105"/>
+      <c r="AN10" s="100"/>
+      <c r="AO10" s="100"/>
+      <c r="AP10" s="100"/>
+      <c r="AQ10" s="100"/>
+      <c r="AR10" s="100"/>
+      <c r="AS10" s="100"/>
+      <c r="AT10" s="100"/>
+      <c r="AU10" s="100"/>
+      <c r="AV10" s="100"/>
+      <c r="AW10" s="100"/>
+      <c r="AX10" s="100"/>
+      <c r="AY10" s="100"/>
+      <c r="AZ10" s="101"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="30" t="str">
@@ -5386,56 +5336,56 @@
         <v/>
       </c>
       <c r="B11" s="31"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="103"/>
-      <c r="Z11" s="103"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="103"/>
-      <c r="AG11" s="103"/>
-      <c r="AH11" s="103"/>
-      <c r="AI11" s="103"/>
-      <c r="AJ11" s="103"/>
-      <c r="AK11" s="103"/>
-      <c r="AL11" s="104"/>
-      <c r="AM11" s="102"/>
-      <c r="AN11" s="103"/>
-      <c r="AO11" s="103"/>
-      <c r="AP11" s="103"/>
-      <c r="AQ11" s="103"/>
-      <c r="AR11" s="103"/>
-      <c r="AS11" s="103"/>
-      <c r="AT11" s="103"/>
-      <c r="AU11" s="103"/>
-      <c r="AV11" s="103"/>
-      <c r="AW11" s="103"/>
-      <c r="AX11" s="103"/>
-      <c r="AY11" s="103"/>
-      <c r="AZ11" s="104"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="100"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="100"/>
+      <c r="Z11" s="100"/>
+      <c r="AA11" s="100"/>
+      <c r="AB11" s="100"/>
+      <c r="AC11" s="100"/>
+      <c r="AD11" s="100"/>
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="100"/>
+      <c r="AH11" s="100"/>
+      <c r="AI11" s="100"/>
+      <c r="AJ11" s="100"/>
+      <c r="AK11" s="100"/>
+      <c r="AL11" s="101"/>
+      <c r="AM11" s="105"/>
+      <c r="AN11" s="100"/>
+      <c r="AO11" s="100"/>
+      <c r="AP11" s="100"/>
+      <c r="AQ11" s="100"/>
+      <c r="AR11" s="100"/>
+      <c r="AS11" s="100"/>
+      <c r="AT11" s="100"/>
+      <c r="AU11" s="100"/>
+      <c r="AV11" s="100"/>
+      <c r="AW11" s="100"/>
+      <c r="AX11" s="100"/>
+      <c r="AY11" s="100"/>
+      <c r="AZ11" s="101"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="30" t="str">
@@ -5443,56 +5393,56 @@
         <v/>
       </c>
       <c r="B12" s="31"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="103"/>
-      <c r="T12" s="103"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="103"/>
-      <c r="Y12" s="103"/>
-      <c r="Z12" s="103"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="103"/>
-      <c r="AG12" s="103"/>
-      <c r="AH12" s="103"/>
-      <c r="AI12" s="103"/>
-      <c r="AJ12" s="103"/>
-      <c r="AK12" s="103"/>
-      <c r="AL12" s="104"/>
-      <c r="AM12" s="102"/>
-      <c r="AN12" s="103"/>
-      <c r="AO12" s="103"/>
-      <c r="AP12" s="103"/>
-      <c r="AQ12" s="103"/>
-      <c r="AR12" s="103"/>
-      <c r="AS12" s="103"/>
-      <c r="AT12" s="103"/>
-      <c r="AU12" s="103"/>
-      <c r="AV12" s="103"/>
-      <c r="AW12" s="103"/>
-      <c r="AX12" s="103"/>
-      <c r="AY12" s="103"/>
-      <c r="AZ12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="100"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="100"/>
+      <c r="AA12" s="100"/>
+      <c r="AB12" s="100"/>
+      <c r="AC12" s="100"/>
+      <c r="AD12" s="100"/>
+      <c r="AE12" s="100"/>
+      <c r="AF12" s="100"/>
+      <c r="AG12" s="100"/>
+      <c r="AH12" s="100"/>
+      <c r="AI12" s="100"/>
+      <c r="AJ12" s="100"/>
+      <c r="AK12" s="100"/>
+      <c r="AL12" s="101"/>
+      <c r="AM12" s="105"/>
+      <c r="AN12" s="100"/>
+      <c r="AO12" s="100"/>
+      <c r="AP12" s="100"/>
+      <c r="AQ12" s="100"/>
+      <c r="AR12" s="100"/>
+      <c r="AS12" s="100"/>
+      <c r="AT12" s="100"/>
+      <c r="AU12" s="100"/>
+      <c r="AV12" s="100"/>
+      <c r="AW12" s="100"/>
+      <c r="AX12" s="100"/>
+      <c r="AY12" s="100"/>
+      <c r="AZ12" s="101"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="30" t="str">
@@ -5500,56 +5450,56 @@
         <v/>
       </c>
       <c r="B13" s="31"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="103"/>
-      <c r="AG13" s="103"/>
-      <c r="AH13" s="103"/>
-      <c r="AI13" s="103"/>
-      <c r="AJ13" s="103"/>
-      <c r="AK13" s="103"/>
-      <c r="AL13" s="104"/>
-      <c r="AM13" s="102"/>
-      <c r="AN13" s="103"/>
-      <c r="AO13" s="103"/>
-      <c r="AP13" s="103"/>
-      <c r="AQ13" s="103"/>
-      <c r="AR13" s="103"/>
-      <c r="AS13" s="103"/>
-      <c r="AT13" s="103"/>
-      <c r="AU13" s="103"/>
-      <c r="AV13" s="103"/>
-      <c r="AW13" s="103"/>
-      <c r="AX13" s="103"/>
-      <c r="AY13" s="103"/>
-      <c r="AZ13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="100"/>
+      <c r="T13" s="100"/>
+      <c r="U13" s="100"/>
+      <c r="V13" s="100"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="100"/>
+      <c r="Y13" s="100"/>
+      <c r="Z13" s="100"/>
+      <c r="AA13" s="100"/>
+      <c r="AB13" s="100"/>
+      <c r="AC13" s="100"/>
+      <c r="AD13" s="100"/>
+      <c r="AE13" s="100"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="100"/>
+      <c r="AH13" s="100"/>
+      <c r="AI13" s="100"/>
+      <c r="AJ13" s="100"/>
+      <c r="AK13" s="100"/>
+      <c r="AL13" s="101"/>
+      <c r="AM13" s="105"/>
+      <c r="AN13" s="100"/>
+      <c r="AO13" s="100"/>
+      <c r="AP13" s="100"/>
+      <c r="AQ13" s="100"/>
+      <c r="AR13" s="100"/>
+      <c r="AS13" s="100"/>
+      <c r="AT13" s="100"/>
+      <c r="AU13" s="100"/>
+      <c r="AV13" s="100"/>
+      <c r="AW13" s="100"/>
+      <c r="AX13" s="100"/>
+      <c r="AY13" s="100"/>
+      <c r="AZ13" s="101"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="30" t="str">
@@ -5557,56 +5507,56 @@
         <v/>
       </c>
       <c r="B14" s="31"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="103"/>
-      <c r="T14" s="103"/>
-      <c r="U14" s="103"/>
-      <c r="V14" s="103"/>
-      <c r="W14" s="103"/>
-      <c r="X14" s="103"/>
-      <c r="Y14" s="103"/>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="103"/>
-      <c r="AF14" s="103"/>
-      <c r="AG14" s="103"/>
-      <c r="AH14" s="103"/>
-      <c r="AI14" s="103"/>
-      <c r="AJ14" s="103"/>
-      <c r="AK14" s="103"/>
-      <c r="AL14" s="104"/>
-      <c r="AM14" s="102"/>
-      <c r="AN14" s="103"/>
-      <c r="AO14" s="103"/>
-      <c r="AP14" s="103"/>
-      <c r="AQ14" s="103"/>
-      <c r="AR14" s="103"/>
-      <c r="AS14" s="103"/>
-      <c r="AT14" s="103"/>
-      <c r="AU14" s="103"/>
-      <c r="AV14" s="103"/>
-      <c r="AW14" s="103"/>
-      <c r="AX14" s="103"/>
-      <c r="AY14" s="103"/>
-      <c r="AZ14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="100"/>
+      <c r="U14" s="100"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="100"/>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="100"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="100"/>
+      <c r="AI14" s="100"/>
+      <c r="AJ14" s="100"/>
+      <c r="AK14" s="100"/>
+      <c r="AL14" s="101"/>
+      <c r="AM14" s="105"/>
+      <c r="AN14" s="100"/>
+      <c r="AO14" s="100"/>
+      <c r="AP14" s="100"/>
+      <c r="AQ14" s="100"/>
+      <c r="AR14" s="100"/>
+      <c r="AS14" s="100"/>
+      <c r="AT14" s="100"/>
+      <c r="AU14" s="100"/>
+      <c r="AV14" s="100"/>
+      <c r="AW14" s="100"/>
+      <c r="AX14" s="100"/>
+      <c r="AY14" s="100"/>
+      <c r="AZ14" s="101"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="30" t="str">
@@ -5614,56 +5564,56 @@
         <v/>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
-      <c r="W15" s="103"/>
-      <c r="X15" s="103"/>
-      <c r="Y15" s="103"/>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="103"/>
-      <c r="AG15" s="103"/>
-      <c r="AH15" s="103"/>
-      <c r="AI15" s="103"/>
-      <c r="AJ15" s="103"/>
-      <c r="AK15" s="103"/>
-      <c r="AL15" s="104"/>
-      <c r="AM15" s="102"/>
-      <c r="AN15" s="103"/>
-      <c r="AO15" s="103"/>
-      <c r="AP15" s="103"/>
-      <c r="AQ15" s="103"/>
-      <c r="AR15" s="103"/>
-      <c r="AS15" s="103"/>
-      <c r="AT15" s="103"/>
-      <c r="AU15" s="103"/>
-      <c r="AV15" s="103"/>
-      <c r="AW15" s="103"/>
-      <c r="AX15" s="103"/>
-      <c r="AY15" s="103"/>
-      <c r="AZ15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="100"/>
+      <c r="T15" s="100"/>
+      <c r="U15" s="100"/>
+      <c r="V15" s="100"/>
+      <c r="W15" s="100"/>
+      <c r="X15" s="100"/>
+      <c r="Y15" s="100"/>
+      <c r="Z15" s="100"/>
+      <c r="AA15" s="100"/>
+      <c r="AB15" s="100"/>
+      <c r="AC15" s="100"/>
+      <c r="AD15" s="100"/>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="100"/>
+      <c r="AH15" s="100"/>
+      <c r="AI15" s="100"/>
+      <c r="AJ15" s="100"/>
+      <c r="AK15" s="100"/>
+      <c r="AL15" s="101"/>
+      <c r="AM15" s="105"/>
+      <c r="AN15" s="100"/>
+      <c r="AO15" s="100"/>
+      <c r="AP15" s="100"/>
+      <c r="AQ15" s="100"/>
+      <c r="AR15" s="100"/>
+      <c r="AS15" s="100"/>
+      <c r="AT15" s="100"/>
+      <c r="AU15" s="100"/>
+      <c r="AV15" s="100"/>
+      <c r="AW15" s="100"/>
+      <c r="AX15" s="100"/>
+      <c r="AY15" s="100"/>
+      <c r="AZ15" s="101"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="30" t="str">
@@ -5671,56 +5621,56 @@
         <v/>
       </c>
       <c r="B16" s="31"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="103"/>
-      <c r="AJ16" s="103"/>
-      <c r="AK16" s="103"/>
-      <c r="AL16" s="104"/>
-      <c r="AM16" s="102"/>
-      <c r="AN16" s="103"/>
-      <c r="AO16" s="103"/>
-      <c r="AP16" s="103"/>
-      <c r="AQ16" s="103"/>
-      <c r="AR16" s="103"/>
-      <c r="AS16" s="103"/>
-      <c r="AT16" s="103"/>
-      <c r="AU16" s="103"/>
-      <c r="AV16" s="103"/>
-      <c r="AW16" s="103"/>
-      <c r="AX16" s="103"/>
-      <c r="AY16" s="103"/>
-      <c r="AZ16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="100"/>
+      <c r="U16" s="100"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="100"/>
+      <c r="X16" s="100"/>
+      <c r="Y16" s="100"/>
+      <c r="Z16" s="100"/>
+      <c r="AA16" s="100"/>
+      <c r="AB16" s="100"/>
+      <c r="AC16" s="100"/>
+      <c r="AD16" s="100"/>
+      <c r="AE16" s="100"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="100"/>
+      <c r="AH16" s="100"/>
+      <c r="AI16" s="100"/>
+      <c r="AJ16" s="100"/>
+      <c r="AK16" s="100"/>
+      <c r="AL16" s="101"/>
+      <c r="AM16" s="105"/>
+      <c r="AN16" s="100"/>
+      <c r="AO16" s="100"/>
+      <c r="AP16" s="100"/>
+      <c r="AQ16" s="100"/>
+      <c r="AR16" s="100"/>
+      <c r="AS16" s="100"/>
+      <c r="AT16" s="100"/>
+      <c r="AU16" s="100"/>
+      <c r="AV16" s="100"/>
+      <c r="AW16" s="100"/>
+      <c r="AX16" s="100"/>
+      <c r="AY16" s="100"/>
+      <c r="AZ16" s="101"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="30" t="str">
@@ -5728,56 +5678,56 @@
         <v/>
       </c>
       <c r="B17" s="31"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="103"/>
-      <c r="AG17" s="103"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="103"/>
-      <c r="AK17" s="103"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="102"/>
-      <c r="AN17" s="103"/>
-      <c r="AO17" s="103"/>
-      <c r="AP17" s="103"/>
-      <c r="AQ17" s="103"/>
-      <c r="AR17" s="103"/>
-      <c r="AS17" s="103"/>
-      <c r="AT17" s="103"/>
-      <c r="AU17" s="103"/>
-      <c r="AV17" s="103"/>
-      <c r="AW17" s="103"/>
-      <c r="AX17" s="103"/>
-      <c r="AY17" s="103"/>
-      <c r="AZ17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="100"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="100"/>
+      <c r="V17" s="100"/>
+      <c r="W17" s="100"/>
+      <c r="X17" s="100"/>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="100"/>
+      <c r="AB17" s="100"/>
+      <c r="AC17" s="100"/>
+      <c r="AD17" s="100"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="100"/>
+      <c r="AH17" s="100"/>
+      <c r="AI17" s="100"/>
+      <c r="AJ17" s="100"/>
+      <c r="AK17" s="100"/>
+      <c r="AL17" s="101"/>
+      <c r="AM17" s="105"/>
+      <c r="AN17" s="100"/>
+      <c r="AO17" s="100"/>
+      <c r="AP17" s="100"/>
+      <c r="AQ17" s="100"/>
+      <c r="AR17" s="100"/>
+      <c r="AS17" s="100"/>
+      <c r="AT17" s="100"/>
+      <c r="AU17" s="100"/>
+      <c r="AV17" s="100"/>
+      <c r="AW17" s="100"/>
+      <c r="AX17" s="100"/>
+      <c r="AY17" s="100"/>
+      <c r="AZ17" s="101"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="30" t="str">
@@ -5785,56 +5735,56 @@
         <v/>
       </c>
       <c r="B18" s="31"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="103"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="103"/>
-      <c r="W18" s="103"/>
-      <c r="X18" s="103"/>
-      <c r="Y18" s="103"/>
-      <c r="Z18" s="103"/>
-      <c r="AA18" s="103"/>
-      <c r="AB18" s="103"/>
-      <c r="AC18" s="103"/>
-      <c r="AD18" s="103"/>
-      <c r="AE18" s="103"/>
-      <c r="AF18" s="103"/>
-      <c r="AG18" s="103"/>
-      <c r="AH18" s="103"/>
-      <c r="AI18" s="103"/>
-      <c r="AJ18" s="103"/>
-      <c r="AK18" s="103"/>
-      <c r="AL18" s="104"/>
-      <c r="AM18" s="102"/>
-      <c r="AN18" s="103"/>
-      <c r="AO18" s="103"/>
-      <c r="AP18" s="103"/>
-      <c r="AQ18" s="103"/>
-      <c r="AR18" s="103"/>
-      <c r="AS18" s="103"/>
-      <c r="AT18" s="103"/>
-      <c r="AU18" s="103"/>
-      <c r="AV18" s="103"/>
-      <c r="AW18" s="103"/>
-      <c r="AX18" s="103"/>
-      <c r="AY18" s="103"/>
-      <c r="AZ18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="100"/>
+      <c r="V18" s="100"/>
+      <c r="W18" s="100"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="100"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="100"/>
+      <c r="AB18" s="100"/>
+      <c r="AC18" s="100"/>
+      <c r="AD18" s="100"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="100"/>
+      <c r="AH18" s="100"/>
+      <c r="AI18" s="100"/>
+      <c r="AJ18" s="100"/>
+      <c r="AK18" s="100"/>
+      <c r="AL18" s="101"/>
+      <c r="AM18" s="105"/>
+      <c r="AN18" s="100"/>
+      <c r="AO18" s="100"/>
+      <c r="AP18" s="100"/>
+      <c r="AQ18" s="100"/>
+      <c r="AR18" s="100"/>
+      <c r="AS18" s="100"/>
+      <c r="AT18" s="100"/>
+      <c r="AU18" s="100"/>
+      <c r="AV18" s="100"/>
+      <c r="AW18" s="100"/>
+      <c r="AX18" s="100"/>
+      <c r="AY18" s="100"/>
+      <c r="AZ18" s="101"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="30" t="str">
@@ -5842,56 +5792,56 @@
         <v/>
       </c>
       <c r="B19" s="31"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="103"/>
-      <c r="S19" s="103"/>
-      <c r="T19" s="103"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="103"/>
-      <c r="X19" s="103"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="103"/>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="103"/>
-      <c r="AG19" s="103"/>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="103"/>
-      <c r="AJ19" s="103"/>
-      <c r="AK19" s="103"/>
-      <c r="AL19" s="104"/>
-      <c r="AM19" s="102"/>
-      <c r="AN19" s="103"/>
-      <c r="AO19" s="103"/>
-      <c r="AP19" s="103"/>
-      <c r="AQ19" s="103"/>
-      <c r="AR19" s="103"/>
-      <c r="AS19" s="103"/>
-      <c r="AT19" s="103"/>
-      <c r="AU19" s="103"/>
-      <c r="AV19" s="103"/>
-      <c r="AW19" s="103"/>
-      <c r="AX19" s="103"/>
-      <c r="AY19" s="103"/>
-      <c r="AZ19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="100"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="100"/>
+      <c r="V19" s="100"/>
+      <c r="W19" s="100"/>
+      <c r="X19" s="100"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="100"/>
+      <c r="AB19" s="100"/>
+      <c r="AC19" s="100"/>
+      <c r="AD19" s="100"/>
+      <c r="AE19" s="100"/>
+      <c r="AF19" s="100"/>
+      <c r="AG19" s="100"/>
+      <c r="AH19" s="100"/>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="100"/>
+      <c r="AK19" s="100"/>
+      <c r="AL19" s="101"/>
+      <c r="AM19" s="105"/>
+      <c r="AN19" s="100"/>
+      <c r="AO19" s="100"/>
+      <c r="AP19" s="100"/>
+      <c r="AQ19" s="100"/>
+      <c r="AR19" s="100"/>
+      <c r="AS19" s="100"/>
+      <c r="AT19" s="100"/>
+      <c r="AU19" s="100"/>
+      <c r="AV19" s="100"/>
+      <c r="AW19" s="100"/>
+      <c r="AX19" s="100"/>
+      <c r="AY19" s="100"/>
+      <c r="AZ19" s="101"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="30" t="str">
@@ -5899,56 +5849,56 @@
         <v/>
       </c>
       <c r="B20" s="31"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="103"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="103"/>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="103"/>
-      <c r="AF20" s="103"/>
-      <c r="AG20" s="103"/>
-      <c r="AH20" s="103"/>
-      <c r="AI20" s="103"/>
-      <c r="AJ20" s="103"/>
-      <c r="AK20" s="103"/>
-      <c r="AL20" s="104"/>
-      <c r="AM20" s="102"/>
-      <c r="AN20" s="103"/>
-      <c r="AO20" s="103"/>
-      <c r="AP20" s="103"/>
-      <c r="AQ20" s="103"/>
-      <c r="AR20" s="103"/>
-      <c r="AS20" s="103"/>
-      <c r="AT20" s="103"/>
-      <c r="AU20" s="103"/>
-      <c r="AV20" s="103"/>
-      <c r="AW20" s="103"/>
-      <c r="AX20" s="103"/>
-      <c r="AY20" s="103"/>
-      <c r="AZ20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="105"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="100"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="100"/>
+      <c r="AA20" s="100"/>
+      <c r="AB20" s="100"/>
+      <c r="AC20" s="100"/>
+      <c r="AD20" s="100"/>
+      <c r="AE20" s="100"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="100"/>
+      <c r="AH20" s="100"/>
+      <c r="AI20" s="100"/>
+      <c r="AJ20" s="100"/>
+      <c r="AK20" s="100"/>
+      <c r="AL20" s="101"/>
+      <c r="AM20" s="105"/>
+      <c r="AN20" s="100"/>
+      <c r="AO20" s="100"/>
+      <c r="AP20" s="100"/>
+      <c r="AQ20" s="100"/>
+      <c r="AR20" s="100"/>
+      <c r="AS20" s="100"/>
+      <c r="AT20" s="100"/>
+      <c r="AU20" s="100"/>
+      <c r="AV20" s="100"/>
+      <c r="AW20" s="100"/>
+      <c r="AX20" s="100"/>
+      <c r="AY20" s="100"/>
+      <c r="AZ20" s="101"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="30" t="str">
@@ -5956,56 +5906,56 @@
         <v/>
       </c>
       <c r="B21" s="31"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="103"/>
-      <c r="U21" s="103"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="103"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="103"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="103"/>
-      <c r="AG21" s="103"/>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="103"/>
-      <c r="AJ21" s="103"/>
-      <c r="AK21" s="103"/>
-      <c r="AL21" s="104"/>
-      <c r="AM21" s="102"/>
-      <c r="AN21" s="103"/>
-      <c r="AO21" s="103"/>
-      <c r="AP21" s="103"/>
-      <c r="AQ21" s="103"/>
-      <c r="AR21" s="103"/>
-      <c r="AS21" s="103"/>
-      <c r="AT21" s="103"/>
-      <c r="AU21" s="103"/>
-      <c r="AV21" s="103"/>
-      <c r="AW21" s="103"/>
-      <c r="AX21" s="103"/>
-      <c r="AY21" s="103"/>
-      <c r="AZ21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="100"/>
+      <c r="S21" s="100"/>
+      <c r="T21" s="100"/>
+      <c r="U21" s="100"/>
+      <c r="V21" s="100"/>
+      <c r="W21" s="100"/>
+      <c r="X21" s="100"/>
+      <c r="Y21" s="100"/>
+      <c r="Z21" s="100"/>
+      <c r="AA21" s="100"/>
+      <c r="AB21" s="100"/>
+      <c r="AC21" s="100"/>
+      <c r="AD21" s="100"/>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="100"/>
+      <c r="AH21" s="100"/>
+      <c r="AI21" s="100"/>
+      <c r="AJ21" s="100"/>
+      <c r="AK21" s="100"/>
+      <c r="AL21" s="101"/>
+      <c r="AM21" s="105"/>
+      <c r="AN21" s="100"/>
+      <c r="AO21" s="100"/>
+      <c r="AP21" s="100"/>
+      <c r="AQ21" s="100"/>
+      <c r="AR21" s="100"/>
+      <c r="AS21" s="100"/>
+      <c r="AT21" s="100"/>
+      <c r="AU21" s="100"/>
+      <c r="AV21" s="100"/>
+      <c r="AW21" s="100"/>
+      <c r="AX21" s="100"/>
+      <c r="AY21" s="100"/>
+      <c r="AZ21" s="101"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="30" t="str">
@@ -6013,56 +5963,56 @@
         <v/>
       </c>
       <c r="B22" s="31"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="103"/>
-      <c r="Z22" s="103"/>
-      <c r="AA22" s="103"/>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="103"/>
-      <c r="AD22" s="103"/>
-      <c r="AE22" s="103"/>
-      <c r="AF22" s="103"/>
-      <c r="AG22" s="103"/>
-      <c r="AH22" s="103"/>
-      <c r="AI22" s="103"/>
-      <c r="AJ22" s="103"/>
-      <c r="AK22" s="103"/>
-      <c r="AL22" s="104"/>
-      <c r="AM22" s="102"/>
-      <c r="AN22" s="103"/>
-      <c r="AO22" s="103"/>
-      <c r="AP22" s="103"/>
-      <c r="AQ22" s="103"/>
-      <c r="AR22" s="103"/>
-      <c r="AS22" s="103"/>
-      <c r="AT22" s="103"/>
-      <c r="AU22" s="103"/>
-      <c r="AV22" s="103"/>
-      <c r="AW22" s="103"/>
-      <c r="AX22" s="103"/>
-      <c r="AY22" s="103"/>
-      <c r="AZ22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="100"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="100"/>
+      <c r="AB22" s="100"/>
+      <c r="AC22" s="100"/>
+      <c r="AD22" s="100"/>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="100"/>
+      <c r="AH22" s="100"/>
+      <c r="AI22" s="100"/>
+      <c r="AJ22" s="100"/>
+      <c r="AK22" s="100"/>
+      <c r="AL22" s="101"/>
+      <c r="AM22" s="105"/>
+      <c r="AN22" s="100"/>
+      <c r="AO22" s="100"/>
+      <c r="AP22" s="100"/>
+      <c r="AQ22" s="100"/>
+      <c r="AR22" s="100"/>
+      <c r="AS22" s="100"/>
+      <c r="AT22" s="100"/>
+      <c r="AU22" s="100"/>
+      <c r="AV22" s="100"/>
+      <c r="AW22" s="100"/>
+      <c r="AX22" s="100"/>
+      <c r="AY22" s="100"/>
+      <c r="AZ22" s="101"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="30" t="str">
@@ -6070,56 +6020,56 @@
         <v/>
       </c>
       <c r="B23" s="31"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="103"/>
-      <c r="S23" s="103"/>
-      <c r="T23" s="103"/>
-      <c r="U23" s="103"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="103"/>
-      <c r="X23" s="103"/>
-      <c r="Y23" s="103"/>
-      <c r="Z23" s="103"/>
-      <c r="AA23" s="103"/>
-      <c r="AB23" s="103"/>
-      <c r="AC23" s="103"/>
-      <c r="AD23" s="103"/>
-      <c r="AE23" s="103"/>
-      <c r="AF23" s="103"/>
-      <c r="AG23" s="103"/>
-      <c r="AH23" s="103"/>
-      <c r="AI23" s="103"/>
-      <c r="AJ23" s="103"/>
-      <c r="AK23" s="103"/>
-      <c r="AL23" s="104"/>
-      <c r="AM23" s="102"/>
-      <c r="AN23" s="103"/>
-      <c r="AO23" s="103"/>
-      <c r="AP23" s="103"/>
-      <c r="AQ23" s="103"/>
-      <c r="AR23" s="103"/>
-      <c r="AS23" s="103"/>
-      <c r="AT23" s="103"/>
-      <c r="AU23" s="103"/>
-      <c r="AV23" s="103"/>
-      <c r="AW23" s="103"/>
-      <c r="AX23" s="103"/>
-      <c r="AY23" s="103"/>
-      <c r="AZ23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="100"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="100"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="100"/>
+      <c r="AB23" s="100"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="100"/>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="100"/>
+      <c r="AH23" s="100"/>
+      <c r="AI23" s="100"/>
+      <c r="AJ23" s="100"/>
+      <c r="AK23" s="100"/>
+      <c r="AL23" s="101"/>
+      <c r="AM23" s="105"/>
+      <c r="AN23" s="100"/>
+      <c r="AO23" s="100"/>
+      <c r="AP23" s="100"/>
+      <c r="AQ23" s="100"/>
+      <c r="AR23" s="100"/>
+      <c r="AS23" s="100"/>
+      <c r="AT23" s="100"/>
+      <c r="AU23" s="100"/>
+      <c r="AV23" s="100"/>
+      <c r="AW23" s="100"/>
+      <c r="AX23" s="100"/>
+      <c r="AY23" s="100"/>
+      <c r="AZ23" s="101"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="30" t="str">
@@ -6127,56 +6077,56 @@
         <v/>
       </c>
       <c r="B24" s="31"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="103"/>
-      <c r="Z24" s="103"/>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="103"/>
-      <c r="AD24" s="103"/>
-      <c r="AE24" s="103"/>
-      <c r="AF24" s="103"/>
-      <c r="AG24" s="103"/>
-      <c r="AH24" s="103"/>
-      <c r="AI24" s="103"/>
-      <c r="AJ24" s="103"/>
-      <c r="AK24" s="103"/>
-      <c r="AL24" s="104"/>
-      <c r="AM24" s="102"/>
-      <c r="AN24" s="103"/>
-      <c r="AO24" s="103"/>
-      <c r="AP24" s="103"/>
-      <c r="AQ24" s="103"/>
-      <c r="AR24" s="103"/>
-      <c r="AS24" s="103"/>
-      <c r="AT24" s="103"/>
-      <c r="AU24" s="103"/>
-      <c r="AV24" s="103"/>
-      <c r="AW24" s="103"/>
-      <c r="AX24" s="103"/>
-      <c r="AY24" s="103"/>
-      <c r="AZ24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="100"/>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="100"/>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="100"/>
+      <c r="AH24" s="100"/>
+      <c r="AI24" s="100"/>
+      <c r="AJ24" s="100"/>
+      <c r="AK24" s="100"/>
+      <c r="AL24" s="101"/>
+      <c r="AM24" s="105"/>
+      <c r="AN24" s="100"/>
+      <c r="AO24" s="100"/>
+      <c r="AP24" s="100"/>
+      <c r="AQ24" s="100"/>
+      <c r="AR24" s="100"/>
+      <c r="AS24" s="100"/>
+      <c r="AT24" s="100"/>
+      <c r="AU24" s="100"/>
+      <c r="AV24" s="100"/>
+      <c r="AW24" s="100"/>
+      <c r="AX24" s="100"/>
+      <c r="AY24" s="100"/>
+      <c r="AZ24" s="101"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="30" t="str">
@@ -6184,56 +6134,56 @@
         <v/>
       </c>
       <c r="B25" s="31"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="103"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="103"/>
-      <c r="X25" s="103"/>
-      <c r="Y25" s="103"/>
-      <c r="Z25" s="103"/>
-      <c r="AA25" s="103"/>
-      <c r="AB25" s="103"/>
-      <c r="AC25" s="103"/>
-      <c r="AD25" s="103"/>
-      <c r="AE25" s="103"/>
-      <c r="AF25" s="103"/>
-      <c r="AG25" s="103"/>
-      <c r="AH25" s="103"/>
-      <c r="AI25" s="103"/>
-      <c r="AJ25" s="103"/>
-      <c r="AK25" s="103"/>
-      <c r="AL25" s="104"/>
-      <c r="AM25" s="102"/>
-      <c r="AN25" s="103"/>
-      <c r="AO25" s="103"/>
-      <c r="AP25" s="103"/>
-      <c r="AQ25" s="103"/>
-      <c r="AR25" s="103"/>
-      <c r="AS25" s="103"/>
-      <c r="AT25" s="103"/>
-      <c r="AU25" s="103"/>
-      <c r="AV25" s="103"/>
-      <c r="AW25" s="103"/>
-      <c r="AX25" s="103"/>
-      <c r="AY25" s="103"/>
-      <c r="AZ25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="100"/>
+      <c r="W25" s="100"/>
+      <c r="X25" s="100"/>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="100"/>
+      <c r="AA25" s="100"/>
+      <c r="AB25" s="100"/>
+      <c r="AC25" s="100"/>
+      <c r="AD25" s="100"/>
+      <c r="AE25" s="100"/>
+      <c r="AF25" s="100"/>
+      <c r="AG25" s="100"/>
+      <c r="AH25" s="100"/>
+      <c r="AI25" s="100"/>
+      <c r="AJ25" s="100"/>
+      <c r="AK25" s="100"/>
+      <c r="AL25" s="101"/>
+      <c r="AM25" s="105"/>
+      <c r="AN25" s="100"/>
+      <c r="AO25" s="100"/>
+      <c r="AP25" s="100"/>
+      <c r="AQ25" s="100"/>
+      <c r="AR25" s="100"/>
+      <c r="AS25" s="100"/>
+      <c r="AT25" s="100"/>
+      <c r="AU25" s="100"/>
+      <c r="AV25" s="100"/>
+      <c r="AW25" s="100"/>
+      <c r="AX25" s="100"/>
+      <c r="AY25" s="100"/>
+      <c r="AZ25" s="101"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="30" t="str">
@@ -6241,56 +6191,56 @@
         <v/>
       </c>
       <c r="B26" s="31"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="103"/>
-      <c r="U26" s="103"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="103"/>
-      <c r="X26" s="103"/>
-      <c r="Y26" s="103"/>
-      <c r="Z26" s="103"/>
-      <c r="AA26" s="103"/>
-      <c r="AB26" s="103"/>
-      <c r="AC26" s="103"/>
-      <c r="AD26" s="103"/>
-      <c r="AE26" s="103"/>
-      <c r="AF26" s="103"/>
-      <c r="AG26" s="103"/>
-      <c r="AH26" s="103"/>
-      <c r="AI26" s="103"/>
-      <c r="AJ26" s="103"/>
-      <c r="AK26" s="103"/>
-      <c r="AL26" s="104"/>
-      <c r="AM26" s="102"/>
-      <c r="AN26" s="103"/>
-      <c r="AO26" s="103"/>
-      <c r="AP26" s="103"/>
-      <c r="AQ26" s="103"/>
-      <c r="AR26" s="103"/>
-      <c r="AS26" s="103"/>
-      <c r="AT26" s="103"/>
-      <c r="AU26" s="103"/>
-      <c r="AV26" s="103"/>
-      <c r="AW26" s="103"/>
-      <c r="AX26" s="103"/>
-      <c r="AY26" s="103"/>
-      <c r="AZ26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="100"/>
+      <c r="AB26" s="100"/>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="100"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="100"/>
+      <c r="AH26" s="100"/>
+      <c r="AI26" s="100"/>
+      <c r="AJ26" s="100"/>
+      <c r="AK26" s="100"/>
+      <c r="AL26" s="101"/>
+      <c r="AM26" s="105"/>
+      <c r="AN26" s="100"/>
+      <c r="AO26" s="100"/>
+      <c r="AP26" s="100"/>
+      <c r="AQ26" s="100"/>
+      <c r="AR26" s="100"/>
+      <c r="AS26" s="100"/>
+      <c r="AT26" s="100"/>
+      <c r="AU26" s="100"/>
+      <c r="AV26" s="100"/>
+      <c r="AW26" s="100"/>
+      <c r="AX26" s="100"/>
+      <c r="AY26" s="100"/>
+      <c r="AZ26" s="101"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="30" t="str">
@@ -6298,56 +6248,56 @@
         <v/>
       </c>
       <c r="B27" s="31"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="103"/>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="103"/>
-      <c r="AA27" s="103"/>
-      <c r="AB27" s="103"/>
-      <c r="AC27" s="103"/>
-      <c r="AD27" s="103"/>
-      <c r="AE27" s="103"/>
-      <c r="AF27" s="103"/>
-      <c r="AG27" s="103"/>
-      <c r="AH27" s="103"/>
-      <c r="AI27" s="103"/>
-      <c r="AJ27" s="103"/>
-      <c r="AK27" s="103"/>
-      <c r="AL27" s="104"/>
-      <c r="AM27" s="102"/>
-      <c r="AN27" s="103"/>
-      <c r="AO27" s="103"/>
-      <c r="AP27" s="103"/>
-      <c r="AQ27" s="103"/>
-      <c r="AR27" s="103"/>
-      <c r="AS27" s="103"/>
-      <c r="AT27" s="103"/>
-      <c r="AU27" s="103"/>
-      <c r="AV27" s="103"/>
-      <c r="AW27" s="103"/>
-      <c r="AX27" s="103"/>
-      <c r="AY27" s="103"/>
-      <c r="AZ27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="100"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="100"/>
+      <c r="AB27" s="100"/>
+      <c r="AC27" s="100"/>
+      <c r="AD27" s="100"/>
+      <c r="AE27" s="100"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="100"/>
+      <c r="AH27" s="100"/>
+      <c r="AI27" s="100"/>
+      <c r="AJ27" s="100"/>
+      <c r="AK27" s="100"/>
+      <c r="AL27" s="101"/>
+      <c r="AM27" s="105"/>
+      <c r="AN27" s="100"/>
+      <c r="AO27" s="100"/>
+      <c r="AP27" s="100"/>
+      <c r="AQ27" s="100"/>
+      <c r="AR27" s="100"/>
+      <c r="AS27" s="100"/>
+      <c r="AT27" s="100"/>
+      <c r="AU27" s="100"/>
+      <c r="AV27" s="100"/>
+      <c r="AW27" s="100"/>
+      <c r="AX27" s="100"/>
+      <c r="AY27" s="100"/>
+      <c r="AZ27" s="101"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="30" t="str">
@@ -6355,56 +6305,56 @@
         <v/>
       </c>
       <c r="B28" s="31"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="103"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="103"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="103"/>
-      <c r="Z28" s="103"/>
-      <c r="AA28" s="103"/>
-      <c r="AB28" s="103"/>
-      <c r="AC28" s="103"/>
-      <c r="AD28" s="103"/>
-      <c r="AE28" s="103"/>
-      <c r="AF28" s="103"/>
-      <c r="AG28" s="103"/>
-      <c r="AH28" s="103"/>
-      <c r="AI28" s="103"/>
-      <c r="AJ28" s="103"/>
-      <c r="AK28" s="103"/>
-      <c r="AL28" s="104"/>
-      <c r="AM28" s="102"/>
-      <c r="AN28" s="103"/>
-      <c r="AO28" s="103"/>
-      <c r="AP28" s="103"/>
-      <c r="AQ28" s="103"/>
-      <c r="AR28" s="103"/>
-      <c r="AS28" s="103"/>
-      <c r="AT28" s="103"/>
-      <c r="AU28" s="103"/>
-      <c r="AV28" s="103"/>
-      <c r="AW28" s="103"/>
-      <c r="AX28" s="103"/>
-      <c r="AY28" s="103"/>
-      <c r="AZ28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="100"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="100"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="100"/>
+      <c r="AH28" s="100"/>
+      <c r="AI28" s="100"/>
+      <c r="AJ28" s="100"/>
+      <c r="AK28" s="100"/>
+      <c r="AL28" s="101"/>
+      <c r="AM28" s="105"/>
+      <c r="AN28" s="100"/>
+      <c r="AO28" s="100"/>
+      <c r="AP28" s="100"/>
+      <c r="AQ28" s="100"/>
+      <c r="AR28" s="100"/>
+      <c r="AS28" s="100"/>
+      <c r="AT28" s="100"/>
+      <c r="AU28" s="100"/>
+      <c r="AV28" s="100"/>
+      <c r="AW28" s="100"/>
+      <c r="AX28" s="100"/>
+      <c r="AY28" s="100"/>
+      <c r="AZ28" s="101"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="30" t="str">
@@ -6412,56 +6362,56 @@
         <v/>
       </c>
       <c r="B29" s="31"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="103"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="103"/>
-      <c r="X29" s="103"/>
-      <c r="Y29" s="103"/>
-      <c r="Z29" s="103"/>
-      <c r="AA29" s="103"/>
-      <c r="AB29" s="103"/>
-      <c r="AC29" s="103"/>
-      <c r="AD29" s="103"/>
-      <c r="AE29" s="103"/>
-      <c r="AF29" s="103"/>
-      <c r="AG29" s="103"/>
-      <c r="AH29" s="103"/>
-      <c r="AI29" s="103"/>
-      <c r="AJ29" s="103"/>
-      <c r="AK29" s="103"/>
-      <c r="AL29" s="104"/>
-      <c r="AM29" s="102"/>
-      <c r="AN29" s="103"/>
-      <c r="AO29" s="103"/>
-      <c r="AP29" s="103"/>
-      <c r="AQ29" s="103"/>
-      <c r="AR29" s="103"/>
-      <c r="AS29" s="103"/>
-      <c r="AT29" s="103"/>
-      <c r="AU29" s="103"/>
-      <c r="AV29" s="103"/>
-      <c r="AW29" s="103"/>
-      <c r="AX29" s="103"/>
-      <c r="AY29" s="103"/>
-      <c r="AZ29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="100"/>
+      <c r="W29" s="100"/>
+      <c r="X29" s="100"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="100"/>
+      <c r="AA29" s="100"/>
+      <c r="AB29" s="100"/>
+      <c r="AC29" s="100"/>
+      <c r="AD29" s="100"/>
+      <c r="AE29" s="100"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="100"/>
+      <c r="AH29" s="100"/>
+      <c r="AI29" s="100"/>
+      <c r="AJ29" s="100"/>
+      <c r="AK29" s="100"/>
+      <c r="AL29" s="101"/>
+      <c r="AM29" s="105"/>
+      <c r="AN29" s="100"/>
+      <c r="AO29" s="100"/>
+      <c r="AP29" s="100"/>
+      <c r="AQ29" s="100"/>
+      <c r="AR29" s="100"/>
+      <c r="AS29" s="100"/>
+      <c r="AT29" s="100"/>
+      <c r="AU29" s="100"/>
+      <c r="AV29" s="100"/>
+      <c r="AW29" s="100"/>
+      <c r="AX29" s="100"/>
+      <c r="AY29" s="100"/>
+      <c r="AZ29" s="101"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="30" t="str">
@@ -6469,56 +6419,56 @@
         <v/>
       </c>
       <c r="B30" s="31"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="103"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="103"/>
-      <c r="Z30" s="103"/>
-      <c r="AA30" s="103"/>
-      <c r="AB30" s="103"/>
-      <c r="AC30" s="103"/>
-      <c r="AD30" s="103"/>
-      <c r="AE30" s="103"/>
-      <c r="AF30" s="103"/>
-      <c r="AG30" s="103"/>
-      <c r="AH30" s="103"/>
-      <c r="AI30" s="103"/>
-      <c r="AJ30" s="103"/>
-      <c r="AK30" s="103"/>
-      <c r="AL30" s="104"/>
-      <c r="AM30" s="102"/>
-      <c r="AN30" s="103"/>
-      <c r="AO30" s="103"/>
-      <c r="AP30" s="103"/>
-      <c r="AQ30" s="103"/>
-      <c r="AR30" s="103"/>
-      <c r="AS30" s="103"/>
-      <c r="AT30" s="103"/>
-      <c r="AU30" s="103"/>
-      <c r="AV30" s="103"/>
-      <c r="AW30" s="103"/>
-      <c r="AX30" s="103"/>
-      <c r="AY30" s="103"/>
-      <c r="AZ30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="100"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="100"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="100"/>
+      <c r="AB30" s="100"/>
+      <c r="AC30" s="100"/>
+      <c r="AD30" s="100"/>
+      <c r="AE30" s="100"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="100"/>
+      <c r="AH30" s="100"/>
+      <c r="AI30" s="100"/>
+      <c r="AJ30" s="100"/>
+      <c r="AK30" s="100"/>
+      <c r="AL30" s="101"/>
+      <c r="AM30" s="105"/>
+      <c r="AN30" s="100"/>
+      <c r="AO30" s="100"/>
+      <c r="AP30" s="100"/>
+      <c r="AQ30" s="100"/>
+      <c r="AR30" s="100"/>
+      <c r="AS30" s="100"/>
+      <c r="AT30" s="100"/>
+      <c r="AU30" s="100"/>
+      <c r="AV30" s="100"/>
+      <c r="AW30" s="100"/>
+      <c r="AX30" s="100"/>
+      <c r="AY30" s="100"/>
+      <c r="AZ30" s="101"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="30" t="str">
@@ -6526,56 +6476,56 @@
         <v/>
       </c>
       <c r="B31" s="31"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="103"/>
-      <c r="Y31" s="103"/>
-      <c r="Z31" s="103"/>
-      <c r="AA31" s="103"/>
-      <c r="AB31" s="103"/>
-      <c r="AC31" s="103"/>
-      <c r="AD31" s="103"/>
-      <c r="AE31" s="103"/>
-      <c r="AF31" s="103"/>
-      <c r="AG31" s="103"/>
-      <c r="AH31" s="103"/>
-      <c r="AI31" s="103"/>
-      <c r="AJ31" s="103"/>
-      <c r="AK31" s="103"/>
-      <c r="AL31" s="104"/>
-      <c r="AM31" s="102"/>
-      <c r="AN31" s="103"/>
-      <c r="AO31" s="103"/>
-      <c r="AP31" s="103"/>
-      <c r="AQ31" s="103"/>
-      <c r="AR31" s="103"/>
-      <c r="AS31" s="103"/>
-      <c r="AT31" s="103"/>
-      <c r="AU31" s="103"/>
-      <c r="AV31" s="103"/>
-      <c r="AW31" s="103"/>
-      <c r="AX31" s="103"/>
-      <c r="AY31" s="103"/>
-      <c r="AZ31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="100"/>
+      <c r="W31" s="100"/>
+      <c r="X31" s="100"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="100"/>
+      <c r="AB31" s="100"/>
+      <c r="AC31" s="100"/>
+      <c r="AD31" s="100"/>
+      <c r="AE31" s="100"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="100"/>
+      <c r="AH31" s="100"/>
+      <c r="AI31" s="100"/>
+      <c r="AJ31" s="100"/>
+      <c r="AK31" s="100"/>
+      <c r="AL31" s="101"/>
+      <c r="AM31" s="105"/>
+      <c r="AN31" s="100"/>
+      <c r="AO31" s="100"/>
+      <c r="AP31" s="100"/>
+      <c r="AQ31" s="100"/>
+      <c r="AR31" s="100"/>
+      <c r="AS31" s="100"/>
+      <c r="AT31" s="100"/>
+      <c r="AU31" s="100"/>
+      <c r="AV31" s="100"/>
+      <c r="AW31" s="100"/>
+      <c r="AX31" s="100"/>
+      <c r="AY31" s="100"/>
+      <c r="AZ31" s="101"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="30" t="str">
@@ -6583,56 +6533,56 @@
         <v/>
       </c>
       <c r="B32" s="31"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="103"/>
-      <c r="X32" s="103"/>
-      <c r="Y32" s="103"/>
-      <c r="Z32" s="103"/>
-      <c r="AA32" s="103"/>
-      <c r="AB32" s="103"/>
-      <c r="AC32" s="103"/>
-      <c r="AD32" s="103"/>
-      <c r="AE32" s="103"/>
-      <c r="AF32" s="103"/>
-      <c r="AG32" s="103"/>
-      <c r="AH32" s="103"/>
-      <c r="AI32" s="103"/>
-      <c r="AJ32" s="103"/>
-      <c r="AK32" s="103"/>
-      <c r="AL32" s="104"/>
-      <c r="AM32" s="102"/>
-      <c r="AN32" s="103"/>
-      <c r="AO32" s="103"/>
-      <c r="AP32" s="103"/>
-      <c r="AQ32" s="103"/>
-      <c r="AR32" s="103"/>
-      <c r="AS32" s="103"/>
-      <c r="AT32" s="103"/>
-      <c r="AU32" s="103"/>
-      <c r="AV32" s="103"/>
-      <c r="AW32" s="103"/>
-      <c r="AX32" s="103"/>
-      <c r="AY32" s="103"/>
-      <c r="AZ32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="100"/>
+      <c r="W32" s="100"/>
+      <c r="X32" s="100"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="100"/>
+      <c r="AB32" s="100"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="100"/>
+      <c r="AE32" s="100"/>
+      <c r="AF32" s="100"/>
+      <c r="AG32" s="100"/>
+      <c r="AH32" s="100"/>
+      <c r="AI32" s="100"/>
+      <c r="AJ32" s="100"/>
+      <c r="AK32" s="100"/>
+      <c r="AL32" s="101"/>
+      <c r="AM32" s="105"/>
+      <c r="AN32" s="100"/>
+      <c r="AO32" s="100"/>
+      <c r="AP32" s="100"/>
+      <c r="AQ32" s="100"/>
+      <c r="AR32" s="100"/>
+      <c r="AS32" s="100"/>
+      <c r="AT32" s="100"/>
+      <c r="AU32" s="100"/>
+      <c r="AV32" s="100"/>
+      <c r="AW32" s="100"/>
+      <c r="AX32" s="100"/>
+      <c r="AY32" s="100"/>
+      <c r="AZ32" s="101"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="30" t="str">
@@ -6640,56 +6590,56 @@
         <v/>
       </c>
       <c r="B33" s="31"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="103"/>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="103"/>
-      <c r="Z33" s="103"/>
-      <c r="AA33" s="103"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="103"/>
-      <c r="AD33" s="103"/>
-      <c r="AE33" s="103"/>
-      <c r="AF33" s="103"/>
-      <c r="AG33" s="103"/>
-      <c r="AH33" s="103"/>
-      <c r="AI33" s="103"/>
-      <c r="AJ33" s="103"/>
-      <c r="AK33" s="103"/>
-      <c r="AL33" s="104"/>
-      <c r="AM33" s="102"/>
-      <c r="AN33" s="103"/>
-      <c r="AO33" s="103"/>
-      <c r="AP33" s="103"/>
-      <c r="AQ33" s="103"/>
-      <c r="AR33" s="103"/>
-      <c r="AS33" s="103"/>
-      <c r="AT33" s="103"/>
-      <c r="AU33" s="103"/>
-      <c r="AV33" s="103"/>
-      <c r="AW33" s="103"/>
-      <c r="AX33" s="103"/>
-      <c r="AY33" s="103"/>
-      <c r="AZ33" s="104"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="100"/>
+      <c r="T33" s="100"/>
+      <c r="U33" s="100"/>
+      <c r="V33" s="100"/>
+      <c r="W33" s="100"/>
+      <c r="X33" s="100"/>
+      <c r="Y33" s="100"/>
+      <c r="Z33" s="100"/>
+      <c r="AA33" s="100"/>
+      <c r="AB33" s="100"/>
+      <c r="AC33" s="100"/>
+      <c r="AD33" s="100"/>
+      <c r="AE33" s="100"/>
+      <c r="AF33" s="100"/>
+      <c r="AG33" s="100"/>
+      <c r="AH33" s="100"/>
+      <c r="AI33" s="100"/>
+      <c r="AJ33" s="100"/>
+      <c r="AK33" s="100"/>
+      <c r="AL33" s="101"/>
+      <c r="AM33" s="105"/>
+      <c r="AN33" s="100"/>
+      <c r="AO33" s="100"/>
+      <c r="AP33" s="100"/>
+      <c r="AQ33" s="100"/>
+      <c r="AR33" s="100"/>
+      <c r="AS33" s="100"/>
+      <c r="AT33" s="100"/>
+      <c r="AU33" s="100"/>
+      <c r="AV33" s="100"/>
+      <c r="AW33" s="100"/>
+      <c r="AX33" s="100"/>
+      <c r="AY33" s="100"/>
+      <c r="AZ33" s="101"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="30" t="str">
@@ -6697,56 +6647,56 @@
         <v/>
       </c>
       <c r="B34" s="31"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="103"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="103"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="103"/>
-      <c r="Z34" s="103"/>
-      <c r="AA34" s="103"/>
-      <c r="AB34" s="103"/>
-      <c r="AC34" s="103"/>
-      <c r="AD34" s="103"/>
-      <c r="AE34" s="103"/>
-      <c r="AF34" s="103"/>
-      <c r="AG34" s="103"/>
-      <c r="AH34" s="103"/>
-      <c r="AI34" s="103"/>
-      <c r="AJ34" s="103"/>
-      <c r="AK34" s="103"/>
-      <c r="AL34" s="104"/>
-      <c r="AM34" s="102"/>
-      <c r="AN34" s="103"/>
-      <c r="AO34" s="103"/>
-      <c r="AP34" s="103"/>
-      <c r="AQ34" s="103"/>
-      <c r="AR34" s="103"/>
-      <c r="AS34" s="103"/>
-      <c r="AT34" s="103"/>
-      <c r="AU34" s="103"/>
-      <c r="AV34" s="103"/>
-      <c r="AW34" s="103"/>
-      <c r="AX34" s="103"/>
-      <c r="AY34" s="103"/>
-      <c r="AZ34" s="104"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="100"/>
+      <c r="S34" s="100"/>
+      <c r="T34" s="100"/>
+      <c r="U34" s="100"/>
+      <c r="V34" s="100"/>
+      <c r="W34" s="100"/>
+      <c r="X34" s="100"/>
+      <c r="Y34" s="100"/>
+      <c r="Z34" s="100"/>
+      <c r="AA34" s="100"/>
+      <c r="AB34" s="100"/>
+      <c r="AC34" s="100"/>
+      <c r="AD34" s="100"/>
+      <c r="AE34" s="100"/>
+      <c r="AF34" s="100"/>
+      <c r="AG34" s="100"/>
+      <c r="AH34" s="100"/>
+      <c r="AI34" s="100"/>
+      <c r="AJ34" s="100"/>
+      <c r="AK34" s="100"/>
+      <c r="AL34" s="101"/>
+      <c r="AM34" s="105"/>
+      <c r="AN34" s="100"/>
+      <c r="AO34" s="100"/>
+      <c r="AP34" s="100"/>
+      <c r="AQ34" s="100"/>
+      <c r="AR34" s="100"/>
+      <c r="AS34" s="100"/>
+      <c r="AT34" s="100"/>
+      <c r="AU34" s="100"/>
+      <c r="AV34" s="100"/>
+      <c r="AW34" s="100"/>
+      <c r="AX34" s="100"/>
+      <c r="AY34" s="100"/>
+      <c r="AZ34" s="101"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="30" t="str">
@@ -6754,59 +6704,189 @@
         <v/>
       </c>
       <c r="B35" s="31"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="102"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="102"/>
-      <c r="R35" s="103"/>
-      <c r="S35" s="103"/>
-      <c r="T35" s="103"/>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="103"/>
-      <c r="Z35" s="103"/>
-      <c r="AA35" s="103"/>
-      <c r="AB35" s="103"/>
-      <c r="AC35" s="103"/>
-      <c r="AD35" s="103"/>
-      <c r="AE35" s="103"/>
-      <c r="AF35" s="103"/>
-      <c r="AG35" s="103"/>
-      <c r="AH35" s="103"/>
-      <c r="AI35" s="103"/>
-      <c r="AJ35" s="103"/>
-      <c r="AK35" s="103"/>
-      <c r="AL35" s="104"/>
-      <c r="AM35" s="102"/>
-      <c r="AN35" s="103"/>
-      <c r="AO35" s="103"/>
-      <c r="AP35" s="103"/>
-      <c r="AQ35" s="103"/>
-      <c r="AR35" s="103"/>
-      <c r="AS35" s="103"/>
-      <c r="AT35" s="103"/>
-      <c r="AU35" s="103"/>
-      <c r="AV35" s="103"/>
-      <c r="AW35" s="103"/>
-      <c r="AX35" s="103"/>
-      <c r="AY35" s="103"/>
-      <c r="AZ35" s="104"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="100"/>
+      <c r="V35" s="100"/>
+      <c r="W35" s="100"/>
+      <c r="X35" s="100"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="100"/>
+      <c r="AB35" s="100"/>
+      <c r="AC35" s="100"/>
+      <c r="AD35" s="100"/>
+      <c r="AE35" s="100"/>
+      <c r="AF35" s="100"/>
+      <c r="AG35" s="100"/>
+      <c r="AH35" s="100"/>
+      <c r="AI35" s="100"/>
+      <c r="AJ35" s="100"/>
+      <c r="AK35" s="100"/>
+      <c r="AL35" s="101"/>
+      <c r="AM35" s="105"/>
+      <c r="AN35" s="100"/>
+      <c r="AO35" s="100"/>
+      <c r="AP35" s="100"/>
+      <c r="AQ35" s="100"/>
+      <c r="AR35" s="100"/>
+      <c r="AS35" s="100"/>
+      <c r="AT35" s="100"/>
+      <c r="AU35" s="100"/>
+      <c r="AV35" s="100"/>
+      <c r="AW35" s="100"/>
+      <c r="AX35" s="100"/>
+      <c r="AY35" s="100"/>
+      <c r="AZ35" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:AL34"/>
+    <mergeCell ref="AM34:AZ34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="Q35:AL35"/>
+    <mergeCell ref="AM35:AZ35"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:P8"/>
@@ -6817,136 +6897,6 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="Q9:AL9"/>
     <mergeCell ref="AM9:AZ9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:AL34"/>
-    <mergeCell ref="AM34:AZ34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="Q35:AL35"/>
-    <mergeCell ref="AM35:AZ35"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6960,8 +6910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AQ100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="102" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="102" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
@@ -8975,47 +8925,47 @@
     <row r="44" spans="1:43">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="109"/>
-      <c r="K44" s="109"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="109" t="s">
+      <c r="P44" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="Q44" s="109"/>
-      <c r="R44" s="109"/>
-      <c r="S44" s="109"/>
-      <c r="T44" s="109"/>
-      <c r="U44" s="109"/>
-      <c r="V44" s="109"/>
-      <c r="W44" s="109"/>
-      <c r="X44" s="109"/>
+      <c r="Q44" s="106"/>
+      <c r="R44" s="106"/>
+      <c r="S44" s="106"/>
+      <c r="T44" s="106"/>
+      <c r="U44" s="106"/>
+      <c r="V44" s="106"/>
+      <c r="W44" s="106"/>
+      <c r="X44" s="106"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
-      <c r="AC44" s="109" t="s">
+      <c r="AC44" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="AD44" s="109"/>
-      <c r="AE44" s="109"/>
-      <c r="AF44" s="109"/>
-      <c r="AG44" s="109"/>
-      <c r="AH44" s="109"/>
-      <c r="AI44" s="109"/>
-      <c r="AJ44" s="109"/>
-      <c r="AK44" s="109"/>
+      <c r="AD44" s="106"/>
+      <c r="AE44" s="106"/>
+      <c r="AF44" s="106"/>
+      <c r="AG44" s="106"/>
+      <c r="AH44" s="106"/>
+      <c r="AI44" s="106"/>
+      <c r="AJ44" s="106"/>
+      <c r="AK44" s="106"/>
       <c r="AL44" s="8"/>
       <c r="AM44" s="8"/>
       <c r="AN44" s="8"/>
@@ -9026,41 +8976,41 @@
     <row r="45" spans="1:43">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="109"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="109"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="106"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="109"/>
-      <c r="Q45" s="109"/>
-      <c r="R45" s="109"/>
-      <c r="S45" s="109"/>
-      <c r="T45" s="109"/>
-      <c r="U45" s="109"/>
-      <c r="V45" s="109"/>
-      <c r="W45" s="109"/>
-      <c r="X45" s="109"/>
+      <c r="P45" s="106"/>
+      <c r="Q45" s="106"/>
+      <c r="R45" s="106"/>
+      <c r="S45" s="106"/>
+      <c r="T45" s="106"/>
+      <c r="U45" s="106"/>
+      <c r="V45" s="106"/>
+      <c r="W45" s="106"/>
+      <c r="X45" s="106"/>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
-      <c r="AC45" s="109"/>
-      <c r="AD45" s="109"/>
-      <c r="AE45" s="109"/>
-      <c r="AF45" s="109"/>
-      <c r="AG45" s="109"/>
-      <c r="AH45" s="109"/>
-      <c r="AI45" s="109"/>
-      <c r="AJ45" s="109"/>
-      <c r="AK45" s="109"/>
+      <c r="AC45" s="106"/>
+      <c r="AD45" s="106"/>
+      <c r="AE45" s="106"/>
+      <c r="AF45" s="106"/>
+      <c r="AG45" s="106"/>
+      <c r="AH45" s="106"/>
+      <c r="AI45" s="106"/>
+      <c r="AJ45" s="106"/>
+      <c r="AK45" s="106"/>
       <c r="AL45" s="8"/>
       <c r="AM45" s="8"/>
       <c r="AN45" s="8"/>
@@ -11207,7 +11157,7 @@
   <dimension ref="C5:F28"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11230,14 +11180,14 @@
       <c r="E5" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="61" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="22" customHeight="1">
       <c r="C6" s="58">
-        <f>ROW()-2</f>
-        <v>4</v>
+        <f>ROW()-5</f>
+        <v>1</v>
       </c>
       <c r="D6" s="59" t="s">
         <v>57</v>
@@ -11245,14 +11195,14 @@
       <c r="E6" s="47">
         <v>1</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="62" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="22" customHeight="1">
       <c r="C7" s="58">
-        <f t="shared" ref="C7:C9" si="0">ROW()-2</f>
-        <v>5</v>
+        <f t="shared" ref="C7:C9" si="0">ROW()-5</f>
+        <v>2</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>57</v>
@@ -11260,14 +11210,14 @@
       <c r="E7" s="47">
         <v>1</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="62" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="22" customHeight="1">
       <c r="C8" s="58">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>ROW()-5</f>
+        <v>3</v>
       </c>
       <c r="D8" s="59" t="s">
         <v>57</v>
@@ -11275,22 +11225,22 @@
       <c r="E8" s="47">
         <v>1</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="62" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="22" customHeight="1">
-      <c r="C9" s="60">
+      <c r="C9" s="58">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D9" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="60" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="47">
         <v>1</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="63" t="s">
         <v>64</v>
       </c>
     </row>
@@ -11305,47 +11255,47 @@
       </c>
     </row>
     <row r="11" spans="3:6" ht="22" customHeight="1">
-      <c r="C11" s="65">
-        <f t="shared" ref="C11:C13" si="1">ROW()-2</f>
-        <v>9</v>
-      </c>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="58">
+        <f t="shared" ref="C11:C13" si="1">ROW()-5</f>
+        <v>6</v>
+      </c>
+      <c r="D11" s="64" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="47">
         <v>1</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="66" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="22" customHeight="1">
       <c r="C12" s="58">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D12" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="65" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="47">
         <v>1</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="62" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="22" customHeight="1">
-      <c r="C13" s="60">
+      <c r="C13" s="58">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D13" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="60" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="47">
         <v>1</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="63" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11360,32 +11310,32 @@
       </c>
     </row>
     <row r="15" spans="3:6" ht="22" customHeight="1">
-      <c r="C15" s="65">
-        <f t="shared" ref="C15:C16" si="2">ROW()-2</f>
-        <v>13</v>
-      </c>
-      <c r="D15" s="66" t="s">
+      <c r="C15" s="58">
+        <f t="shared" ref="C15:C16" si="2">ROW()-5</f>
+        <v>10</v>
+      </c>
+      <c r="D15" s="64" t="s">
         <v>60</v>
       </c>
       <c r="E15" s="47">
         <v>1</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="66" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="22" customHeight="1">
-      <c r="C16" s="60">
+      <c r="C16" s="58">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="D16" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="67" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="47">
         <v>1</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="63" t="s">
         <v>72</v>
       </c>
     </row>
@@ -11398,77 +11348,77 @@
       <c r="F17" s="52"/>
     </row>
     <row r="18" spans="3:6" ht="22" customHeight="1">
-      <c r="C18" s="65">
-        <f t="shared" ref="C18:C22" si="3">ROW()-2</f>
-        <v>16</v>
-      </c>
-      <c r="D18" s="66" t="s">
+      <c r="C18" s="58">
+        <f t="shared" ref="C18:C22" si="3">ROW()-5</f>
+        <v>13</v>
+      </c>
+      <c r="D18" s="64" t="s">
         <v>71</v>
       </c>
       <c r="E18" s="47">
         <v>1</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="69" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="22" customHeight="1">
       <c r="C19" s="58">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="D19" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="65" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="47">
         <v>1</v>
       </c>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="62" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="22" customHeight="1">
       <c r="C20" s="58">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="D20" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="68" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="47">
         <v>1</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="62" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="22" customHeight="1">
       <c r="C21" s="58">
         <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="D21" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="68" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="47">
         <v>1</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="62" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="22" customHeight="1">
-      <c r="C22" s="60">
+      <c r="C22" s="58">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="D22" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="60" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="47">
         <v>1</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="63" t="s">
         <v>79</v>
       </c>
     </row>
@@ -11503,47 +11453,47 @@
       </c>
     </row>
     <row r="26" spans="3:6" ht="22" customHeight="1">
-      <c r="C26" s="65">
-        <f t="shared" ref="C26:C28" si="4">ROW()-2</f>
-        <v>24</v>
-      </c>
-      <c r="D26" s="72" t="s">
+      <c r="C26" s="58">
+        <f t="shared" ref="C26:C28" si="4">ROW()-5</f>
+        <v>21</v>
+      </c>
+      <c r="D26" s="70" t="s">
         <v>76</v>
       </c>
       <c r="E26" s="47">
         <v>1</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F26" s="66" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="22" customHeight="1">
       <c r="C27" s="58">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="D27" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="71" t="s">
         <v>76</v>
       </c>
       <c r="E27" s="48">
         <v>1</v>
       </c>
-      <c r="F27" s="76" t="s">
+      <c r="F27" s="73" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="19" customHeight="1">
-      <c r="C28" s="74">
+      <c r="C28" s="58">
         <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="D28" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="72" t="s">
         <v>83</v>
       </c>
       <c r="E28" s="49">
         <v>1</v>
       </c>
-      <c r="F28" s="77"/>
+      <c r="F28" s="74"/>
     </row>
   </sheetData>
   <autoFilter ref="C5:F28" xr:uid="{E5A8337A-A120-41E7-82E8-C10BD8998FAC}">

--- a/2021年_テトリス/01_要件定義/テトリス_要件定義書.xlsx
+++ b/2021年_テトリス/01_要件定義/テトリス_要件定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beaming-boy/growth/テトリス/ドキュメント共有フォルダ/2021年_テトリス/01_要件定義/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\growthTeamDocument\2021年_テトリス\01_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB91DBB-5343-674C-A4A0-488BCC50A6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1512335-A6DC-47F7-8DC4-ABB744E9EFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="24330" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="画面一覧" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">画面一覧!$C$5:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">画面一覧!$C$5:$F$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">要件!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ヘッダー!$A$1:$AZ$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">画面一覧!$A$1:$I$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">画面一覧!$A$1:$I$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$BA$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">要件!$A$1:$AQ$72</definedName>
   </definedNames>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>要件定義</t>
   </si>
@@ -298,76 +300,22 @@
     <t>シングルモード</t>
   </si>
   <si>
-    <t>シングルモードに遷移</t>
-  </si>
-  <si>
     <t>ログイン</t>
-  </si>
-  <si>
-    <t>ログイン画面に遷移</t>
   </si>
   <si>
     <t>会員登録</t>
   </si>
   <si>
-    <t>会員登録画面に遷移</t>
-  </si>
-  <si>
-    <t>ニックネーム・ユーザID・パスワード・確認パスワードを用いて登録</t>
-  </si>
-  <si>
-    <t>外部APIを用いてSNSの登録情報を用いて新規登録(Facebook/Google/twitter)&lt;仮&gt;</t>
-  </si>
-  <si>
-    <t>トップ画面に遷移</t>
-  </si>
-  <si>
     <t>会員登録確認</t>
-  </si>
-  <si>
-    <t>新規会員情報入力後に遷移。登録内容の確認( 確定/戻る)</t>
-  </si>
-  <si>
-    <t>ユーザIDとパスワードを用いてログイン</t>
-  </si>
-  <si>
-    <t>外部APIを用いてSNSの登録情報を用いてログイン(Facebook/Google/twitter)&lt;仮&gt;</t>
   </si>
   <si>
     <t>ログイン後メニュー</t>
   </si>
   <si>
-    <t>シングルモード・CPU対戦・スコア確認・マイページ</t>
-  </si>
-  <si>
-    <t>CPU対戦モード</t>
-  </si>
-  <si>
-    <t>スコア確認</t>
-  </si>
-  <si>
-    <t>スコア確認画面に遷移</t>
-  </si>
-  <si>
     <t>マイページ</t>
   </si>
   <si>
-    <t>マイページ画面に遷移</t>
-  </si>
-  <si>
-    <t>スタンダードなテトリス。スコア登録可(会員プレイ)</t>
-  </si>
-  <si>
-    <t>終了時のスコア表示</t>
-  </si>
-  <si>
-    <t>過去のハイスコア・(CPU対戦モード戦)</t>
-  </si>
-  <si>
     <t>ユーザ情報編集(ニックネーム)</t>
-  </si>
-  <si>
-    <t>ログアウト</t>
   </si>
   <si>
     <t>エラー</t>
@@ -400,12 +348,121 @@
     </rPh>
     <phoneticPr fontId="13"/>
   </si>
+  <si>
+    <t>入力項目はニックネーム・ユーザID・パスワード・確認パスワード。確認ボタン押下時に会員登録確認画面へ遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>カイイントウロク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>タイトル及びシングルモード、ログイン、会員登録のメニューを表示する。</t>
+    <rPh sb="4" eb="5">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>修正ボタンで入力画面へ、確定ボタンで登録し、登録完了後トップ画面に遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>ユーザIDとパスワードを用いてログイン（ID/パスワードを忘れた場合については検討）。
+ログイン後にログイン後メニュー画面へ遷移する</t>
+    <rPh sb="29" eb="30">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>スタンダードなテトリス。スコア登録(会員プレイ)、終了時のスコア表示</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>ログアウトの確認ページ（ログアウトしてよいですか？）</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>システムエラーページ</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>シングルモード・スコア確認・マイページ</t>
+    <phoneticPr fontId="13"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -505,56 +562,26 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="HGPｺﾞｼｯｸE"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Meiryoui"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="HGPｺﾞｼｯｸE"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="HGPｺﾞｼｯｸE"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="HGPｺﾞｼｯｸE"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,12 +592,6 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -586,7 +607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -713,62 +734,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -814,17 +779,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -972,19 +926,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -1009,13 +950,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1139,106 +1095,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1313,7 +1179,7 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1331,11 +1197,65 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1384,7 +1304,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3152"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3154"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1443,7 +1363,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2128"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2130"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3362,7 +3282,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>446041</xdr:colOff>
+          <xdr:colOff>341266</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>1236</xdr:rowOff>
         </xdr:to>
@@ -3379,7 +3299,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s6167"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s6169"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3672,195 +3592,195 @@
   <dimension ref="A1:BB30"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="75" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="75" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="75" t="s">
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="75" t="s">
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="75" t="s">
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="75" t="s">
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="77"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="47"/>
       <c r="BB1" s="2"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="87" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="93">
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="63">
         <v>44443</v>
       </c>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="95"/>
-      <c r="AK2" s="87" t="s">
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="93">
-        <v>44551</v>
-      </c>
-      <c r="AQ2" s="94"/>
-      <c r="AR2" s="94"/>
-      <c r="AS2" s="94"/>
-      <c r="AT2" s="95"/>
-      <c r="AU2" s="87" t="s">
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="63">
+        <v>44555</v>
+      </c>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="65"/>
+      <c r="AU2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="88"/>
-      <c r="AY2" s="89"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="59"/>
       <c r="BB2" s="2"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="97"/>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="92"/>
-      <c r="AP3" s="96"/>
-      <c r="AQ3" s="97"/>
-      <c r="AR3" s="97"/>
-      <c r="AS3" s="97"/>
-      <c r="AT3" s="98"/>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="91"/>
-      <c r="AW3" s="91"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="92"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="62"/>
       <c r="BB3" s="2"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -3875,7 +3795,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
     </row>
-    <row r="7" spans="1:54" ht="18">
+    <row r="7" spans="1:54" ht="14.25">
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
@@ -3924,7 +3844,7 @@
       <c r="AY7" s="37"/>
       <c r="AZ7" s="38"/>
     </row>
-    <row r="8" spans="1:54" ht="18">
+    <row r="8" spans="1:54" ht="14.25">
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
@@ -3973,7 +3893,7 @@
       <c r="AY8" s="37"/>
       <c r="AZ8" s="38"/>
     </row>
-    <row r="9" spans="1:54" s="17" customFormat="1" ht="18">
+    <row r="9" spans="1:54" s="17" customFormat="1" ht="14.25">
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
@@ -4022,7 +3942,7 @@
       <c r="AY9" s="37"/>
       <c r="AZ9" s="39"/>
     </row>
-    <row r="10" spans="1:54" ht="23" customHeight="1">
+    <row r="10" spans="1:54" ht="23.1" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -4075,7 +3995,7 @@
       <c r="AX10" s="37"/>
       <c r="AY10" s="37"/>
     </row>
-    <row r="11" spans="1:54" ht="18">
+    <row r="11" spans="1:54" ht="14.25">
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
@@ -4123,7 +4043,7 @@
       <c r="AX11" s="37"/>
       <c r="AY11" s="37"/>
     </row>
-    <row r="12" spans="1:54" ht="18">
+    <row r="12" spans="1:54" ht="14.25">
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
@@ -4171,7 +4091,7 @@
       <c r="AX12" s="37"/>
       <c r="AY12" s="37"/>
     </row>
-    <row r="13" spans="1:54" ht="18">
+    <row r="13" spans="1:54" ht="14.25">
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
@@ -4219,7 +4139,7 @@
       <c r="AX13" s="37"/>
       <c r="AY13" s="37"/>
     </row>
-    <row r="14" spans="1:54" ht="18">
+    <row r="14" spans="1:54" ht="14.25">
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -4267,7 +4187,7 @@
       <c r="AX14" s="37"/>
       <c r="AY14" s="37"/>
     </row>
-    <row r="15" spans="1:54" ht="18">
+    <row r="15" spans="1:54" ht="14.25">
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
@@ -4315,7 +4235,7 @@
       <c r="AX15" s="37"/>
       <c r="AY15" s="37"/>
     </row>
-    <row r="16" spans="1:54" ht="18">
+    <row r="16" spans="1:54" ht="14.25">
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
@@ -4363,7 +4283,7 @@
       <c r="AX16" s="37"/>
       <c r="AY16" s="37"/>
     </row>
-    <row r="17" spans="6:51" ht="18">
+    <row r="17" spans="6:51" ht="14.25">
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
@@ -4411,7 +4331,7 @@
       <c r="AX17" s="37"/>
       <c r="AY17" s="37"/>
     </row>
-    <row r="18" spans="6:51" ht="18">
+    <row r="18" spans="6:51" ht="14.25">
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
@@ -4459,7 +4379,7 @@
       <c r="AX18" s="37"/>
       <c r="AY18" s="37"/>
     </row>
-    <row r="19" spans="6:51" ht="18">
+    <row r="19" spans="6:51" ht="14.25">
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
@@ -4507,7 +4427,7 @@
       <c r="AX19" s="37"/>
       <c r="AY19" s="37"/>
     </row>
-    <row r="20" spans="6:51" ht="18">
+    <row r="20" spans="6:51" ht="14.25">
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
@@ -4555,7 +4475,7 @@
       <c r="AX20" s="37"/>
       <c r="AY20" s="37"/>
     </row>
-    <row r="21" spans="6:51" ht="18">
+    <row r="21" spans="6:51" ht="14.25">
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
@@ -4603,7 +4523,7 @@
       <c r="AX21" s="37"/>
       <c r="AY21" s="37"/>
     </row>
-    <row r="22" spans="6:51" ht="18">
+    <row r="22" spans="6:51" ht="14.25">
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -4651,7 +4571,7 @@
       <c r="AX22" s="37"/>
       <c r="AY22" s="37"/>
     </row>
-    <row r="23" spans="6:51" ht="18">
+    <row r="23" spans="6:51" ht="14.25">
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
@@ -4699,7 +4619,7 @@
       <c r="AX23" s="37"/>
       <c r="AY23" s="37"/>
     </row>
-    <row r="24" spans="6:51" ht="18">
+    <row r="24" spans="6:51" ht="14.25">
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
@@ -4747,7 +4667,7 @@
       <c r="AX24" s="37"/>
       <c r="AY24" s="37"/>
     </row>
-    <row r="25" spans="6:51" ht="18">
+    <row r="25" spans="6:51" ht="14.25">
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
@@ -4795,7 +4715,7 @@
       <c r="AX25" s="37"/>
       <c r="AY25" s="37"/>
     </row>
-    <row r="26" spans="6:51" ht="18">
+    <row r="26" spans="6:51" ht="14.25">
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
@@ -4843,7 +4763,7 @@
       <c r="AX26" s="37"/>
       <c r="AY26" s="37"/>
     </row>
-    <row r="27" spans="6:51" ht="18">
+    <row r="27" spans="6:51" ht="14.25">
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
@@ -4891,7 +4811,7 @@
       <c r="AX27" s="37"/>
       <c r="AY27" s="37"/>
     </row>
-    <row r="28" spans="6:51" ht="18">
+    <row r="28" spans="6:51" ht="14.25">
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
@@ -4939,7 +4859,7 @@
       <c r="AX28" s="37"/>
       <c r="AY28" s="37"/>
     </row>
-    <row r="29" spans="6:51" ht="18">
+    <row r="29" spans="6:51" ht="14.25">
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
@@ -4987,7 +4907,7 @@
       <c r="AX29" s="37"/>
       <c r="AY29" s="37"/>
     </row>
-    <row r="30" spans="6:51" ht="18">
+    <row r="30" spans="6:51" ht="14.25">
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
@@ -5061,25 +4981,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:K10"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="6" width="3.33203125" style="2"/>
-    <col min="7" max="7" width="3.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="3.33203125" style="2"/>
+    <col min="1" max="6" width="3.28515625" style="2"/>
+    <col min="7" max="7" width="3.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="3.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" customFormat="1" ht="15">
+    <row r="1" spans="1:52" customFormat="1" ht="12">
       <c r="A1" s="26"/>
     </row>
-    <row r="2" spans="1:52" customFormat="1" ht="15"/>
-    <row r="3" spans="1:52" customFormat="1" ht="15"/>
-    <row r="4" spans="1:52" customFormat="1" ht="15"/>
-    <row r="5" spans="1:52" customFormat="1" ht="15"/>
-    <row r="7" spans="1:52" ht="18">
+    <row r="2" spans="1:52" customFormat="1" ht="12"/>
+    <row r="3" spans="1:52" customFormat="1" ht="12"/>
+    <row r="4" spans="1:52" customFormat="1" ht="12"/>
+    <row r="5" spans="1:52" customFormat="1" ht="12"/>
+    <row r="7" spans="1:52" ht="14.25">
       <c r="A7" s="27" t="s">
         <v>9</v>
       </c>
@@ -5151,62 +5069,62 @@
         <v>1</v>
       </c>
       <c r="B8" s="31"/>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102">
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72">
         <v>43932</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="105" t="s">
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="100"/>
-      <c r="AE8" s="100"/>
-      <c r="AF8" s="100"/>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="100"/>
-      <c r="AI8" s="100"/>
-      <c r="AJ8" s="100"/>
-      <c r="AK8" s="100"/>
-      <c r="AL8" s="101"/>
-      <c r="AM8" s="105"/>
-      <c r="AN8" s="100"/>
-      <c r="AO8" s="100"/>
-      <c r="AP8" s="100"/>
-      <c r="AQ8" s="100"/>
-      <c r="AR8" s="100"/>
-      <c r="AS8" s="100"/>
-      <c r="AT8" s="100"/>
-      <c r="AU8" s="100"/>
-      <c r="AV8" s="100"/>
-      <c r="AW8" s="100"/>
-      <c r="AX8" s="100"/>
-      <c r="AY8" s="100"/>
-      <c r="AZ8" s="101"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="70"/>
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="70"/>
+      <c r="AP8" s="70"/>
+      <c r="AQ8" s="70"/>
+      <c r="AR8" s="70"/>
+      <c r="AS8" s="70"/>
+      <c r="AT8" s="70"/>
+      <c r="AU8" s="70"/>
+      <c r="AV8" s="70"/>
+      <c r="AW8" s="70"/>
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="71"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="30">
@@ -5214,64 +5132,64 @@
         <v>2</v>
       </c>
       <c r="B9" s="31"/>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="102">
-        <v>44551</v>
-      </c>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="105" t="s">
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72">
+        <v>44555</v>
+      </c>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="105" t="s">
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="100"/>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="100"/>
-      <c r="AA9" s="100"/>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="100"/>
-      <c r="AD9" s="100"/>
-      <c r="AE9" s="100"/>
-      <c r="AF9" s="100"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="100"/>
-      <c r="AJ9" s="100"/>
-      <c r="AK9" s="100"/>
-      <c r="AL9" s="101"/>
-      <c r="AM9" s="105"/>
-      <c r="AN9" s="100"/>
-      <c r="AO9" s="100"/>
-      <c r="AP9" s="100"/>
-      <c r="AQ9" s="100"/>
-      <c r="AR9" s="100"/>
-      <c r="AS9" s="100"/>
-      <c r="AT9" s="100"/>
-      <c r="AU9" s="100"/>
-      <c r="AV9" s="100"/>
-      <c r="AW9" s="100"/>
-      <c r="AX9" s="100"/>
-      <c r="AY9" s="100"/>
-      <c r="AZ9" s="101"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="70"/>
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="69"/>
+      <c r="AN9" s="70"/>
+      <c r="AO9" s="70"/>
+      <c r="AP9" s="70"/>
+      <c r="AQ9" s="70"/>
+      <c r="AR9" s="70"/>
+      <c r="AS9" s="70"/>
+      <c r="AT9" s="70"/>
+      <c r="AU9" s="70"/>
+      <c r="AV9" s="70"/>
+      <c r="AW9" s="70"/>
+      <c r="AX9" s="70"/>
+      <c r="AY9" s="70"/>
+      <c r="AZ9" s="71"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="30" t="str">
@@ -5279,56 +5197,56 @@
         <v/>
       </c>
       <c r="B10" s="31"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="100"/>
-      <c r="Z10" s="100"/>
-      <c r="AA10" s="100"/>
-      <c r="AB10" s="100"/>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="100"/>
-      <c r="AE10" s="100"/>
-      <c r="AF10" s="100"/>
-      <c r="AG10" s="100"/>
-      <c r="AH10" s="100"/>
-      <c r="AI10" s="100"/>
-      <c r="AJ10" s="100"/>
-      <c r="AK10" s="100"/>
-      <c r="AL10" s="101"/>
-      <c r="AM10" s="105"/>
-      <c r="AN10" s="100"/>
-      <c r="AO10" s="100"/>
-      <c r="AP10" s="100"/>
-      <c r="AQ10" s="100"/>
-      <c r="AR10" s="100"/>
-      <c r="AS10" s="100"/>
-      <c r="AT10" s="100"/>
-      <c r="AU10" s="100"/>
-      <c r="AV10" s="100"/>
-      <c r="AW10" s="100"/>
-      <c r="AX10" s="100"/>
-      <c r="AY10" s="100"/>
-      <c r="AZ10" s="101"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70"/>
+      <c r="AJ10" s="70"/>
+      <c r="AK10" s="70"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="70"/>
+      <c r="AO10" s="70"/>
+      <c r="AP10" s="70"/>
+      <c r="AQ10" s="70"/>
+      <c r="AR10" s="70"/>
+      <c r="AS10" s="70"/>
+      <c r="AT10" s="70"/>
+      <c r="AU10" s="70"/>
+      <c r="AV10" s="70"/>
+      <c r="AW10" s="70"/>
+      <c r="AX10" s="70"/>
+      <c r="AY10" s="70"/>
+      <c r="AZ10" s="71"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="30" t="str">
@@ -5336,56 +5254,56 @@
         <v/>
       </c>
       <c r="B11" s="31"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="100"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="100"/>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="100"/>
-      <c r="AB11" s="100"/>
-      <c r="AC11" s="100"/>
-      <c r="AD11" s="100"/>
-      <c r="AE11" s="100"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="100"/>
-      <c r="AI11" s="100"/>
-      <c r="AJ11" s="100"/>
-      <c r="AK11" s="100"/>
-      <c r="AL11" s="101"/>
-      <c r="AM11" s="105"/>
-      <c r="AN11" s="100"/>
-      <c r="AO11" s="100"/>
-      <c r="AP11" s="100"/>
-      <c r="AQ11" s="100"/>
-      <c r="AR11" s="100"/>
-      <c r="AS11" s="100"/>
-      <c r="AT11" s="100"/>
-      <c r="AU11" s="100"/>
-      <c r="AV11" s="100"/>
-      <c r="AW11" s="100"/>
-      <c r="AX11" s="100"/>
-      <c r="AY11" s="100"/>
-      <c r="AZ11" s="101"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="70"/>
+      <c r="AL11" s="71"/>
+      <c r="AM11" s="69"/>
+      <c r="AN11" s="70"/>
+      <c r="AO11" s="70"/>
+      <c r="AP11" s="70"/>
+      <c r="AQ11" s="70"/>
+      <c r="AR11" s="70"/>
+      <c r="AS11" s="70"/>
+      <c r="AT11" s="70"/>
+      <c r="AU11" s="70"/>
+      <c r="AV11" s="70"/>
+      <c r="AW11" s="70"/>
+      <c r="AX11" s="70"/>
+      <c r="AY11" s="70"/>
+      <c r="AZ11" s="71"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="30" t="str">
@@ -5393,56 +5311,56 @@
         <v/>
       </c>
       <c r="B12" s="31"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="100"/>
-      <c r="AA12" s="100"/>
-      <c r="AB12" s="100"/>
-      <c r="AC12" s="100"/>
-      <c r="AD12" s="100"/>
-      <c r="AE12" s="100"/>
-      <c r="AF12" s="100"/>
-      <c r="AG12" s="100"/>
-      <c r="AH12" s="100"/>
-      <c r="AI12" s="100"/>
-      <c r="AJ12" s="100"/>
-      <c r="AK12" s="100"/>
-      <c r="AL12" s="101"/>
-      <c r="AM12" s="105"/>
-      <c r="AN12" s="100"/>
-      <c r="AO12" s="100"/>
-      <c r="AP12" s="100"/>
-      <c r="AQ12" s="100"/>
-      <c r="AR12" s="100"/>
-      <c r="AS12" s="100"/>
-      <c r="AT12" s="100"/>
-      <c r="AU12" s="100"/>
-      <c r="AV12" s="100"/>
-      <c r="AW12" s="100"/>
-      <c r="AX12" s="100"/>
-      <c r="AY12" s="100"/>
-      <c r="AZ12" s="101"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="70"/>
+      <c r="AG12" s="70"/>
+      <c r="AH12" s="70"/>
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="70"/>
+      <c r="AK12" s="70"/>
+      <c r="AL12" s="71"/>
+      <c r="AM12" s="69"/>
+      <c r="AN12" s="70"/>
+      <c r="AO12" s="70"/>
+      <c r="AP12" s="70"/>
+      <c r="AQ12" s="70"/>
+      <c r="AR12" s="70"/>
+      <c r="AS12" s="70"/>
+      <c r="AT12" s="70"/>
+      <c r="AU12" s="70"/>
+      <c r="AV12" s="70"/>
+      <c r="AW12" s="70"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="70"/>
+      <c r="AZ12" s="71"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="30" t="str">
@@ -5450,56 +5368,56 @@
         <v/>
       </c>
       <c r="B13" s="31"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100"/>
-      <c r="U13" s="100"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="100"/>
-      <c r="Z13" s="100"/>
-      <c r="AA13" s="100"/>
-      <c r="AB13" s="100"/>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="100"/>
-      <c r="AE13" s="100"/>
-      <c r="AF13" s="100"/>
-      <c r="AG13" s="100"/>
-      <c r="AH13" s="100"/>
-      <c r="AI13" s="100"/>
-      <c r="AJ13" s="100"/>
-      <c r="AK13" s="100"/>
-      <c r="AL13" s="101"/>
-      <c r="AM13" s="105"/>
-      <c r="AN13" s="100"/>
-      <c r="AO13" s="100"/>
-      <c r="AP13" s="100"/>
-      <c r="AQ13" s="100"/>
-      <c r="AR13" s="100"/>
-      <c r="AS13" s="100"/>
-      <c r="AT13" s="100"/>
-      <c r="AU13" s="100"/>
-      <c r="AV13" s="100"/>
-      <c r="AW13" s="100"/>
-      <c r="AX13" s="100"/>
-      <c r="AY13" s="100"/>
-      <c r="AZ13" s="101"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="71"/>
+      <c r="AM13" s="69"/>
+      <c r="AN13" s="70"/>
+      <c r="AO13" s="70"/>
+      <c r="AP13" s="70"/>
+      <c r="AQ13" s="70"/>
+      <c r="AR13" s="70"/>
+      <c r="AS13" s="70"/>
+      <c r="AT13" s="70"/>
+      <c r="AU13" s="70"/>
+      <c r="AV13" s="70"/>
+      <c r="AW13" s="70"/>
+      <c r="AX13" s="70"/>
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="71"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="30" t="str">
@@ -5507,56 +5425,56 @@
         <v/>
       </c>
       <c r="B14" s="31"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="100"/>
-      <c r="AA14" s="100"/>
-      <c r="AB14" s="100"/>
-      <c r="AC14" s="100"/>
-      <c r="AD14" s="100"/>
-      <c r="AE14" s="100"/>
-      <c r="AF14" s="100"/>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="100"/>
-      <c r="AI14" s="100"/>
-      <c r="AJ14" s="100"/>
-      <c r="AK14" s="100"/>
-      <c r="AL14" s="101"/>
-      <c r="AM14" s="105"/>
-      <c r="AN14" s="100"/>
-      <c r="AO14" s="100"/>
-      <c r="AP14" s="100"/>
-      <c r="AQ14" s="100"/>
-      <c r="AR14" s="100"/>
-      <c r="AS14" s="100"/>
-      <c r="AT14" s="100"/>
-      <c r="AU14" s="100"/>
-      <c r="AV14" s="100"/>
-      <c r="AW14" s="100"/>
-      <c r="AX14" s="100"/>
-      <c r="AY14" s="100"/>
-      <c r="AZ14" s="101"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="70"/>
+      <c r="AG14" s="70"/>
+      <c r="AH14" s="70"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="70"/>
+      <c r="AL14" s="71"/>
+      <c r="AM14" s="69"/>
+      <c r="AN14" s="70"/>
+      <c r="AO14" s="70"/>
+      <c r="AP14" s="70"/>
+      <c r="AQ14" s="70"/>
+      <c r="AR14" s="70"/>
+      <c r="AS14" s="70"/>
+      <c r="AT14" s="70"/>
+      <c r="AU14" s="70"/>
+      <c r="AV14" s="70"/>
+      <c r="AW14" s="70"/>
+      <c r="AX14" s="70"/>
+      <c r="AY14" s="70"/>
+      <c r="AZ14" s="71"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="30" t="str">
@@ -5564,56 +5482,56 @@
         <v/>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="100"/>
-      <c r="U15" s="100"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="100"/>
-      <c r="Y15" s="100"/>
-      <c r="Z15" s="100"/>
-      <c r="AA15" s="100"/>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="100"/>
-      <c r="AD15" s="100"/>
-      <c r="AE15" s="100"/>
-      <c r="AF15" s="100"/>
-      <c r="AG15" s="100"/>
-      <c r="AH15" s="100"/>
-      <c r="AI15" s="100"/>
-      <c r="AJ15" s="100"/>
-      <c r="AK15" s="100"/>
-      <c r="AL15" s="101"/>
-      <c r="AM15" s="105"/>
-      <c r="AN15" s="100"/>
-      <c r="AO15" s="100"/>
-      <c r="AP15" s="100"/>
-      <c r="AQ15" s="100"/>
-      <c r="AR15" s="100"/>
-      <c r="AS15" s="100"/>
-      <c r="AT15" s="100"/>
-      <c r="AU15" s="100"/>
-      <c r="AV15" s="100"/>
-      <c r="AW15" s="100"/>
-      <c r="AX15" s="100"/>
-      <c r="AY15" s="100"/>
-      <c r="AZ15" s="101"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="70"/>
+      <c r="AL15" s="71"/>
+      <c r="AM15" s="69"/>
+      <c r="AN15" s="70"/>
+      <c r="AO15" s="70"/>
+      <c r="AP15" s="70"/>
+      <c r="AQ15" s="70"/>
+      <c r="AR15" s="70"/>
+      <c r="AS15" s="70"/>
+      <c r="AT15" s="70"/>
+      <c r="AU15" s="70"/>
+      <c r="AV15" s="70"/>
+      <c r="AW15" s="70"/>
+      <c r="AX15" s="70"/>
+      <c r="AY15" s="70"/>
+      <c r="AZ15" s="71"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="30" t="str">
@@ -5621,56 +5539,56 @@
         <v/>
       </c>
       <c r="B16" s="31"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="100"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="100"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="100"/>
-      <c r="Z16" s="100"/>
-      <c r="AA16" s="100"/>
-      <c r="AB16" s="100"/>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="100"/>
-      <c r="AE16" s="100"/>
-      <c r="AF16" s="100"/>
-      <c r="AG16" s="100"/>
-      <c r="AH16" s="100"/>
-      <c r="AI16" s="100"/>
-      <c r="AJ16" s="100"/>
-      <c r="AK16" s="100"/>
-      <c r="AL16" s="101"/>
-      <c r="AM16" s="105"/>
-      <c r="AN16" s="100"/>
-      <c r="AO16" s="100"/>
-      <c r="AP16" s="100"/>
-      <c r="AQ16" s="100"/>
-      <c r="AR16" s="100"/>
-      <c r="AS16" s="100"/>
-      <c r="AT16" s="100"/>
-      <c r="AU16" s="100"/>
-      <c r="AV16" s="100"/>
-      <c r="AW16" s="100"/>
-      <c r="AX16" s="100"/>
-      <c r="AY16" s="100"/>
-      <c r="AZ16" s="101"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="70"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="71"/>
+      <c r="AM16" s="69"/>
+      <c r="AN16" s="70"/>
+      <c r="AO16" s="70"/>
+      <c r="AP16" s="70"/>
+      <c r="AQ16" s="70"/>
+      <c r="AR16" s="70"/>
+      <c r="AS16" s="70"/>
+      <c r="AT16" s="70"/>
+      <c r="AU16" s="70"/>
+      <c r="AV16" s="70"/>
+      <c r="AW16" s="70"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="70"/>
+      <c r="AZ16" s="71"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="30" t="str">
@@ -5678,56 +5596,56 @@
         <v/>
       </c>
       <c r="B17" s="31"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="105"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="100"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="100"/>
-      <c r="X17" s="100"/>
-      <c r="Y17" s="100"/>
-      <c r="Z17" s="100"/>
-      <c r="AA17" s="100"/>
-      <c r="AB17" s="100"/>
-      <c r="AC17" s="100"/>
-      <c r="AD17" s="100"/>
-      <c r="AE17" s="100"/>
-      <c r="AF17" s="100"/>
-      <c r="AG17" s="100"/>
-      <c r="AH17" s="100"/>
-      <c r="AI17" s="100"/>
-      <c r="AJ17" s="100"/>
-      <c r="AK17" s="100"/>
-      <c r="AL17" s="101"/>
-      <c r="AM17" s="105"/>
-      <c r="AN17" s="100"/>
-      <c r="AO17" s="100"/>
-      <c r="AP17" s="100"/>
-      <c r="AQ17" s="100"/>
-      <c r="AR17" s="100"/>
-      <c r="AS17" s="100"/>
-      <c r="AT17" s="100"/>
-      <c r="AU17" s="100"/>
-      <c r="AV17" s="100"/>
-      <c r="AW17" s="100"/>
-      <c r="AX17" s="100"/>
-      <c r="AY17" s="100"/>
-      <c r="AZ17" s="101"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="69"/>
+      <c r="AN17" s="70"/>
+      <c r="AO17" s="70"/>
+      <c r="AP17" s="70"/>
+      <c r="AQ17" s="70"/>
+      <c r="AR17" s="70"/>
+      <c r="AS17" s="70"/>
+      <c r="AT17" s="70"/>
+      <c r="AU17" s="70"/>
+      <c r="AV17" s="70"/>
+      <c r="AW17" s="70"/>
+      <c r="AX17" s="70"/>
+      <c r="AY17" s="70"/>
+      <c r="AZ17" s="71"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="30" t="str">
@@ -5735,56 +5653,56 @@
         <v/>
       </c>
       <c r="B18" s="31"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="100"/>
-      <c r="U18" s="100"/>
-      <c r="V18" s="100"/>
-      <c r="W18" s="100"/>
-      <c r="X18" s="100"/>
-      <c r="Y18" s="100"/>
-      <c r="Z18" s="100"/>
-      <c r="AA18" s="100"/>
-      <c r="AB18" s="100"/>
-      <c r="AC18" s="100"/>
-      <c r="AD18" s="100"/>
-      <c r="AE18" s="100"/>
-      <c r="AF18" s="100"/>
-      <c r="AG18" s="100"/>
-      <c r="AH18" s="100"/>
-      <c r="AI18" s="100"/>
-      <c r="AJ18" s="100"/>
-      <c r="AK18" s="100"/>
-      <c r="AL18" s="101"/>
-      <c r="AM18" s="105"/>
-      <c r="AN18" s="100"/>
-      <c r="AO18" s="100"/>
-      <c r="AP18" s="100"/>
-      <c r="AQ18" s="100"/>
-      <c r="AR18" s="100"/>
-      <c r="AS18" s="100"/>
-      <c r="AT18" s="100"/>
-      <c r="AU18" s="100"/>
-      <c r="AV18" s="100"/>
-      <c r="AW18" s="100"/>
-      <c r="AX18" s="100"/>
-      <c r="AY18" s="100"/>
-      <c r="AZ18" s="101"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="70"/>
+      <c r="AG18" s="70"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="70"/>
+      <c r="AK18" s="70"/>
+      <c r="AL18" s="71"/>
+      <c r="AM18" s="69"/>
+      <c r="AN18" s="70"/>
+      <c r="AO18" s="70"/>
+      <c r="AP18" s="70"/>
+      <c r="AQ18" s="70"/>
+      <c r="AR18" s="70"/>
+      <c r="AS18" s="70"/>
+      <c r="AT18" s="70"/>
+      <c r="AU18" s="70"/>
+      <c r="AV18" s="70"/>
+      <c r="AW18" s="70"/>
+      <c r="AX18" s="70"/>
+      <c r="AY18" s="70"/>
+      <c r="AZ18" s="71"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="30" t="str">
@@ -5792,56 +5710,56 @@
         <v/>
       </c>
       <c r="B19" s="31"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="100"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="100"/>
-      <c r="U19" s="100"/>
-      <c r="V19" s="100"/>
-      <c r="W19" s="100"/>
-      <c r="X19" s="100"/>
-      <c r="Y19" s="100"/>
-      <c r="Z19" s="100"/>
-      <c r="AA19" s="100"/>
-      <c r="AB19" s="100"/>
-      <c r="AC19" s="100"/>
-      <c r="AD19" s="100"/>
-      <c r="AE19" s="100"/>
-      <c r="AF19" s="100"/>
-      <c r="AG19" s="100"/>
-      <c r="AH19" s="100"/>
-      <c r="AI19" s="100"/>
-      <c r="AJ19" s="100"/>
-      <c r="AK19" s="100"/>
-      <c r="AL19" s="101"/>
-      <c r="AM19" s="105"/>
-      <c r="AN19" s="100"/>
-      <c r="AO19" s="100"/>
-      <c r="AP19" s="100"/>
-      <c r="AQ19" s="100"/>
-      <c r="AR19" s="100"/>
-      <c r="AS19" s="100"/>
-      <c r="AT19" s="100"/>
-      <c r="AU19" s="100"/>
-      <c r="AV19" s="100"/>
-      <c r="AW19" s="100"/>
-      <c r="AX19" s="100"/>
-      <c r="AY19" s="100"/>
-      <c r="AZ19" s="101"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="70"/>
+      <c r="AJ19" s="70"/>
+      <c r="AK19" s="70"/>
+      <c r="AL19" s="71"/>
+      <c r="AM19" s="69"/>
+      <c r="AN19" s="70"/>
+      <c r="AO19" s="70"/>
+      <c r="AP19" s="70"/>
+      <c r="AQ19" s="70"/>
+      <c r="AR19" s="70"/>
+      <c r="AS19" s="70"/>
+      <c r="AT19" s="70"/>
+      <c r="AU19" s="70"/>
+      <c r="AV19" s="70"/>
+      <c r="AW19" s="70"/>
+      <c r="AX19" s="70"/>
+      <c r="AY19" s="70"/>
+      <c r="AZ19" s="71"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="30" t="str">
@@ -5849,56 +5767,56 @@
         <v/>
       </c>
       <c r="B20" s="31"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="100"/>
-      <c r="Z20" s="100"/>
-      <c r="AA20" s="100"/>
-      <c r="AB20" s="100"/>
-      <c r="AC20" s="100"/>
-      <c r="AD20" s="100"/>
-      <c r="AE20" s="100"/>
-      <c r="AF20" s="100"/>
-      <c r="AG20" s="100"/>
-      <c r="AH20" s="100"/>
-      <c r="AI20" s="100"/>
-      <c r="AJ20" s="100"/>
-      <c r="AK20" s="100"/>
-      <c r="AL20" s="101"/>
-      <c r="AM20" s="105"/>
-      <c r="AN20" s="100"/>
-      <c r="AO20" s="100"/>
-      <c r="AP20" s="100"/>
-      <c r="AQ20" s="100"/>
-      <c r="AR20" s="100"/>
-      <c r="AS20" s="100"/>
-      <c r="AT20" s="100"/>
-      <c r="AU20" s="100"/>
-      <c r="AV20" s="100"/>
-      <c r="AW20" s="100"/>
-      <c r="AX20" s="100"/>
-      <c r="AY20" s="100"/>
-      <c r="AZ20" s="101"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="70"/>
+      <c r="AG20" s="70"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="70"/>
+      <c r="AL20" s="71"/>
+      <c r="AM20" s="69"/>
+      <c r="AN20" s="70"/>
+      <c r="AO20" s="70"/>
+      <c r="AP20" s="70"/>
+      <c r="AQ20" s="70"/>
+      <c r="AR20" s="70"/>
+      <c r="AS20" s="70"/>
+      <c r="AT20" s="70"/>
+      <c r="AU20" s="70"/>
+      <c r="AV20" s="70"/>
+      <c r="AW20" s="70"/>
+      <c r="AX20" s="70"/>
+      <c r="AY20" s="70"/>
+      <c r="AZ20" s="71"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="30" t="str">
@@ -5906,56 +5824,56 @@
         <v/>
       </c>
       <c r="B21" s="31"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="105"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="100"/>
-      <c r="W21" s="100"/>
-      <c r="X21" s="100"/>
-      <c r="Y21" s="100"/>
-      <c r="Z21" s="100"/>
-      <c r="AA21" s="100"/>
-      <c r="AB21" s="100"/>
-      <c r="AC21" s="100"/>
-      <c r="AD21" s="100"/>
-      <c r="AE21" s="100"/>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="100"/>
-      <c r="AH21" s="100"/>
-      <c r="AI21" s="100"/>
-      <c r="AJ21" s="100"/>
-      <c r="AK21" s="100"/>
-      <c r="AL21" s="101"/>
-      <c r="AM21" s="105"/>
-      <c r="AN21" s="100"/>
-      <c r="AO21" s="100"/>
-      <c r="AP21" s="100"/>
-      <c r="AQ21" s="100"/>
-      <c r="AR21" s="100"/>
-      <c r="AS21" s="100"/>
-      <c r="AT21" s="100"/>
-      <c r="AU21" s="100"/>
-      <c r="AV21" s="100"/>
-      <c r="AW21" s="100"/>
-      <c r="AX21" s="100"/>
-      <c r="AY21" s="100"/>
-      <c r="AZ21" s="101"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="71"/>
+      <c r="AM21" s="69"/>
+      <c r="AN21" s="70"/>
+      <c r="AO21" s="70"/>
+      <c r="AP21" s="70"/>
+      <c r="AQ21" s="70"/>
+      <c r="AR21" s="70"/>
+      <c r="AS21" s="70"/>
+      <c r="AT21" s="70"/>
+      <c r="AU21" s="70"/>
+      <c r="AV21" s="70"/>
+      <c r="AW21" s="70"/>
+      <c r="AX21" s="70"/>
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="71"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="30" t="str">
@@ -5963,56 +5881,56 @@
         <v/>
       </c>
       <c r="B22" s="31"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="105"/>
-      <c r="R22" s="100"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="100"/>
-      <c r="U22" s="100"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="100"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="100"/>
-      <c r="Z22" s="100"/>
-      <c r="AA22" s="100"/>
-      <c r="AB22" s="100"/>
-      <c r="AC22" s="100"/>
-      <c r="AD22" s="100"/>
-      <c r="AE22" s="100"/>
-      <c r="AF22" s="100"/>
-      <c r="AG22" s="100"/>
-      <c r="AH22" s="100"/>
-      <c r="AI22" s="100"/>
-      <c r="AJ22" s="100"/>
-      <c r="AK22" s="100"/>
-      <c r="AL22" s="101"/>
-      <c r="AM22" s="105"/>
-      <c r="AN22" s="100"/>
-      <c r="AO22" s="100"/>
-      <c r="AP22" s="100"/>
-      <c r="AQ22" s="100"/>
-      <c r="AR22" s="100"/>
-      <c r="AS22" s="100"/>
-      <c r="AT22" s="100"/>
-      <c r="AU22" s="100"/>
-      <c r="AV22" s="100"/>
-      <c r="AW22" s="100"/>
-      <c r="AX22" s="100"/>
-      <c r="AY22" s="100"/>
-      <c r="AZ22" s="101"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="70"/>
+      <c r="AG22" s="70"/>
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="70"/>
+      <c r="AJ22" s="70"/>
+      <c r="AK22" s="70"/>
+      <c r="AL22" s="71"/>
+      <c r="AM22" s="69"/>
+      <c r="AN22" s="70"/>
+      <c r="AO22" s="70"/>
+      <c r="AP22" s="70"/>
+      <c r="AQ22" s="70"/>
+      <c r="AR22" s="70"/>
+      <c r="AS22" s="70"/>
+      <c r="AT22" s="70"/>
+      <c r="AU22" s="70"/>
+      <c r="AV22" s="70"/>
+      <c r="AW22" s="70"/>
+      <c r="AX22" s="70"/>
+      <c r="AY22" s="70"/>
+      <c r="AZ22" s="71"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="30" t="str">
@@ -6020,56 +5938,56 @@
         <v/>
       </c>
       <c r="B23" s="31"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="100"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="100"/>
-      <c r="X23" s="100"/>
-      <c r="Y23" s="100"/>
-      <c r="Z23" s="100"/>
-      <c r="AA23" s="100"/>
-      <c r="AB23" s="100"/>
-      <c r="AC23" s="100"/>
-      <c r="AD23" s="100"/>
-      <c r="AE23" s="100"/>
-      <c r="AF23" s="100"/>
-      <c r="AG23" s="100"/>
-      <c r="AH23" s="100"/>
-      <c r="AI23" s="100"/>
-      <c r="AJ23" s="100"/>
-      <c r="AK23" s="100"/>
-      <c r="AL23" s="101"/>
-      <c r="AM23" s="105"/>
-      <c r="AN23" s="100"/>
-      <c r="AO23" s="100"/>
-      <c r="AP23" s="100"/>
-      <c r="AQ23" s="100"/>
-      <c r="AR23" s="100"/>
-      <c r="AS23" s="100"/>
-      <c r="AT23" s="100"/>
-      <c r="AU23" s="100"/>
-      <c r="AV23" s="100"/>
-      <c r="AW23" s="100"/>
-      <c r="AX23" s="100"/>
-      <c r="AY23" s="100"/>
-      <c r="AZ23" s="101"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="70"/>
+      <c r="AG23" s="70"/>
+      <c r="AH23" s="70"/>
+      <c r="AI23" s="70"/>
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="70"/>
+      <c r="AL23" s="71"/>
+      <c r="AM23" s="69"/>
+      <c r="AN23" s="70"/>
+      <c r="AO23" s="70"/>
+      <c r="AP23" s="70"/>
+      <c r="AQ23" s="70"/>
+      <c r="AR23" s="70"/>
+      <c r="AS23" s="70"/>
+      <c r="AT23" s="70"/>
+      <c r="AU23" s="70"/>
+      <c r="AV23" s="70"/>
+      <c r="AW23" s="70"/>
+      <c r="AX23" s="70"/>
+      <c r="AY23" s="70"/>
+      <c r="AZ23" s="71"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="30" t="str">
@@ -6077,56 +5995,56 @@
         <v/>
       </c>
       <c r="B24" s="31"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="105"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="100"/>
-      <c r="AC24" s="100"/>
-      <c r="AD24" s="100"/>
-      <c r="AE24" s="100"/>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="100"/>
-      <c r="AH24" s="100"/>
-      <c r="AI24" s="100"/>
-      <c r="AJ24" s="100"/>
-      <c r="AK24" s="100"/>
-      <c r="AL24" s="101"/>
-      <c r="AM24" s="105"/>
-      <c r="AN24" s="100"/>
-      <c r="AO24" s="100"/>
-      <c r="AP24" s="100"/>
-      <c r="AQ24" s="100"/>
-      <c r="AR24" s="100"/>
-      <c r="AS24" s="100"/>
-      <c r="AT24" s="100"/>
-      <c r="AU24" s="100"/>
-      <c r="AV24" s="100"/>
-      <c r="AW24" s="100"/>
-      <c r="AX24" s="100"/>
-      <c r="AY24" s="100"/>
-      <c r="AZ24" s="101"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="70"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="70"/>
+      <c r="AF24" s="70"/>
+      <c r="AG24" s="70"/>
+      <c r="AH24" s="70"/>
+      <c r="AI24" s="70"/>
+      <c r="AJ24" s="70"/>
+      <c r="AK24" s="70"/>
+      <c r="AL24" s="71"/>
+      <c r="AM24" s="69"/>
+      <c r="AN24" s="70"/>
+      <c r="AO24" s="70"/>
+      <c r="AP24" s="70"/>
+      <c r="AQ24" s="70"/>
+      <c r="AR24" s="70"/>
+      <c r="AS24" s="70"/>
+      <c r="AT24" s="70"/>
+      <c r="AU24" s="70"/>
+      <c r="AV24" s="70"/>
+      <c r="AW24" s="70"/>
+      <c r="AX24" s="70"/>
+      <c r="AY24" s="70"/>
+      <c r="AZ24" s="71"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="30" t="str">
@@ -6134,56 +6052,56 @@
         <v/>
       </c>
       <c r="B25" s="31"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="100"/>
-      <c r="U25" s="100"/>
-      <c r="V25" s="100"/>
-      <c r="W25" s="100"/>
-      <c r="X25" s="100"/>
-      <c r="Y25" s="100"/>
-      <c r="Z25" s="100"/>
-      <c r="AA25" s="100"/>
-      <c r="AB25" s="100"/>
-      <c r="AC25" s="100"/>
-      <c r="AD25" s="100"/>
-      <c r="AE25" s="100"/>
-      <c r="AF25" s="100"/>
-      <c r="AG25" s="100"/>
-      <c r="AH25" s="100"/>
-      <c r="AI25" s="100"/>
-      <c r="AJ25" s="100"/>
-      <c r="AK25" s="100"/>
-      <c r="AL25" s="101"/>
-      <c r="AM25" s="105"/>
-      <c r="AN25" s="100"/>
-      <c r="AO25" s="100"/>
-      <c r="AP25" s="100"/>
-      <c r="AQ25" s="100"/>
-      <c r="AR25" s="100"/>
-      <c r="AS25" s="100"/>
-      <c r="AT25" s="100"/>
-      <c r="AU25" s="100"/>
-      <c r="AV25" s="100"/>
-      <c r="AW25" s="100"/>
-      <c r="AX25" s="100"/>
-      <c r="AY25" s="100"/>
-      <c r="AZ25" s="101"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="70"/>
+      <c r="AA25" s="70"/>
+      <c r="AB25" s="70"/>
+      <c r="AC25" s="70"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="70"/>
+      <c r="AF25" s="70"/>
+      <c r="AG25" s="70"/>
+      <c r="AH25" s="70"/>
+      <c r="AI25" s="70"/>
+      <c r="AJ25" s="70"/>
+      <c r="AK25" s="70"/>
+      <c r="AL25" s="71"/>
+      <c r="AM25" s="69"/>
+      <c r="AN25" s="70"/>
+      <c r="AO25" s="70"/>
+      <c r="AP25" s="70"/>
+      <c r="AQ25" s="70"/>
+      <c r="AR25" s="70"/>
+      <c r="AS25" s="70"/>
+      <c r="AT25" s="70"/>
+      <c r="AU25" s="70"/>
+      <c r="AV25" s="70"/>
+      <c r="AW25" s="70"/>
+      <c r="AX25" s="70"/>
+      <c r="AY25" s="70"/>
+      <c r="AZ25" s="71"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="30" t="str">
@@ -6191,56 +6109,56 @@
         <v/>
       </c>
       <c r="B26" s="31"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="100"/>
-      <c r="V26" s="100"/>
-      <c r="W26" s="100"/>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="100"/>
-      <c r="Z26" s="100"/>
-      <c r="AA26" s="100"/>
-      <c r="AB26" s="100"/>
-      <c r="AC26" s="100"/>
-      <c r="AD26" s="100"/>
-      <c r="AE26" s="100"/>
-      <c r="AF26" s="100"/>
-      <c r="AG26" s="100"/>
-      <c r="AH26" s="100"/>
-      <c r="AI26" s="100"/>
-      <c r="AJ26" s="100"/>
-      <c r="AK26" s="100"/>
-      <c r="AL26" s="101"/>
-      <c r="AM26" s="105"/>
-      <c r="AN26" s="100"/>
-      <c r="AO26" s="100"/>
-      <c r="AP26" s="100"/>
-      <c r="AQ26" s="100"/>
-      <c r="AR26" s="100"/>
-      <c r="AS26" s="100"/>
-      <c r="AT26" s="100"/>
-      <c r="AU26" s="100"/>
-      <c r="AV26" s="100"/>
-      <c r="AW26" s="100"/>
-      <c r="AX26" s="100"/>
-      <c r="AY26" s="100"/>
-      <c r="AZ26" s="101"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="70"/>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="70"/>
+      <c r="AD26" s="70"/>
+      <c r="AE26" s="70"/>
+      <c r="AF26" s="70"/>
+      <c r="AG26" s="70"/>
+      <c r="AH26" s="70"/>
+      <c r="AI26" s="70"/>
+      <c r="AJ26" s="70"/>
+      <c r="AK26" s="70"/>
+      <c r="AL26" s="71"/>
+      <c r="AM26" s="69"/>
+      <c r="AN26" s="70"/>
+      <c r="AO26" s="70"/>
+      <c r="AP26" s="70"/>
+      <c r="AQ26" s="70"/>
+      <c r="AR26" s="70"/>
+      <c r="AS26" s="70"/>
+      <c r="AT26" s="70"/>
+      <c r="AU26" s="70"/>
+      <c r="AV26" s="70"/>
+      <c r="AW26" s="70"/>
+      <c r="AX26" s="70"/>
+      <c r="AY26" s="70"/>
+      <c r="AZ26" s="71"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="30" t="str">
@@ -6248,56 +6166,56 @@
         <v/>
       </c>
       <c r="B27" s="31"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="105"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="100"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="100"/>
-      <c r="Y27" s="100"/>
-      <c r="Z27" s="100"/>
-      <c r="AA27" s="100"/>
-      <c r="AB27" s="100"/>
-      <c r="AC27" s="100"/>
-      <c r="AD27" s="100"/>
-      <c r="AE27" s="100"/>
-      <c r="AF27" s="100"/>
-      <c r="AG27" s="100"/>
-      <c r="AH27" s="100"/>
-      <c r="AI27" s="100"/>
-      <c r="AJ27" s="100"/>
-      <c r="AK27" s="100"/>
-      <c r="AL27" s="101"/>
-      <c r="AM27" s="105"/>
-      <c r="AN27" s="100"/>
-      <c r="AO27" s="100"/>
-      <c r="AP27" s="100"/>
-      <c r="AQ27" s="100"/>
-      <c r="AR27" s="100"/>
-      <c r="AS27" s="100"/>
-      <c r="AT27" s="100"/>
-      <c r="AU27" s="100"/>
-      <c r="AV27" s="100"/>
-      <c r="AW27" s="100"/>
-      <c r="AX27" s="100"/>
-      <c r="AY27" s="100"/>
-      <c r="AZ27" s="101"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="70"/>
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="70"/>
+      <c r="AF27" s="70"/>
+      <c r="AG27" s="70"/>
+      <c r="AH27" s="70"/>
+      <c r="AI27" s="70"/>
+      <c r="AJ27" s="70"/>
+      <c r="AK27" s="70"/>
+      <c r="AL27" s="71"/>
+      <c r="AM27" s="69"/>
+      <c r="AN27" s="70"/>
+      <c r="AO27" s="70"/>
+      <c r="AP27" s="70"/>
+      <c r="AQ27" s="70"/>
+      <c r="AR27" s="70"/>
+      <c r="AS27" s="70"/>
+      <c r="AT27" s="70"/>
+      <c r="AU27" s="70"/>
+      <c r="AV27" s="70"/>
+      <c r="AW27" s="70"/>
+      <c r="AX27" s="70"/>
+      <c r="AY27" s="70"/>
+      <c r="AZ27" s="71"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="30" t="str">
@@ -6305,56 +6223,56 @@
         <v/>
       </c>
       <c r="B28" s="31"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="100"/>
-      <c r="V28" s="100"/>
-      <c r="W28" s="100"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="100"/>
-      <c r="AA28" s="100"/>
-      <c r="AB28" s="100"/>
-      <c r="AC28" s="100"/>
-      <c r="AD28" s="100"/>
-      <c r="AE28" s="100"/>
-      <c r="AF28" s="100"/>
-      <c r="AG28" s="100"/>
-      <c r="AH28" s="100"/>
-      <c r="AI28" s="100"/>
-      <c r="AJ28" s="100"/>
-      <c r="AK28" s="100"/>
-      <c r="AL28" s="101"/>
-      <c r="AM28" s="105"/>
-      <c r="AN28" s="100"/>
-      <c r="AO28" s="100"/>
-      <c r="AP28" s="100"/>
-      <c r="AQ28" s="100"/>
-      <c r="AR28" s="100"/>
-      <c r="AS28" s="100"/>
-      <c r="AT28" s="100"/>
-      <c r="AU28" s="100"/>
-      <c r="AV28" s="100"/>
-      <c r="AW28" s="100"/>
-      <c r="AX28" s="100"/>
-      <c r="AY28" s="100"/>
-      <c r="AZ28" s="101"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="70"/>
+      <c r="AD28" s="70"/>
+      <c r="AE28" s="70"/>
+      <c r="AF28" s="70"/>
+      <c r="AG28" s="70"/>
+      <c r="AH28" s="70"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="70"/>
+      <c r="AK28" s="70"/>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="69"/>
+      <c r="AN28" s="70"/>
+      <c r="AO28" s="70"/>
+      <c r="AP28" s="70"/>
+      <c r="AQ28" s="70"/>
+      <c r="AR28" s="70"/>
+      <c r="AS28" s="70"/>
+      <c r="AT28" s="70"/>
+      <c r="AU28" s="70"/>
+      <c r="AV28" s="70"/>
+      <c r="AW28" s="70"/>
+      <c r="AX28" s="70"/>
+      <c r="AY28" s="70"/>
+      <c r="AZ28" s="71"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="30" t="str">
@@ -6362,56 +6280,56 @@
         <v/>
       </c>
       <c r="B29" s="31"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="100"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="100"/>
-      <c r="X29" s="100"/>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="100"/>
-      <c r="AA29" s="100"/>
-      <c r="AB29" s="100"/>
-      <c r="AC29" s="100"/>
-      <c r="AD29" s="100"/>
-      <c r="AE29" s="100"/>
-      <c r="AF29" s="100"/>
-      <c r="AG29" s="100"/>
-      <c r="AH29" s="100"/>
-      <c r="AI29" s="100"/>
-      <c r="AJ29" s="100"/>
-      <c r="AK29" s="100"/>
-      <c r="AL29" s="101"/>
-      <c r="AM29" s="105"/>
-      <c r="AN29" s="100"/>
-      <c r="AO29" s="100"/>
-      <c r="AP29" s="100"/>
-      <c r="AQ29" s="100"/>
-      <c r="AR29" s="100"/>
-      <c r="AS29" s="100"/>
-      <c r="AT29" s="100"/>
-      <c r="AU29" s="100"/>
-      <c r="AV29" s="100"/>
-      <c r="AW29" s="100"/>
-      <c r="AX29" s="100"/>
-      <c r="AY29" s="100"/>
-      <c r="AZ29" s="101"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="70"/>
+      <c r="AD29" s="70"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="70"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="70"/>
+      <c r="AJ29" s="70"/>
+      <c r="AK29" s="70"/>
+      <c r="AL29" s="71"/>
+      <c r="AM29" s="69"/>
+      <c r="AN29" s="70"/>
+      <c r="AO29" s="70"/>
+      <c r="AP29" s="70"/>
+      <c r="AQ29" s="70"/>
+      <c r="AR29" s="70"/>
+      <c r="AS29" s="70"/>
+      <c r="AT29" s="70"/>
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="70"/>
+      <c r="AW29" s="70"/>
+      <c r="AX29" s="70"/>
+      <c r="AY29" s="70"/>
+      <c r="AZ29" s="71"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="30" t="str">
@@ -6419,56 +6337,56 @@
         <v/>
       </c>
       <c r="B30" s="31"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="105"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="100"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="100"/>
-      <c r="V30" s="100"/>
-      <c r="W30" s="100"/>
-      <c r="X30" s="100"/>
-      <c r="Y30" s="100"/>
-      <c r="Z30" s="100"/>
-      <c r="AA30" s="100"/>
-      <c r="AB30" s="100"/>
-      <c r="AC30" s="100"/>
-      <c r="AD30" s="100"/>
-      <c r="AE30" s="100"/>
-      <c r="AF30" s="100"/>
-      <c r="AG30" s="100"/>
-      <c r="AH30" s="100"/>
-      <c r="AI30" s="100"/>
-      <c r="AJ30" s="100"/>
-      <c r="AK30" s="100"/>
-      <c r="AL30" s="101"/>
-      <c r="AM30" s="105"/>
-      <c r="AN30" s="100"/>
-      <c r="AO30" s="100"/>
-      <c r="AP30" s="100"/>
-      <c r="AQ30" s="100"/>
-      <c r="AR30" s="100"/>
-      <c r="AS30" s="100"/>
-      <c r="AT30" s="100"/>
-      <c r="AU30" s="100"/>
-      <c r="AV30" s="100"/>
-      <c r="AW30" s="100"/>
-      <c r="AX30" s="100"/>
-      <c r="AY30" s="100"/>
-      <c r="AZ30" s="101"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="70"/>
+      <c r="AD30" s="70"/>
+      <c r="AE30" s="70"/>
+      <c r="AF30" s="70"/>
+      <c r="AG30" s="70"/>
+      <c r="AH30" s="70"/>
+      <c r="AI30" s="70"/>
+      <c r="AJ30" s="70"/>
+      <c r="AK30" s="70"/>
+      <c r="AL30" s="71"/>
+      <c r="AM30" s="69"/>
+      <c r="AN30" s="70"/>
+      <c r="AO30" s="70"/>
+      <c r="AP30" s="70"/>
+      <c r="AQ30" s="70"/>
+      <c r="AR30" s="70"/>
+      <c r="AS30" s="70"/>
+      <c r="AT30" s="70"/>
+      <c r="AU30" s="70"/>
+      <c r="AV30" s="70"/>
+      <c r="AW30" s="70"/>
+      <c r="AX30" s="70"/>
+      <c r="AY30" s="70"/>
+      <c r="AZ30" s="71"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="30" t="str">
@@ -6476,56 +6394,56 @@
         <v/>
       </c>
       <c r="B31" s="31"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="105"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="100"/>
-      <c r="X31" s="100"/>
-      <c r="Y31" s="100"/>
-      <c r="Z31" s="100"/>
-      <c r="AA31" s="100"/>
-      <c r="AB31" s="100"/>
-      <c r="AC31" s="100"/>
-      <c r="AD31" s="100"/>
-      <c r="AE31" s="100"/>
-      <c r="AF31" s="100"/>
-      <c r="AG31" s="100"/>
-      <c r="AH31" s="100"/>
-      <c r="AI31" s="100"/>
-      <c r="AJ31" s="100"/>
-      <c r="AK31" s="100"/>
-      <c r="AL31" s="101"/>
-      <c r="AM31" s="105"/>
-      <c r="AN31" s="100"/>
-      <c r="AO31" s="100"/>
-      <c r="AP31" s="100"/>
-      <c r="AQ31" s="100"/>
-      <c r="AR31" s="100"/>
-      <c r="AS31" s="100"/>
-      <c r="AT31" s="100"/>
-      <c r="AU31" s="100"/>
-      <c r="AV31" s="100"/>
-      <c r="AW31" s="100"/>
-      <c r="AX31" s="100"/>
-      <c r="AY31" s="100"/>
-      <c r="AZ31" s="101"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="70"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="70"/>
+      <c r="Z31" s="70"/>
+      <c r="AA31" s="70"/>
+      <c r="AB31" s="70"/>
+      <c r="AC31" s="70"/>
+      <c r="AD31" s="70"/>
+      <c r="AE31" s="70"/>
+      <c r="AF31" s="70"/>
+      <c r="AG31" s="70"/>
+      <c r="AH31" s="70"/>
+      <c r="AI31" s="70"/>
+      <c r="AJ31" s="70"/>
+      <c r="AK31" s="70"/>
+      <c r="AL31" s="71"/>
+      <c r="AM31" s="69"/>
+      <c r="AN31" s="70"/>
+      <c r="AO31" s="70"/>
+      <c r="AP31" s="70"/>
+      <c r="AQ31" s="70"/>
+      <c r="AR31" s="70"/>
+      <c r="AS31" s="70"/>
+      <c r="AT31" s="70"/>
+      <c r="AU31" s="70"/>
+      <c r="AV31" s="70"/>
+      <c r="AW31" s="70"/>
+      <c r="AX31" s="70"/>
+      <c r="AY31" s="70"/>
+      <c r="AZ31" s="71"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="30" t="str">
@@ -6533,56 +6451,56 @@
         <v/>
       </c>
       <c r="B32" s="31"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="100"/>
-      <c r="V32" s="100"/>
-      <c r="W32" s="100"/>
-      <c r="X32" s="100"/>
-      <c r="Y32" s="100"/>
-      <c r="Z32" s="100"/>
-      <c r="AA32" s="100"/>
-      <c r="AB32" s="100"/>
-      <c r="AC32" s="100"/>
-      <c r="AD32" s="100"/>
-      <c r="AE32" s="100"/>
-      <c r="AF32" s="100"/>
-      <c r="AG32" s="100"/>
-      <c r="AH32" s="100"/>
-      <c r="AI32" s="100"/>
-      <c r="AJ32" s="100"/>
-      <c r="AK32" s="100"/>
-      <c r="AL32" s="101"/>
-      <c r="AM32" s="105"/>
-      <c r="AN32" s="100"/>
-      <c r="AO32" s="100"/>
-      <c r="AP32" s="100"/>
-      <c r="AQ32" s="100"/>
-      <c r="AR32" s="100"/>
-      <c r="AS32" s="100"/>
-      <c r="AT32" s="100"/>
-      <c r="AU32" s="100"/>
-      <c r="AV32" s="100"/>
-      <c r="AW32" s="100"/>
-      <c r="AX32" s="100"/>
-      <c r="AY32" s="100"/>
-      <c r="AZ32" s="101"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="70"/>
+      <c r="X32" s="70"/>
+      <c r="Y32" s="70"/>
+      <c r="Z32" s="70"/>
+      <c r="AA32" s="70"/>
+      <c r="AB32" s="70"/>
+      <c r="AC32" s="70"/>
+      <c r="AD32" s="70"/>
+      <c r="AE32" s="70"/>
+      <c r="AF32" s="70"/>
+      <c r="AG32" s="70"/>
+      <c r="AH32" s="70"/>
+      <c r="AI32" s="70"/>
+      <c r="AJ32" s="70"/>
+      <c r="AK32" s="70"/>
+      <c r="AL32" s="71"/>
+      <c r="AM32" s="69"/>
+      <c r="AN32" s="70"/>
+      <c r="AO32" s="70"/>
+      <c r="AP32" s="70"/>
+      <c r="AQ32" s="70"/>
+      <c r="AR32" s="70"/>
+      <c r="AS32" s="70"/>
+      <c r="AT32" s="70"/>
+      <c r="AU32" s="70"/>
+      <c r="AV32" s="70"/>
+      <c r="AW32" s="70"/>
+      <c r="AX32" s="70"/>
+      <c r="AY32" s="70"/>
+      <c r="AZ32" s="71"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="30" t="str">
@@ -6590,56 +6508,56 @@
         <v/>
       </c>
       <c r="B33" s="31"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="105"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="100"/>
-      <c r="T33" s="100"/>
-      <c r="U33" s="100"/>
-      <c r="V33" s="100"/>
-      <c r="W33" s="100"/>
-      <c r="X33" s="100"/>
-      <c r="Y33" s="100"/>
-      <c r="Z33" s="100"/>
-      <c r="AA33" s="100"/>
-      <c r="AB33" s="100"/>
-      <c r="AC33" s="100"/>
-      <c r="AD33" s="100"/>
-      <c r="AE33" s="100"/>
-      <c r="AF33" s="100"/>
-      <c r="AG33" s="100"/>
-      <c r="AH33" s="100"/>
-      <c r="AI33" s="100"/>
-      <c r="AJ33" s="100"/>
-      <c r="AK33" s="100"/>
-      <c r="AL33" s="101"/>
-      <c r="AM33" s="105"/>
-      <c r="AN33" s="100"/>
-      <c r="AO33" s="100"/>
-      <c r="AP33" s="100"/>
-      <c r="AQ33" s="100"/>
-      <c r="AR33" s="100"/>
-      <c r="AS33" s="100"/>
-      <c r="AT33" s="100"/>
-      <c r="AU33" s="100"/>
-      <c r="AV33" s="100"/>
-      <c r="AW33" s="100"/>
-      <c r="AX33" s="100"/>
-      <c r="AY33" s="100"/>
-      <c r="AZ33" s="101"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="70"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="70"/>
+      <c r="AD33" s="70"/>
+      <c r="AE33" s="70"/>
+      <c r="AF33" s="70"/>
+      <c r="AG33" s="70"/>
+      <c r="AH33" s="70"/>
+      <c r="AI33" s="70"/>
+      <c r="AJ33" s="70"/>
+      <c r="AK33" s="70"/>
+      <c r="AL33" s="71"/>
+      <c r="AM33" s="69"/>
+      <c r="AN33" s="70"/>
+      <c r="AO33" s="70"/>
+      <c r="AP33" s="70"/>
+      <c r="AQ33" s="70"/>
+      <c r="AR33" s="70"/>
+      <c r="AS33" s="70"/>
+      <c r="AT33" s="70"/>
+      <c r="AU33" s="70"/>
+      <c r="AV33" s="70"/>
+      <c r="AW33" s="70"/>
+      <c r="AX33" s="70"/>
+      <c r="AY33" s="70"/>
+      <c r="AZ33" s="71"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="30" t="str">
@@ -6647,56 +6565,56 @@
         <v/>
       </c>
       <c r="B34" s="31"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
-      <c r="O34" s="100"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="100"/>
-      <c r="S34" s="100"/>
-      <c r="T34" s="100"/>
-      <c r="U34" s="100"/>
-      <c r="V34" s="100"/>
-      <c r="W34" s="100"/>
-      <c r="X34" s="100"/>
-      <c r="Y34" s="100"/>
-      <c r="Z34" s="100"/>
-      <c r="AA34" s="100"/>
-      <c r="AB34" s="100"/>
-      <c r="AC34" s="100"/>
-      <c r="AD34" s="100"/>
-      <c r="AE34" s="100"/>
-      <c r="AF34" s="100"/>
-      <c r="AG34" s="100"/>
-      <c r="AH34" s="100"/>
-      <c r="AI34" s="100"/>
-      <c r="AJ34" s="100"/>
-      <c r="AK34" s="100"/>
-      <c r="AL34" s="101"/>
-      <c r="AM34" s="105"/>
-      <c r="AN34" s="100"/>
-      <c r="AO34" s="100"/>
-      <c r="AP34" s="100"/>
-      <c r="AQ34" s="100"/>
-      <c r="AR34" s="100"/>
-      <c r="AS34" s="100"/>
-      <c r="AT34" s="100"/>
-      <c r="AU34" s="100"/>
-      <c r="AV34" s="100"/>
-      <c r="AW34" s="100"/>
-      <c r="AX34" s="100"/>
-      <c r="AY34" s="100"/>
-      <c r="AZ34" s="101"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="69"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="70"/>
+      <c r="X34" s="70"/>
+      <c r="Y34" s="70"/>
+      <c r="Z34" s="70"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="70"/>
+      <c r="AC34" s="70"/>
+      <c r="AD34" s="70"/>
+      <c r="AE34" s="70"/>
+      <c r="AF34" s="70"/>
+      <c r="AG34" s="70"/>
+      <c r="AH34" s="70"/>
+      <c r="AI34" s="70"/>
+      <c r="AJ34" s="70"/>
+      <c r="AK34" s="70"/>
+      <c r="AL34" s="71"/>
+      <c r="AM34" s="69"/>
+      <c r="AN34" s="70"/>
+      <c r="AO34" s="70"/>
+      <c r="AP34" s="70"/>
+      <c r="AQ34" s="70"/>
+      <c r="AR34" s="70"/>
+      <c r="AS34" s="70"/>
+      <c r="AT34" s="70"/>
+      <c r="AU34" s="70"/>
+      <c r="AV34" s="70"/>
+      <c r="AW34" s="70"/>
+      <c r="AX34" s="70"/>
+      <c r="AY34" s="70"/>
+      <c r="AZ34" s="71"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="30" t="str">
@@ -6704,59 +6622,189 @@
         <v/>
       </c>
       <c r="B35" s="31"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="100"/>
-      <c r="S35" s="100"/>
-      <c r="T35" s="100"/>
-      <c r="U35" s="100"/>
-      <c r="V35" s="100"/>
-      <c r="W35" s="100"/>
-      <c r="X35" s="100"/>
-      <c r="Y35" s="100"/>
-      <c r="Z35" s="100"/>
-      <c r="AA35" s="100"/>
-      <c r="AB35" s="100"/>
-      <c r="AC35" s="100"/>
-      <c r="AD35" s="100"/>
-      <c r="AE35" s="100"/>
-      <c r="AF35" s="100"/>
-      <c r="AG35" s="100"/>
-      <c r="AH35" s="100"/>
-      <c r="AI35" s="100"/>
-      <c r="AJ35" s="100"/>
-      <c r="AK35" s="100"/>
-      <c r="AL35" s="101"/>
-      <c r="AM35" s="105"/>
-      <c r="AN35" s="100"/>
-      <c r="AO35" s="100"/>
-      <c r="AP35" s="100"/>
-      <c r="AQ35" s="100"/>
-      <c r="AR35" s="100"/>
-      <c r="AS35" s="100"/>
-      <c r="AT35" s="100"/>
-      <c r="AU35" s="100"/>
-      <c r="AV35" s="100"/>
-      <c r="AW35" s="100"/>
-      <c r="AX35" s="100"/>
-      <c r="AY35" s="100"/>
-      <c r="AZ35" s="101"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="70"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="70"/>
+      <c r="U35" s="70"/>
+      <c r="V35" s="70"/>
+      <c r="W35" s="70"/>
+      <c r="X35" s="70"/>
+      <c r="Y35" s="70"/>
+      <c r="Z35" s="70"/>
+      <c r="AA35" s="70"/>
+      <c r="AB35" s="70"/>
+      <c r="AC35" s="70"/>
+      <c r="AD35" s="70"/>
+      <c r="AE35" s="70"/>
+      <c r="AF35" s="70"/>
+      <c r="AG35" s="70"/>
+      <c r="AH35" s="70"/>
+      <c r="AI35" s="70"/>
+      <c r="AJ35" s="70"/>
+      <c r="AK35" s="70"/>
+      <c r="AL35" s="71"/>
+      <c r="AM35" s="69"/>
+      <c r="AN35" s="70"/>
+      <c r="AO35" s="70"/>
+      <c r="AP35" s="70"/>
+      <c r="AQ35" s="70"/>
+      <c r="AR35" s="70"/>
+      <c r="AS35" s="70"/>
+      <c r="AT35" s="70"/>
+      <c r="AU35" s="70"/>
+      <c r="AV35" s="70"/>
+      <c r="AW35" s="70"/>
+      <c r="AX35" s="70"/>
+      <c r="AY35" s="70"/>
+      <c r="AZ35" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:AL8"/>
+    <mergeCell ref="AM8:AZ8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:AL9"/>
+    <mergeCell ref="AM9:AZ9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="L34:P34"/>
@@ -6767,136 +6815,6 @@
     <mergeCell ref="L35:P35"/>
     <mergeCell ref="Q35:AL35"/>
     <mergeCell ref="AM35:AZ35"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="Q8:AL8"/>
-    <mergeCell ref="AM8:AZ8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q9:AL9"/>
-    <mergeCell ref="AM9:AZ9"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6911,19 +6829,19 @@
   <dimension ref="A1:AQ100"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="102" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2"/>
-    <col min="2" max="2" width="8.5" style="2"/>
-    <col min="3" max="34" width="3.33203125" style="2"/>
-    <col min="35" max="35" width="3.33203125" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="3.33203125" style="2"/>
+    <col min="1" max="1" width="3.28515625" style="2"/>
+    <col min="2" max="2" width="8.42578125" style="2"/>
+    <col min="3" max="34" width="3.28515625" style="2"/>
+    <col min="35" max="35" width="3.28515625" style="2" customWidth="1"/>
+    <col min="36" max="16384" width="3.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" customFormat="1" ht="15">
+    <row r="1" spans="1:43" customFormat="1" ht="12">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -6968,7 +6886,7 @@
       <c r="AP1" s="4"/>
       <c r="AQ1" s="4"/>
     </row>
-    <row r="2" spans="1:43" customFormat="1" ht="15">
+    <row r="2" spans="1:43" customFormat="1" ht="12">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -7013,7 +6931,7 @@
       <c r="AP2" s="6"/>
       <c r="AQ2" s="6"/>
     </row>
-    <row r="3" spans="1:43" customFormat="1" ht="15">
+    <row r="3" spans="1:43" customFormat="1" ht="12">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7058,7 +6976,7 @@
       <c r="AP3" s="6"/>
       <c r="AQ3" s="6"/>
     </row>
-    <row r="4" spans="1:43" customFormat="1" ht="15">
+    <row r="4" spans="1:43" customFormat="1" ht="12">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7103,7 +7021,7 @@
       <c r="AP4" s="6"/>
       <c r="AQ4" s="6"/>
     </row>
-    <row r="5" spans="1:43" customFormat="1" ht="15">
+    <row r="5" spans="1:43" customFormat="1" ht="12">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -8319,7 +8237,7 @@
     </row>
     <row r="31" spans="1:43">
       <c r="A31" s="7" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -8925,47 +8843,47 @@
     <row r="44" spans="1:43">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="106" t="s">
+      <c r="C44" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="106"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="106" t="s">
+      <c r="P44" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="Q44" s="106"/>
-      <c r="R44" s="106"/>
-      <c r="S44" s="106"/>
-      <c r="T44" s="106"/>
-      <c r="U44" s="106"/>
-      <c r="V44" s="106"/>
-      <c r="W44" s="106"/>
-      <c r="X44" s="106"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
+      <c r="V44" s="76"/>
+      <c r="W44" s="76"/>
+      <c r="X44" s="76"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
-      <c r="AC44" s="106" t="s">
+      <c r="AC44" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AD44" s="106"/>
-      <c r="AE44" s="106"/>
-      <c r="AF44" s="106"/>
-      <c r="AG44" s="106"/>
-      <c r="AH44" s="106"/>
-      <c r="AI44" s="106"/>
-      <c r="AJ44" s="106"/>
-      <c r="AK44" s="106"/>
+      <c r="AD44" s="76"/>
+      <c r="AE44" s="76"/>
+      <c r="AF44" s="76"/>
+      <c r="AG44" s="76"/>
+      <c r="AH44" s="76"/>
+      <c r="AI44" s="76"/>
+      <c r="AJ44" s="76"/>
+      <c r="AK44" s="76"/>
       <c r="AL44" s="8"/>
       <c r="AM44" s="8"/>
       <c r="AN44" s="8"/>
@@ -8976,41 +8894,41 @@
     <row r="45" spans="1:43">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="106"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="106"/>
-      <c r="Q45" s="106"/>
-      <c r="R45" s="106"/>
-      <c r="S45" s="106"/>
-      <c r="T45" s="106"/>
-      <c r="U45" s="106"/>
-      <c r="V45" s="106"/>
-      <c r="W45" s="106"/>
-      <c r="X45" s="106"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="76"/>
+      <c r="U45" s="76"/>
+      <c r="V45" s="76"/>
+      <c r="W45" s="76"/>
+      <c r="X45" s="76"/>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
-      <c r="AC45" s="106"/>
-      <c r="AD45" s="106"/>
-      <c r="AE45" s="106"/>
-      <c r="AF45" s="106"/>
-      <c r="AG45" s="106"/>
-      <c r="AH45" s="106"/>
-      <c r="AI45" s="106"/>
-      <c r="AJ45" s="106"/>
-      <c r="AK45" s="106"/>
+      <c r="AC45" s="76"/>
+      <c r="AD45" s="76"/>
+      <c r="AE45" s="76"/>
+      <c r="AF45" s="76"/>
+      <c r="AG45" s="76"/>
+      <c r="AH45" s="76"/>
+      <c r="AI45" s="76"/>
+      <c r="AJ45" s="76"/>
+      <c r="AK45" s="76"/>
       <c r="AL45" s="8"/>
       <c r="AM45" s="8"/>
       <c r="AN45" s="8"/>
@@ -11088,7 +11006,7 @@
       <c r="AP91" s="18"/>
       <c r="AQ91" s="18"/>
     </row>
-    <row r="92" spans="1:43">
+    <row r="92" spans="1:43" ht="14.25">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -11098,37 +11016,37 @@
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
     </row>
-    <row r="94" spans="1:43">
+    <row r="94" spans="1:43" ht="14.25">
       <c r="A94" s="22"/>
       <c r="B94" s="22"/>
       <c r="C94" s="23"/>
     </row>
-    <row r="95" spans="1:43">
+    <row r="95" spans="1:43" ht="14.25">
       <c r="A95" s="22"/>
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
     </row>
-    <row r="96" spans="1:43">
+    <row r="96" spans="1:43" ht="14.25">
       <c r="A96" s="22"/>
       <c r="B96" s="24"/>
       <c r="C96" s="23"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" ht="14.25">
       <c r="A97" s="22"/>
       <c r="B97" s="25"/>
       <c r="C97" s="23"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" ht="14.25">
       <c r="A98" s="22"/>
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" ht="14.25">
       <c r="A99" s="22"/>
       <c r="B99" s="24"/>
       <c r="C99" s="23"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" ht="14.25">
       <c r="A100" s="22"/>
       <c r="B100" s="25"/>
       <c r="C100" s="23"/>
@@ -11154,349 +11072,171 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A8337A-A120-41E7-82E8-C10BD8998FAC}">
   <sheetPr filterMode="1"/>
-  <dimension ref="C5:F28"/>
+  <dimension ref="C5:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="101" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="2.5" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="1.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="80.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" ht="22" customHeight="1">
-      <c r="C5" s="56" t="s">
+    <row r="5" spans="3:6" ht="21.95" customHeight="1">
+      <c r="C5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="82" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="22" customHeight="1">
-      <c r="C6" s="58">
+    <row r="6" spans="3:6">
+      <c r="C6" s="79">
         <f>ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="42">
         <v>1</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="90" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="24">
+      <c r="C7" s="79">
+        <f t="shared" ref="C7" si="0">ROW()-5</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="42">
+        <v>1</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="79">
+        <f t="shared" ref="C8:C9" si="1">ROW()-5</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="42">
+        <v>1</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="24">
+      <c r="C9" s="79">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="81" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" ht="22" customHeight="1">
-      <c r="C7" s="58">
-        <f t="shared" ref="C7:C9" si="0">ROW()-5</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="47">
+      <c r="E9" s="42">
         <v>1</v>
       </c>
-      <c r="F7" s="62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" ht="22" customHeight="1">
-      <c r="C8" s="58">
-        <f>ROW()-5</f>
-        <v>3</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="47">
+      <c r="F9" s="91" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="79">
+        <f t="shared" ref="C10" si="2">ROW()-5</f>
+        <v>5</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="42">
         <v>1</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F10" s="91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="79">
+        <f t="shared" ref="C11" si="3">ROW()-5</f>
+        <v>6</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="42">
+        <v>1</v>
+      </c>
+      <c r="F11" s="90" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="79">
+        <f t="shared" ref="C12:C14" si="4">ROW()-5</f>
+        <v>7</v>
+      </c>
+      <c r="D12" s="86" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" ht="22" customHeight="1">
-      <c r="C9" s="58">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="47">
+      <c r="E12" s="42">
         <v>1</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F12" s="92" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="3:6" ht="16" hidden="1">
-      <c r="C10" s="53"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="41">
-        <v>2</v>
-      </c>
-      <c r="F10" s="52" t="s">
+    <row r="13" spans="3:6">
+      <c r="C13" s="79">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="43">
+        <v>1</v>
+      </c>
+      <c r="F13" s="93" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="88">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="89" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" ht="22" customHeight="1">
-      <c r="C11" s="58">
-        <f t="shared" ref="C11:C13" si="1">ROW()-5</f>
-        <v>6</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="47">
+      <c r="E14" s="44">
         <v>1</v>
       </c>
-      <c r="F11" s="66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" ht="22" customHeight="1">
-      <c r="C12" s="58">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="47">
-        <v>1</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" ht="22" customHeight="1">
-      <c r="C13" s="58">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="47">
-        <v>1</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" hidden="1">
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="41">
-        <v>2</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="22" customHeight="1">
-      <c r="C15" s="58">
-        <f t="shared" ref="C15:C16" si="2">ROW()-5</f>
-        <v>10</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="47">
-        <v>1</v>
-      </c>
-      <c r="F15" s="66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" ht="22" customHeight="1">
-      <c r="C16" s="58">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="47">
-        <v>1</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="16" hidden="1">
-      <c r="C17" s="52"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="41">
-        <v>2</v>
-      </c>
-      <c r="F17" s="52"/>
-    </row>
-    <row r="18" spans="3:6" ht="22" customHeight="1">
-      <c r="C18" s="58">
-        <f t="shared" ref="C18:C22" si="3">ROW()-5</f>
-        <v>13</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="47">
-        <v>1</v>
-      </c>
-      <c r="F18" s="69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="22" customHeight="1">
-      <c r="C19" s="58">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="47">
-        <v>1</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="22" customHeight="1">
-      <c r="C20" s="58">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="47">
-        <v>1</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="22" customHeight="1">
-      <c r="C21" s="58">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="47">
-        <v>1</v>
-      </c>
-      <c r="F21" s="62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="22" customHeight="1">
-      <c r="C22" s="58">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="47">
-        <v>1</v>
-      </c>
-      <c r="F22" s="63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" hidden="1">
-      <c r="C23" s="53"/>
-      <c r="D23" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="41">
-        <v>2</v>
-      </c>
-      <c r="F23" s="55"/>
-    </row>
-    <row r="24" spans="3:6" hidden="1">
-      <c r="C24" s="42"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="41">
-        <v>2</v>
-      </c>
-      <c r="F24" s="45"/>
-    </row>
-    <row r="25" spans="3:6" hidden="1">
-      <c r="C25" s="42"/>
-      <c r="D25" s="51" t="s">
+      <c r="F14" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="41">
-        <v>2</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="22" customHeight="1">
-      <c r="C26" s="58">
-        <f t="shared" ref="C26:C28" si="4">ROW()-5</f>
-        <v>21</v>
-      </c>
-      <c r="D26" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="47">
-        <v>1</v>
-      </c>
-      <c r="F26" s="66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="22" customHeight="1">
-      <c r="C27" s="58">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="D27" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="48">
-        <v>1</v>
-      </c>
-      <c r="F27" s="73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" ht="19" customHeight="1">
-      <c r="C28" s="58">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="D28" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="49">
-        <v>1</v>
-      </c>
-      <c r="F28" s="74"/>
     </row>
   </sheetData>
-  <autoFilter ref="C5:F28" xr:uid="{E5A8337A-A120-41E7-82E8-C10BD8998FAC}">
+  <autoFilter ref="C5:F14" xr:uid="{E5A8337A-A120-41E7-82E8-C10BD8998FAC}">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
